--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>页面名称</t>
   </si>
@@ -120,10 +120,6 @@
     <t>资产分析</t>
   </si>
   <si>
-    <t>1、头部header右边点击下拉列表
-2、echarts效果问题</t>
-  </si>
-  <si>
     <t>edit</t>
   </si>
   <si>
@@ -171,6 +167,19 @@
   </si>
   <si>
     <t>条件选择样式没有提供</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>心愿单</t>
+  </si>
+  <si>
+    <t>1、点击心愿效果没有
+2、如何评论，是点击消息按钮还是input框如何提交评论
+3、搜索按钮搜索什么东西
+4、若是除了书籍以外的怎么显示
+5、转发、编辑和删除</t>
   </si>
 </sst>
 </file>
@@ -178,9 +187,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -964,7 +973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,28 +1019,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1393,8 +1390,8 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1546,973 +1543,977 @@
       <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="1:3">
       <c r="A15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:3">
       <c r="A16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" ht="50" customHeight="1" spans="1:3">
       <c r="A17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="9" t="s">
+    </row>
+    <row r="18" ht="50" customHeight="1" spans="1:3">
+      <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" ht="50" customHeight="1" spans="1:3">
-      <c r="A18" s="15" t="s">
+      <c r="B18" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" ht="50" customHeight="1" spans="1:3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" ht="50" customHeight="1" spans="1:3">
+      <c r="A20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" ht="50" customHeight="1" spans="1:3">
-      <c r="A20" s="15" t="s">
+      <c r="B20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="C20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="12" t="s">
+    </row>
+    <row r="21" ht="87" customHeight="1" spans="1:3">
+      <c r="A21" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" ht="50" customHeight="1" spans="1:3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="22" ht="50" customHeight="1" spans="1:3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="12"/>
     </row>
     <row r="23" ht="50" customHeight="1" spans="1:3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="9"/>
     </row>
     <row r="24" ht="50" customHeight="1" spans="1:3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="12"/>
     </row>
     <row r="25" ht="50" customHeight="1" spans="1:3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="9"/>
     </row>
     <row r="26" ht="50" customHeight="1" spans="1:3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="12"/>
     </row>
     <row r="27" ht="50" customHeight="1" spans="1:3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="9"/>
     </row>
     <row r="28" ht="50" customHeight="1" spans="1:3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="12"/>
     </row>
     <row r="29" ht="50" customHeight="1" spans="1:3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="9"/>
     </row>
     <row r="30" ht="50" customHeight="1" spans="1:3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="12"/>
     </row>
     <row r="31" ht="50" customHeight="1" spans="1:3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="9"/>
     </row>
     <row r="32" ht="50" customHeight="1" spans="1:3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="12"/>
     </row>
     <row r="33" ht="50" customHeight="1" spans="1:3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="9"/>
     </row>
     <row r="34" ht="50" customHeight="1" spans="1:3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="12"/>
     </row>
     <row r="35" ht="50" customHeight="1" spans="1:3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="9"/>
     </row>
     <row r="36" ht="50" customHeight="1" spans="1:3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="12"/>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="9"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="12"/>
     </row>
     <row r="39" ht="50" customHeight="1" spans="1:3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="9"/>
     </row>
     <row r="40" ht="50" customHeight="1" spans="1:3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="12"/>
     </row>
     <row r="41" ht="50" customHeight="1" spans="1:3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="9"/>
     </row>
     <row r="42" ht="50" customHeight="1" spans="1:3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="12"/>
     </row>
     <row r="43" ht="50" customHeight="1" spans="1:3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="9"/>
     </row>
     <row r="44" ht="50" customHeight="1" spans="1:3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="12"/>
     </row>
     <row r="45" ht="50" customHeight="1" spans="1:3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="9"/>
     </row>
     <row r="46" ht="50" customHeight="1" spans="1:3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="12"/>
     </row>
     <row r="47" ht="50" customHeight="1" spans="1:3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="9"/>
     </row>
     <row r="48" ht="50" customHeight="1" spans="1:3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="12"/>
     </row>
     <row r="49" ht="50" customHeight="1" spans="1:3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="9"/>
     </row>
     <row r="50" ht="50" customHeight="1" spans="1:3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="12"/>
     </row>
     <row r="51" ht="50" customHeight="1" spans="1:3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="9"/>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="12"/>
     </row>
     <row r="53" ht="50" customHeight="1" spans="1:3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="9"/>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="12"/>
     </row>
     <row r="55" ht="50" customHeight="1" spans="1:3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="9"/>
     </row>
     <row r="56" ht="50" customHeight="1" spans="1:3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="12"/>
     </row>
     <row r="57" ht="50" customHeight="1" spans="1:3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="9"/>
     </row>
     <row r="58" ht="50" customHeight="1" spans="1:3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="12"/>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="9"/>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="19"/>
-      <c r="B77" s="20"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="21"/>
-      <c r="B82" s="22"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="16"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="19"/>
-      <c r="B87" s="20"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="19"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="21"/>
-      <c r="B92" s="22"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="19"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="17"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="21"/>
-      <c r="B98" s="22"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="19"/>
-      <c r="B99" s="20"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="21"/>
-      <c r="B100" s="22"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="16"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="19"/>
-      <c r="B101" s="20"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="21"/>
-      <c r="B102" s="22"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="19"/>
-      <c r="B103" s="20"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="21"/>
-      <c r="B104" s="22"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="19"/>
-      <c r="B105" s="20"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="21"/>
-      <c r="B106" s="22"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="16"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="19"/>
-      <c r="B107" s="20"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="21"/>
-      <c r="B108" s="22"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="19"/>
-      <c r="B109" s="20"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="19"/>
-      <c r="B111" s="20"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="21"/>
-      <c r="B112" s="22"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="16"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="19"/>
-      <c r="B113" s="20"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="21"/>
-      <c r="B114" s="22"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="16"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="19"/>
-      <c r="B115" s="20"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="21"/>
-      <c r="B116" s="22"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="16"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="19"/>
-      <c r="B117" s="20"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="21"/>
-      <c r="B118" s="22"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="16"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="19"/>
-      <c r="B119" s="20"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="21"/>
-      <c r="B120" s="22"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="16"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="19"/>
-      <c r="B121" s="20"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="21"/>
-      <c r="B122" s="22"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="16"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="19"/>
-      <c r="B123" s="20"/>
+      <c r="A123" s="17"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="21"/>
-      <c r="B124" s="22"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="16"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="19"/>
-      <c r="B125" s="20"/>
+      <c r="A125" s="17"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="21"/>
-      <c r="B126" s="22"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="16"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="19"/>
-      <c r="B127" s="20"/>
+      <c r="A127" s="17"/>
+      <c r="B127" s="18"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="21"/>
-      <c r="B128" s="22"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="16"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="19"/>
-      <c r="B129" s="20"/>
+      <c r="A129" s="17"/>
+      <c r="B129" s="18"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="21"/>
-      <c r="B130" s="22"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="16"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="19"/>
-      <c r="B131" s="20"/>
+      <c r="A131" s="17"/>
+      <c r="B131" s="18"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="21"/>
-      <c r="B132" s="22"/>
+      <c r="A132" s="15"/>
+      <c r="B132" s="16"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="19"/>
-      <c r="B133" s="20"/>
+      <c r="A133" s="17"/>
+      <c r="B133" s="18"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="21"/>
-      <c r="B134" s="22"/>
+      <c r="A134" s="15"/>
+      <c r="B134" s="16"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="19"/>
-      <c r="B135" s="20"/>
+      <c r="A135" s="17"/>
+      <c r="B135" s="18"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="21"/>
-      <c r="B136" s="22"/>
+      <c r="A136" s="15"/>
+      <c r="B136" s="16"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="19"/>
-      <c r="B137" s="20"/>
+      <c r="A137" s="17"/>
+      <c r="B137" s="18"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="21"/>
-      <c r="B138" s="22"/>
+      <c r="A138" s="15"/>
+      <c r="B138" s="16"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="19"/>
-      <c r="B139" s="20"/>
+      <c r="A139" s="17"/>
+      <c r="B139" s="18"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="21"/>
-      <c r="B140" s="22"/>
+      <c r="A140" s="15"/>
+      <c r="B140" s="16"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="19"/>
-      <c r="B141" s="20"/>
+      <c r="A141" s="17"/>
+      <c r="B141" s="18"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="21"/>
-      <c r="B142" s="22"/>
+      <c r="A142" s="15"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="19"/>
-      <c r="B143" s="20"/>
+      <c r="A143" s="17"/>
+      <c r="B143" s="18"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="21"/>
-      <c r="B144" s="22"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="16"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="19"/>
-      <c r="B145" s="20"/>
+      <c r="A145" s="17"/>
+      <c r="B145" s="18"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="21"/>
-      <c r="B146" s="22"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="16"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="19"/>
-      <c r="B147" s="20"/>
+      <c r="A147" s="17"/>
+      <c r="B147" s="18"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="21"/>
-      <c r="B148" s="22"/>
+      <c r="A148" s="15"/>
+      <c r="B148" s="16"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="19"/>
-      <c r="B149" s="20"/>
+      <c r="A149" s="17"/>
+      <c r="B149" s="18"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="21"/>
-      <c r="B150" s="22"/>
+      <c r="A150" s="15"/>
+      <c r="B150" s="16"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="19"/>
-      <c r="B151" s="20"/>
+      <c r="A151" s="17"/>
+      <c r="B151" s="18"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="21"/>
-      <c r="B152" s="22"/>
+      <c r="A152" s="15"/>
+      <c r="B152" s="16"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="19"/>
-      <c r="B153" s="20"/>
+      <c r="A153" s="17"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="21"/>
-      <c r="B154" s="22"/>
+      <c r="A154" s="15"/>
+      <c r="B154" s="16"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="19"/>
-      <c r="B155" s="20"/>
+      <c r="A155" s="17"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="21"/>
-      <c r="B156" s="22"/>
+      <c r="A156" s="15"/>
+      <c r="B156" s="16"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="19"/>
-      <c r="B157" s="20"/>
+      <c r="A157" s="17"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="21"/>
-      <c r="B158" s="22"/>
+      <c r="A158" s="15"/>
+      <c r="B158" s="16"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="19"/>
-      <c r="B159" s="20"/>
+      <c r="A159" s="17"/>
+      <c r="B159" s="18"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="21"/>
-      <c r="B160" s="22"/>
+      <c r="A160" s="15"/>
+      <c r="B160" s="16"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="19"/>
-      <c r="B161" s="20"/>
+      <c r="A161" s="17"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="21"/>
-      <c r="B162" s="22"/>
+      <c r="A162" s="15"/>
+      <c r="B162" s="16"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="19"/>
-      <c r="B163" s="20"/>
+      <c r="A163" s="17"/>
+      <c r="B163" s="18"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="21"/>
-      <c r="B164" s="22"/>
+      <c r="A164" s="15"/>
+      <c r="B164" s="16"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="19"/>
-      <c r="B165" s="20"/>
+      <c r="A165" s="17"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="21"/>
-      <c r="B166" s="22"/>
+      <c r="A166" s="15"/>
+      <c r="B166" s="16"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="19"/>
-      <c r="B167" s="20"/>
+      <c r="A167" s="17"/>
+      <c r="B167" s="18"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="21"/>
-      <c r="B168" s="22"/>
+      <c r="A168" s="15"/>
+      <c r="B168" s="16"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="19"/>
-      <c r="B169" s="20"/>
+      <c r="A169" s="17"/>
+      <c r="B169" s="18"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="21"/>
-      <c r="B170" s="22"/>
+      <c r="A170" s="15"/>
+      <c r="B170" s="16"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="19"/>
-      <c r="B171" s="20"/>
+      <c r="A171" s="17"/>
+      <c r="B171" s="18"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="21"/>
-      <c r="B172" s="22"/>
+      <c r="A172" s="15"/>
+      <c r="B172" s="16"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="19"/>
-      <c r="B173" s="20"/>
+      <c r="A173" s="17"/>
+      <c r="B173" s="18"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="21"/>
-      <c r="B174" s="22"/>
+      <c r="A174" s="15"/>
+      <c r="B174" s="16"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="19"/>
-      <c r="B175" s="20"/>
+      <c r="A175" s="17"/>
+      <c r="B175" s="18"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="21"/>
-      <c r="B176" s="22"/>
+      <c r="A176" s="15"/>
+      <c r="B176" s="16"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="19"/>
-      <c r="B177" s="20"/>
+      <c r="A177" s="17"/>
+      <c r="B177" s="18"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="21"/>
-      <c r="B178" s="22"/>
+      <c r="A178" s="15"/>
+      <c r="B178" s="16"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="19"/>
-      <c r="B179" s="20"/>
+      <c r="A179" s="17"/>
+      <c r="B179" s="18"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="21"/>
-      <c r="B180" s="22"/>
+      <c r="A180" s="15"/>
+      <c r="B180" s="16"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="19"/>
-      <c r="B181" s="20"/>
+      <c r="A181" s="17"/>
+      <c r="B181" s="18"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="21"/>
-      <c r="B182" s="22"/>
+      <c r="A182" s="15"/>
+      <c r="B182" s="16"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="19"/>
-      <c r="B183" s="20"/>
+      <c r="A183" s="17"/>
+      <c r="B183" s="18"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="21"/>
-      <c r="B184" s="22"/>
+      <c r="A184" s="15"/>
+      <c r="B184" s="16"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="19"/>
-      <c r="B185" s="20"/>
+      <c r="A185" s="17"/>
+      <c r="B185" s="18"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="21"/>
-      <c r="B186" s="22"/>
+      <c r="A186" s="15"/>
+      <c r="B186" s="16"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="19"/>
-      <c r="B187" s="20"/>
+      <c r="A187" s="17"/>
+      <c r="B187" s="18"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="21"/>
-      <c r="B188" s="22"/>
+      <c r="A188" s="15"/>
+      <c r="B188" s="16"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="19"/>
-      <c r="B189" s="20"/>
+      <c r="A189" s="17"/>
+      <c r="B189" s="18"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="21"/>
-      <c r="B190" s="22"/>
+      <c r="A190" s="15"/>
+      <c r="B190" s="16"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
+      <c r="A191" s="17"/>
+      <c r="B191" s="18"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="21"/>
-      <c r="B192" s="22"/>
+      <c r="A192" s="15"/>
+      <c r="B192" s="16"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
+      <c r="A193" s="17"/>
+      <c r="B193" s="18"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="21"/>
-      <c r="B194" s="22"/>
+      <c r="A194" s="15"/>
+      <c r="B194" s="16"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="19"/>
-      <c r="B195" s="20"/>
+      <c r="A195" s="17"/>
+      <c r="B195" s="18"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="21"/>
-      <c r="B196" s="22"/>
+      <c r="A196" s="15"/>
+      <c r="B196" s="16"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="19"/>
-      <c r="B197" s="20"/>
+      <c r="A197" s="17"/>
+      <c r="B197" s="18"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="21"/>
-      <c r="B198" s="22"/>
+      <c r="A198" s="15"/>
+      <c r="B198" s="16"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="19"/>
-      <c r="B199" s="20"/>
+      <c r="A199" s="17"/>
+      <c r="B199" s="18"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="23"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="25"/>
+      <c r="A200" s="19"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12180"/>
+    <workbookView windowWidth="16425" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>页面名称</t>
   </si>
@@ -102,7 +102,7 @@
     <t>我的收藏</t>
   </si>
   <si>
-    <t>code</t>
+    <t>referral_code</t>
   </si>
   <si>
     <t>关注码</t>
@@ -180,6 +180,95 @@
 3、搜索按钮搜索什么东西
 4、若是除了书籍以外的怎么显示
 5、转发、编辑和删除</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>账户安全</t>
+  </si>
+  <si>
+    <t>1、头部header右边点击下拉列表
+2、用户名修改链接
+3、手机号修改链接</t>
+  </si>
+  <si>
+    <t>addshop</t>
+  </si>
+  <si>
+    <t>店铺管理</t>
+  </si>
+  <si>
+    <t>创建店铺链接</t>
+  </si>
+  <si>
+    <t>advice</t>
+  </si>
+  <si>
+    <t>建议及投诉</t>
+  </si>
+  <si>
+    <t>头部右上角编辑按钮什么功能</t>
+  </si>
+  <si>
+    <t>amend_pay</t>
+  </si>
+  <si>
+    <t>修改支付密码</t>
+  </si>
+  <si>
+    <t>1、头部header右边点击下拉列表
+2、下一级链接</t>
+  </si>
+  <si>
+    <t>bill_detail</t>
+  </si>
+  <si>
+    <t>账单明细</t>
+  </si>
+  <si>
+    <t>下一级链接</t>
+  </si>
+  <si>
+    <t>binding_failure</t>
+  </si>
+  <si>
+    <t>绑定失败</t>
+  </si>
+  <si>
+    <t>1、头部header右边点击下拉列表
+2、重新绑定链接</t>
+  </si>
+  <si>
+    <t>binding_success</t>
+  </si>
+  <si>
+    <t>绑定成功</t>
+  </si>
+  <si>
+    <t>1、头部header右边点击下拉列表
+2、登陆链接</t>
+  </si>
+  <si>
+    <t>verify_code</t>
+  </si>
+  <si>
+    <t>填写验证码</t>
+  </si>
+  <si>
+    <t>1、头部header右边点击下拉列表
+2、验证码倒计时，是否能够重新获取验证码</t>
+  </si>
+  <si>
+    <t>personal_data</t>
+  </si>
+  <si>
+    <t>个人资料</t>
+  </si>
+  <si>
+    <t>1、头部header右边点击下拉列表
+2、昵称构成有哪些条件（正则）
+3、头像上传</t>
   </si>
 </sst>
 </file>
@@ -1019,16 +1108,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1390,8 +1479,8 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1621,893 +1710,947 @@
       </c>
     </row>
     <row r="22" ht="50" customHeight="1" spans="1:3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" ht="50" customHeight="1" spans="1:3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" ht="50" customHeight="1" spans="1:3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" ht="50" customHeight="1" spans="1:3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="26" ht="50" customHeight="1" spans="1:3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="27" ht="50" customHeight="1" spans="1:3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="28" ht="50" customHeight="1" spans="1:3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="29" ht="50" customHeight="1" spans="1:3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" ht="50" customHeight="1" spans="1:3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="12"/>
+      <c r="A30" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="31" ht="50" customHeight="1" spans="1:3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="9"/>
     </row>
     <row r="32" ht="50" customHeight="1" spans="1:3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="12"/>
     </row>
     <row r="33" ht="50" customHeight="1" spans="1:3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="9"/>
     </row>
     <row r="34" ht="50" customHeight="1" spans="1:3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="12"/>
     </row>
     <row r="35" ht="50" customHeight="1" spans="1:3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="9"/>
     </row>
     <row r="36" ht="50" customHeight="1" spans="1:3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="12"/>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="9"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="12"/>
     </row>
     <row r="39" ht="50" customHeight="1" spans="1:3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="9"/>
     </row>
     <row r="40" ht="50" customHeight="1" spans="1:3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="12"/>
     </row>
     <row r="41" ht="50" customHeight="1" spans="1:3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="9"/>
     </row>
     <row r="42" ht="50" customHeight="1" spans="1:3">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="12"/>
     </row>
     <row r="43" ht="50" customHeight="1" spans="1:3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="9"/>
     </row>
     <row r="44" ht="50" customHeight="1" spans="1:3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="12"/>
     </row>
     <row r="45" ht="50" customHeight="1" spans="1:3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="9"/>
     </row>
     <row r="46" ht="50" customHeight="1" spans="1:3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="12"/>
     </row>
     <row r="47" ht="50" customHeight="1" spans="1:3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="9"/>
     </row>
     <row r="48" ht="50" customHeight="1" spans="1:3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="12"/>
     </row>
     <row r="49" ht="50" customHeight="1" spans="1:3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="9"/>
     </row>
     <row r="50" ht="50" customHeight="1" spans="1:3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="12"/>
     </row>
     <row r="51" ht="50" customHeight="1" spans="1:3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="9"/>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:3">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="12"/>
     </row>
     <row r="53" ht="50" customHeight="1" spans="1:3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="9"/>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:3">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="12"/>
     </row>
     <row r="55" ht="50" customHeight="1" spans="1:3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="9"/>
     </row>
     <row r="56" ht="50" customHeight="1" spans="1:3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="12"/>
     </row>
     <row r="57" ht="50" customHeight="1" spans="1:3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="9"/>
     </row>
     <row r="58" ht="50" customHeight="1" spans="1:3">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="12"/>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="9"/>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
-      <c r="A66" s="15"/>
-      <c r="B66" s="16"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="18"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="16"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="15"/>
-      <c r="B72" s="16"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="17"/>
-      <c r="B75" s="18"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="17"/>
-      <c r="B77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="17"/>
-      <c r="B79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="15"/>
-      <c r="B80" s="16"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="18"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="15"/>
-      <c r="B82" s="16"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="17"/>
-      <c r="B83" s="18"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="15"/>
-      <c r="B84" s="16"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="17"/>
-      <c r="B85" s="18"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="15"/>
-      <c r="B86" s="16"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="17"/>
-      <c r="B87" s="18"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="15"/>
-      <c r="B88" s="16"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="17"/>
-      <c r="B89" s="18"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="15"/>
-      <c r="B90" s="16"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="17"/>
-      <c r="B91" s="18"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="15"/>
-      <c r="B92" s="16"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="17"/>
-      <c r="B93" s="18"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="15"/>
-      <c r="B94" s="16"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="17"/>
-      <c r="B95" s="18"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="16"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="15"/>
-      <c r="B96" s="16"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="17"/>
-      <c r="B97" s="18"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="16"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="15"/>
-      <c r="B98" s="16"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="17"/>
-      <c r="B99" s="18"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="15"/>
-      <c r="B100" s="16"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="17"/>
-      <c r="B101" s="18"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="16"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="15"/>
-      <c r="B102" s="16"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="17"/>
-      <c r="B103" s="18"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="15"/>
-      <c r="B104" s="16"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="17"/>
-      <c r="B105" s="18"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="15"/>
-      <c r="B106" s="16"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="17"/>
-      <c r="B107" s="18"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="15"/>
-      <c r="B108" s="16"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="17"/>
-      <c r="B109" s="18"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="16"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="15"/>
-      <c r="B110" s="16"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="17"/>
-      <c r="B111" s="18"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="15"/>
-      <c r="B112" s="16"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="17"/>
-      <c r="B113" s="18"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="16"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="15"/>
-      <c r="B114" s="16"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="17"/>
-      <c r="B115" s="18"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="15"/>
-      <c r="B116" s="16"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="17"/>
-      <c r="B117" s="18"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="16"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="15"/>
-      <c r="B118" s="16"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="17"/>
-      <c r="B119" s="18"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="16"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="15"/>
-      <c r="B120" s="16"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="17"/>
-      <c r="B121" s="18"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="16"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="15"/>
-      <c r="B122" s="16"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="17"/>
-      <c r="B123" s="18"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="16"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="15"/>
-      <c r="B124" s="16"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="17"/>
-      <c r="B125" s="18"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="16"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="15"/>
-      <c r="B126" s="16"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="17"/>
-      <c r="B127" s="18"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="16"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="15"/>
-      <c r="B128" s="16"/>
+      <c r="A128" s="17"/>
+      <c r="B128" s="18"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="17"/>
-      <c r="B129" s="18"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="16"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="15"/>
-      <c r="B130" s="16"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="18"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="17"/>
-      <c r="B131" s="18"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="16"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="15"/>
-      <c r="B132" s="16"/>
+      <c r="A132" s="17"/>
+      <c r="B132" s="18"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="17"/>
-      <c r="B133" s="18"/>
+      <c r="A133" s="15"/>
+      <c r="B133" s="16"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="15"/>
-      <c r="B134" s="16"/>
+      <c r="A134" s="17"/>
+      <c r="B134" s="18"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="17"/>
-      <c r="B135" s="18"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="16"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="15"/>
-      <c r="B136" s="16"/>
+      <c r="A136" s="17"/>
+      <c r="B136" s="18"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="17"/>
-      <c r="B137" s="18"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="16"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="15"/>
-      <c r="B138" s="16"/>
+      <c r="A138" s="17"/>
+      <c r="B138" s="18"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="17"/>
-      <c r="B139" s="18"/>
+      <c r="A139" s="15"/>
+      <c r="B139" s="16"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="15"/>
-      <c r="B140" s="16"/>
+      <c r="A140" s="17"/>
+      <c r="B140" s="18"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="17"/>
-      <c r="B141" s="18"/>
+      <c r="A141" s="15"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="15"/>
-      <c r="B142" s="16"/>
+      <c r="A142" s="17"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="17"/>
-      <c r="B143" s="18"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="16"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="15"/>
-      <c r="B144" s="16"/>
+      <c r="A144" s="17"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="17"/>
-      <c r="B145" s="18"/>
+      <c r="A145" s="15"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="15"/>
-      <c r="B146" s="16"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="17"/>
-      <c r="B147" s="18"/>
+      <c r="A147" s="15"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="15"/>
-      <c r="B148" s="16"/>
+      <c r="A148" s="17"/>
+      <c r="B148" s="18"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="17"/>
-      <c r="B149" s="18"/>
+      <c r="A149" s="15"/>
+      <c r="B149" s="16"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="15"/>
-      <c r="B150" s="16"/>
+      <c r="A150" s="17"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="17"/>
-      <c r="B151" s="18"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="16"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="15"/>
-      <c r="B152" s="16"/>
+      <c r="A152" s="17"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="17"/>
-      <c r="B153" s="18"/>
+      <c r="A153" s="15"/>
+      <c r="B153" s="16"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="15"/>
-      <c r="B154" s="16"/>
+      <c r="A154" s="17"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="17"/>
-      <c r="B155" s="18"/>
+      <c r="A155" s="15"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="15"/>
-      <c r="B156" s="16"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="17"/>
-      <c r="B157" s="18"/>
+      <c r="A157" s="15"/>
+      <c r="B157" s="16"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="15"/>
-      <c r="B158" s="16"/>
+      <c r="A158" s="17"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="17"/>
-      <c r="B159" s="18"/>
+      <c r="A159" s="15"/>
+      <c r="B159" s="16"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="15"/>
-      <c r="B160" s="16"/>
+      <c r="A160" s="17"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="17"/>
-      <c r="B161" s="18"/>
+      <c r="A161" s="15"/>
+      <c r="B161" s="16"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="15"/>
-      <c r="B162" s="16"/>
+      <c r="A162" s="17"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="17"/>
-      <c r="B163" s="18"/>
+      <c r="A163" s="15"/>
+      <c r="B163" s="16"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="15"/>
-      <c r="B164" s="16"/>
+      <c r="A164" s="17"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="17"/>
-      <c r="B165" s="18"/>
+      <c r="A165" s="15"/>
+      <c r="B165" s="16"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="15"/>
-      <c r="B166" s="16"/>
+      <c r="A166" s="17"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="17"/>
-      <c r="B167" s="18"/>
+      <c r="A167" s="15"/>
+      <c r="B167" s="16"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="15"/>
-      <c r="B168" s="16"/>
+      <c r="A168" s="17"/>
+      <c r="B168" s="18"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="17"/>
-      <c r="B169" s="18"/>
+      <c r="A169" s="15"/>
+      <c r="B169" s="16"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="15"/>
-      <c r="B170" s="16"/>
+      <c r="A170" s="17"/>
+      <c r="B170" s="18"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="17"/>
-      <c r="B171" s="18"/>
+      <c r="A171" s="15"/>
+      <c r="B171" s="16"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="15"/>
-      <c r="B172" s="16"/>
+      <c r="A172" s="17"/>
+      <c r="B172" s="18"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="17"/>
-      <c r="B173" s="18"/>
+      <c r="A173" s="15"/>
+      <c r="B173" s="16"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="15"/>
-      <c r="B174" s="16"/>
+      <c r="A174" s="17"/>
+      <c r="B174" s="18"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="17"/>
-      <c r="B175" s="18"/>
+      <c r="A175" s="15"/>
+      <c r="B175" s="16"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="15"/>
-      <c r="B176" s="16"/>
+      <c r="A176" s="17"/>
+      <c r="B176" s="18"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="17"/>
-      <c r="B177" s="18"/>
+      <c r="A177" s="15"/>
+      <c r="B177" s="16"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="15"/>
-      <c r="B178" s="16"/>
+      <c r="A178" s="17"/>
+      <c r="B178" s="18"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="17"/>
-      <c r="B179" s="18"/>
+      <c r="A179" s="15"/>
+      <c r="B179" s="16"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="15"/>
-      <c r="B180" s="16"/>
+      <c r="A180" s="17"/>
+      <c r="B180" s="18"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="17"/>
-      <c r="B181" s="18"/>
+      <c r="A181" s="15"/>
+      <c r="B181" s="16"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="15"/>
-      <c r="B182" s="16"/>
+      <c r="A182" s="17"/>
+      <c r="B182" s="18"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="17"/>
-      <c r="B183" s="18"/>
+      <c r="A183" s="15"/>
+      <c r="B183" s="16"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="15"/>
-      <c r="B184" s="16"/>
+      <c r="A184" s="17"/>
+      <c r="B184" s="18"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="17"/>
-      <c r="B185" s="18"/>
+      <c r="A185" s="15"/>
+      <c r="B185" s="16"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="15"/>
-      <c r="B186" s="16"/>
+      <c r="A186" s="17"/>
+      <c r="B186" s="18"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="17"/>
-      <c r="B187" s="18"/>
+      <c r="A187" s="15"/>
+      <c r="B187" s="16"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="15"/>
-      <c r="B188" s="16"/>
+      <c r="A188" s="17"/>
+      <c r="B188" s="18"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="17"/>
-      <c r="B189" s="18"/>
+      <c r="A189" s="15"/>
+      <c r="B189" s="16"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="15"/>
-      <c r="B190" s="16"/>
+      <c r="A190" s="17"/>
+      <c r="B190" s="18"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="17"/>
-      <c r="B191" s="18"/>
+      <c r="A191" s="15"/>
+      <c r="B191" s="16"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="15"/>
-      <c r="B192" s="16"/>
+      <c r="A192" s="17"/>
+      <c r="B192" s="18"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="17"/>
-      <c r="B193" s="18"/>
+      <c r="A193" s="15"/>
+      <c r="B193" s="16"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="15"/>
-      <c r="B194" s="16"/>
+      <c r="A194" s="17"/>
+      <c r="B194" s="18"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="17"/>
-      <c r="B195" s="18"/>
+      <c r="A195" s="15"/>
+      <c r="B195" s="16"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="15"/>
-      <c r="B196" s="16"/>
+      <c r="A196" s="17"/>
+      <c r="B196" s="18"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="17"/>
-      <c r="B197" s="18"/>
+      <c r="A197" s="15"/>
+      <c r="B197" s="16"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="15"/>
-      <c r="B198" s="16"/>
+      <c r="A198" s="17"/>
+      <c r="B198" s="18"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="17"/>
-      <c r="B199" s="18"/>
+      <c r="A199" s="15"/>
+      <c r="B199" s="16"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>页面名称</t>
   </si>
@@ -269,6 +269,12 @@
     <t>1、头部header右边点击下拉列表
 2、昵称构成有哪些条件（正则）
 3、头像上传</t>
+  </si>
+  <si>
+    <t>register_fail</t>
+  </si>
+  <si>
+    <t>注册失败</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1108,16 +1114,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1479,8 +1491,8 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1809,8 +1821,12 @@
       </c>
     </row>
     <row r="31" ht="50" customHeight="1" spans="1:3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="C31" s="9"/>
     </row>
     <row r="32" ht="50" customHeight="1" spans="1:3">
@@ -1819,8 +1835,8 @@
       <c r="C32" s="12"/>
     </row>
     <row r="33" ht="50" customHeight="1" spans="1:3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="9"/>
     </row>
     <row r="34" ht="50" customHeight="1" spans="1:3">
@@ -1829,8 +1845,8 @@
       <c r="C34" s="12"/>
     </row>
     <row r="35" ht="50" customHeight="1" spans="1:3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="9"/>
     </row>
     <row r="36" ht="50" customHeight="1" spans="1:3">
@@ -1839,8 +1855,8 @@
       <c r="C36" s="12"/>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="9"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:3">
@@ -1849,8 +1865,8 @@
       <c r="C38" s="12"/>
     </row>
     <row r="39" ht="50" customHeight="1" spans="1:3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="9"/>
     </row>
     <row r="40" ht="50" customHeight="1" spans="1:3">
@@ -1859,8 +1875,8 @@
       <c r="C40" s="12"/>
     </row>
     <row r="41" ht="50" customHeight="1" spans="1:3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="9"/>
     </row>
     <row r="42" ht="50" customHeight="1" spans="1:3">
@@ -1869,8 +1885,8 @@
       <c r="C42" s="12"/>
     </row>
     <row r="43" ht="50" customHeight="1" spans="1:3">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="9"/>
     </row>
     <row r="44" ht="50" customHeight="1" spans="1:3">
@@ -1879,8 +1895,8 @@
       <c r="C44" s="12"/>
     </row>
     <row r="45" ht="50" customHeight="1" spans="1:3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="9"/>
     </row>
     <row r="46" ht="50" customHeight="1" spans="1:3">
@@ -1889,8 +1905,8 @@
       <c r="C46" s="12"/>
     </row>
     <row r="47" ht="50" customHeight="1" spans="1:3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="9"/>
     </row>
     <row r="48" ht="50" customHeight="1" spans="1:3">
@@ -1899,8 +1915,8 @@
       <c r="C48" s="12"/>
     </row>
     <row r="49" ht="50" customHeight="1" spans="1:3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="9"/>
     </row>
     <row r="50" ht="50" customHeight="1" spans="1:3">
@@ -1909,8 +1925,8 @@
       <c r="C50" s="12"/>
     </row>
     <row r="51" ht="50" customHeight="1" spans="1:3">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="9"/>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:3">
@@ -1919,8 +1935,8 @@
       <c r="C52" s="12"/>
     </row>
     <row r="53" ht="50" customHeight="1" spans="1:3">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="9"/>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:3">
@@ -1929,8 +1945,8 @@
       <c r="C54" s="12"/>
     </row>
     <row r="55" ht="50" customHeight="1" spans="1:3">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="9"/>
     </row>
     <row r="56" ht="50" customHeight="1" spans="1:3">
@@ -1939,8 +1955,8 @@
       <c r="C56" s="12"/>
     </row>
     <row r="57" ht="50" customHeight="1" spans="1:3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="9"/>
     </row>
     <row r="58" ht="50" customHeight="1" spans="1:3">
@@ -1949,8 +1965,8 @@
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
@@ -1959,8 +1975,8 @@
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
@@ -1969,8 +1985,8 @@
       <c r="C62" s="12"/>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="9"/>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
@@ -1979,8 +1995,8 @@
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
@@ -1989,8 +2005,8 @@
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
@@ -1999,8 +2015,8 @@
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
@@ -2009,8 +2025,8 @@
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
@@ -2019,8 +2035,8 @@
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
@@ -2029,8 +2045,8 @@
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="16"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
@@ -2039,8 +2055,8 @@
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
@@ -2049,8 +2065,8 @@
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="15"/>
-      <c r="B79" s="16"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
@@ -2059,8 +2075,8 @@
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
@@ -2069,8 +2085,8 @@
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="15"/>
-      <c r="B83" s="16"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
@@ -2079,8 +2095,8 @@
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="15"/>
-      <c r="B85" s="16"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
@@ -2089,8 +2105,8 @@
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="15"/>
-      <c r="B87" s="16"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
@@ -2099,8 +2115,8 @@
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="15"/>
-      <c r="B89" s="16"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
@@ -2109,8 +2125,8 @@
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="15"/>
-      <c r="B91" s="16"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
@@ -2119,8 +2135,8 @@
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="15"/>
-      <c r="B93" s="16"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
@@ -2129,8 +2145,8 @@
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="15"/>
-      <c r="B95" s="16"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
@@ -2139,8 +2155,8 @@
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="15"/>
-      <c r="B97" s="16"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
@@ -2149,8 +2165,8 @@
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="15"/>
-      <c r="B99" s="16"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
@@ -2159,8 +2175,8 @@
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="15"/>
-      <c r="B101" s="16"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
@@ -2169,8 +2185,8 @@
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="15"/>
-      <c r="B103" s="16"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
@@ -2179,8 +2195,8 @@
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="15"/>
-      <c r="B105" s="16"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
@@ -2189,8 +2205,8 @@
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="15"/>
-      <c r="B107" s="16"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
@@ -2199,8 +2215,8 @@
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="15"/>
-      <c r="B109" s="16"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
@@ -2209,8 +2225,8 @@
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="15"/>
-      <c r="B111" s="16"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
@@ -2219,8 +2235,8 @@
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="15"/>
-      <c r="B113" s="16"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
@@ -2229,8 +2245,8 @@
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="15"/>
-      <c r="B115" s="16"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
@@ -2239,8 +2255,8 @@
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="15"/>
-      <c r="B117" s="16"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
@@ -2249,8 +2265,8 @@
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="15"/>
-      <c r="B119" s="16"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
@@ -2259,8 +2275,8 @@
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="15"/>
-      <c r="B121" s="16"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
@@ -2269,8 +2285,8 @@
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="15"/>
-      <c r="B123" s="16"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
@@ -2279,8 +2295,8 @@
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="15"/>
-      <c r="B125" s="16"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
@@ -2289,8 +2305,8 @@
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="15"/>
-      <c r="B127" s="16"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
@@ -2299,8 +2315,8 @@
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="15"/>
-      <c r="B129" s="16"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
@@ -2309,8 +2325,8 @@
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="15"/>
-      <c r="B131" s="16"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
@@ -2319,8 +2335,8 @@
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="15"/>
-      <c r="B133" s="16"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
@@ -2329,8 +2345,8 @@
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="15"/>
-      <c r="B135" s="16"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
@@ -2339,8 +2355,8 @@
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="15"/>
-      <c r="B137" s="16"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
@@ -2349,8 +2365,8 @@
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="15"/>
-      <c r="B139" s="16"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
@@ -2359,8 +2375,8 @@
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="15"/>
-      <c r="B141" s="16"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
@@ -2369,8 +2385,8 @@
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="15"/>
-      <c r="B143" s="16"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
@@ -2379,8 +2395,8 @@
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="15"/>
-      <c r="B145" s="16"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
@@ -2389,8 +2405,8 @@
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="15"/>
-      <c r="B147" s="16"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
@@ -2399,8 +2415,8 @@
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="15"/>
-      <c r="B149" s="16"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
@@ -2409,8 +2425,8 @@
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="15"/>
-      <c r="B151" s="16"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
@@ -2419,8 +2435,8 @@
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="15"/>
-      <c r="B153" s="16"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
@@ -2429,8 +2445,8 @@
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="15"/>
-      <c r="B155" s="16"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
@@ -2439,8 +2455,8 @@
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="15"/>
-      <c r="B157" s="16"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
@@ -2449,8 +2465,8 @@
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="15"/>
-      <c r="B159" s="16"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
@@ -2459,8 +2475,8 @@
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="15"/>
-      <c r="B161" s="16"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
@@ -2469,8 +2485,8 @@
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="15"/>
-      <c r="B163" s="16"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
@@ -2479,8 +2495,8 @@
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="15"/>
-      <c r="B165" s="16"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
@@ -2489,8 +2505,8 @@
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="15"/>
-      <c r="B167" s="16"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
@@ -2499,8 +2515,8 @@
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="15"/>
-      <c r="B169" s="16"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
@@ -2509,8 +2525,8 @@
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="15"/>
-      <c r="B171" s="16"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
@@ -2519,8 +2535,8 @@
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="15"/>
-      <c r="B173" s="16"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
@@ -2529,8 +2545,8 @@
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="15"/>
-      <c r="B175" s="16"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
@@ -2539,8 +2555,8 @@
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="15"/>
-      <c r="B177" s="16"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
@@ -2549,8 +2565,8 @@
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="15"/>
-      <c r="B179" s="16"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
@@ -2559,8 +2575,8 @@
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="15"/>
-      <c r="B181" s="16"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
@@ -2569,8 +2585,8 @@
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="15"/>
-      <c r="B183" s="16"/>
+      <c r="A183" s="19"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
@@ -2579,8 +2595,8 @@
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="15"/>
-      <c r="B185" s="16"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
@@ -2589,8 +2605,8 @@
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="15"/>
-      <c r="B187" s="16"/>
+      <c r="A187" s="19"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
@@ -2599,8 +2615,8 @@
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="15"/>
-      <c r="B189" s="16"/>
+      <c r="A189" s="19"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
@@ -2609,8 +2625,8 @@
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="15"/>
-      <c r="B191" s="16"/>
+      <c r="A191" s="19"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
@@ -2619,8 +2635,8 @@
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="15"/>
-      <c r="B193" s="16"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
@@ -2629,8 +2645,8 @@
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="15"/>
-      <c r="B195" s="16"/>
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
@@ -2639,8 +2655,8 @@
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="15"/>
-      <c r="B197" s="16"/>
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
@@ -2649,14 +2665,14 @@
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="15"/>
-      <c r="B199" s="16"/>
+      <c r="A199" s="19"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="19"/>
-      <c r="B200" s="20"/>
-      <c r="C200" s="21"/>
+      <c r="A200" s="21"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="11865"/>
+    <workbookView windowWidth="16425" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>页面名称</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>注册失败</t>
+  </si>
+  <si>
+    <t>social_binding</t>
+  </si>
+  <si>
+    <t>社交账户绑定</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,16 +1126,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1492,7 +1507,7 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1830,849 +1845,855 @@
       <c r="C31" s="9"/>
     </row>
     <row r="32" ht="50" customHeight="1" spans="1:3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="12"/>
+      <c r="A32" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="33" ht="50" customHeight="1" spans="1:3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="9"/>
     </row>
     <row r="34" ht="50" customHeight="1" spans="1:3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="12"/>
     </row>
     <row r="35" ht="50" customHeight="1" spans="1:3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="9"/>
     </row>
     <row r="36" ht="50" customHeight="1" spans="1:3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="12"/>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="9"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="12"/>
     </row>
     <row r="39" ht="50" customHeight="1" spans="1:3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="9"/>
     </row>
     <row r="40" ht="50" customHeight="1" spans="1:3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="12"/>
     </row>
     <row r="41" ht="50" customHeight="1" spans="1:3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="9"/>
     </row>
     <row r="42" ht="50" customHeight="1" spans="1:3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="12"/>
     </row>
     <row r="43" ht="50" customHeight="1" spans="1:3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="9"/>
     </row>
     <row r="44" ht="50" customHeight="1" spans="1:3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="12"/>
     </row>
     <row r="45" ht="50" customHeight="1" spans="1:3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="9"/>
     </row>
     <row r="46" ht="50" customHeight="1" spans="1:3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="12"/>
     </row>
     <row r="47" ht="50" customHeight="1" spans="1:3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="9"/>
     </row>
     <row r="48" ht="50" customHeight="1" spans="1:3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="12"/>
     </row>
     <row r="49" ht="50" customHeight="1" spans="1:3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="9"/>
     </row>
     <row r="50" ht="50" customHeight="1" spans="1:3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="12"/>
     </row>
     <row r="51" ht="50" customHeight="1" spans="1:3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="9"/>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="12"/>
     </row>
     <row r="53" ht="50" customHeight="1" spans="1:3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="9"/>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="12"/>
     </row>
     <row r="55" ht="50" customHeight="1" spans="1:3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="9"/>
     </row>
     <row r="56" ht="50" customHeight="1" spans="1:3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="12"/>
     </row>
     <row r="57" ht="50" customHeight="1" spans="1:3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="9"/>
     </row>
     <row r="58" ht="50" customHeight="1" spans="1:3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="12"/>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="9"/>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="18"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="19"/>
-      <c r="B77" s="20"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="23"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="21"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="18"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="17"/>
-      <c r="B86" s="18"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="19"/>
-      <c r="B87" s="20"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="17"/>
-      <c r="B90" s="18"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="19"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="17"/>
-      <c r="B92" s="18"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="23"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="17"/>
-      <c r="B96" s="18"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="23"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="19"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="17"/>
-      <c r="B98" s="18"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="19"/>
-      <c r="B99" s="20"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="17"/>
-      <c r="B100" s="18"/>
+      <c r="A100" s="22"/>
+      <c r="B100" s="23"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="19"/>
-      <c r="B101" s="20"/>
+      <c r="A101" s="20"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="17"/>
-      <c r="B102" s="18"/>
+      <c r="A102" s="22"/>
+      <c r="B102" s="23"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="19"/>
-      <c r="B103" s="20"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="17"/>
-      <c r="B104" s="18"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="19"/>
-      <c r="B105" s="20"/>
+      <c r="A105" s="20"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="17"/>
-      <c r="B106" s="18"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="23"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="19"/>
-      <c r="B107" s="20"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="17"/>
-      <c r="B108" s="18"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="23"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="19"/>
-      <c r="B109" s="20"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="17"/>
-      <c r="B110" s="18"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="19"/>
-      <c r="B111" s="20"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="17"/>
-      <c r="B112" s="18"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="19"/>
-      <c r="B113" s="20"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="17"/>
-      <c r="B114" s="18"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="23"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="19"/>
-      <c r="B115" s="20"/>
+      <c r="A115" s="20"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="17"/>
-      <c r="B116" s="18"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="23"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="19"/>
-      <c r="B117" s="20"/>
+      <c r="A117" s="20"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="17"/>
-      <c r="B118" s="18"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="19"/>
-      <c r="B119" s="20"/>
+      <c r="A119" s="20"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="17"/>
-      <c r="B120" s="18"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="23"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="19"/>
-      <c r="B121" s="20"/>
+      <c r="A121" s="20"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="17"/>
-      <c r="B122" s="18"/>
+      <c r="A122" s="22"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="19"/>
-      <c r="B123" s="20"/>
+      <c r="A123" s="20"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="17"/>
-      <c r="B124" s="18"/>
+      <c r="A124" s="22"/>
+      <c r="B124" s="23"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="19"/>
-      <c r="B125" s="20"/>
+      <c r="A125" s="20"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="17"/>
-      <c r="B126" s="18"/>
+      <c r="A126" s="22"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="19"/>
-      <c r="B127" s="20"/>
+      <c r="A127" s="20"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="17"/>
-      <c r="B128" s="18"/>
+      <c r="A128" s="22"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="19"/>
-      <c r="B129" s="20"/>
+      <c r="A129" s="20"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="17"/>
-      <c r="B130" s="18"/>
+      <c r="A130" s="22"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="19"/>
-      <c r="B131" s="20"/>
+      <c r="A131" s="20"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="17"/>
-      <c r="B132" s="18"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="23"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="19"/>
-      <c r="B133" s="20"/>
+      <c r="A133" s="20"/>
+      <c r="B133" s="21"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="17"/>
-      <c r="B134" s="18"/>
+      <c r="A134" s="22"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="19"/>
-      <c r="B135" s="20"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="21"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="17"/>
-      <c r="B136" s="18"/>
+      <c r="A136" s="22"/>
+      <c r="B136" s="23"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="19"/>
-      <c r="B137" s="20"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="21"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="17"/>
-      <c r="B138" s="18"/>
+      <c r="A138" s="22"/>
+      <c r="B138" s="23"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="19"/>
-      <c r="B139" s="20"/>
+      <c r="A139" s="20"/>
+      <c r="B139" s="21"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="17"/>
-      <c r="B140" s="18"/>
+      <c r="A140" s="22"/>
+      <c r="B140" s="23"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="19"/>
-      <c r="B141" s="20"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="21"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="17"/>
-      <c r="B142" s="18"/>
+      <c r="A142" s="22"/>
+      <c r="B142" s="23"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="19"/>
-      <c r="B143" s="20"/>
+      <c r="A143" s="20"/>
+      <c r="B143" s="21"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="17"/>
-      <c r="B144" s="18"/>
+      <c r="A144" s="22"/>
+      <c r="B144" s="23"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="19"/>
-      <c r="B145" s="20"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="21"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="17"/>
-      <c r="B146" s="18"/>
+      <c r="A146" s="22"/>
+      <c r="B146" s="23"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="19"/>
-      <c r="B147" s="20"/>
+      <c r="A147" s="20"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="17"/>
-      <c r="B148" s="18"/>
+      <c r="A148" s="22"/>
+      <c r="B148" s="23"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="19"/>
-      <c r="B149" s="20"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="17"/>
-      <c r="B150" s="18"/>
+      <c r="A150" s="22"/>
+      <c r="B150" s="23"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="19"/>
-      <c r="B151" s="20"/>
+      <c r="A151" s="20"/>
+      <c r="B151" s="21"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="17"/>
-      <c r="B152" s="18"/>
+      <c r="A152" s="22"/>
+      <c r="B152" s="23"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="19"/>
-      <c r="B153" s="20"/>
+      <c r="A153" s="20"/>
+      <c r="B153" s="21"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="17"/>
-      <c r="B154" s="18"/>
+      <c r="A154" s="22"/>
+      <c r="B154" s="23"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="19"/>
-      <c r="B155" s="20"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="21"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="17"/>
-      <c r="B156" s="18"/>
+      <c r="A156" s="22"/>
+      <c r="B156" s="23"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="19"/>
-      <c r="B157" s="20"/>
+      <c r="A157" s="20"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="17"/>
-      <c r="B158" s="18"/>
+      <c r="A158" s="22"/>
+      <c r="B158" s="23"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="19"/>
-      <c r="B159" s="20"/>
+      <c r="A159" s="20"/>
+      <c r="B159" s="21"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="17"/>
-      <c r="B160" s="18"/>
+      <c r="A160" s="22"/>
+      <c r="B160" s="23"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="19"/>
-      <c r="B161" s="20"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="17"/>
-      <c r="B162" s="18"/>
+      <c r="A162" s="22"/>
+      <c r="B162" s="23"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="19"/>
-      <c r="B163" s="20"/>
+      <c r="A163" s="20"/>
+      <c r="B163" s="21"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="17"/>
-      <c r="B164" s="18"/>
+      <c r="A164" s="22"/>
+      <c r="B164" s="23"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="19"/>
-      <c r="B165" s="20"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="21"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="17"/>
-      <c r="B166" s="18"/>
+      <c r="A166" s="22"/>
+      <c r="B166" s="23"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="19"/>
-      <c r="B167" s="20"/>
+      <c r="A167" s="20"/>
+      <c r="B167" s="21"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="17"/>
-      <c r="B168" s="18"/>
+      <c r="A168" s="22"/>
+      <c r="B168" s="23"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="19"/>
-      <c r="B169" s="20"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="21"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="17"/>
-      <c r="B170" s="18"/>
+      <c r="A170" s="22"/>
+      <c r="B170" s="23"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="19"/>
-      <c r="B171" s="20"/>
+      <c r="A171" s="20"/>
+      <c r="B171" s="21"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="17"/>
-      <c r="B172" s="18"/>
+      <c r="A172" s="22"/>
+      <c r="B172" s="23"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="19"/>
-      <c r="B173" s="20"/>
+      <c r="A173" s="20"/>
+      <c r="B173" s="21"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="17"/>
-      <c r="B174" s="18"/>
+      <c r="A174" s="22"/>
+      <c r="B174" s="23"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="19"/>
-      <c r="B175" s="20"/>
+      <c r="A175" s="20"/>
+      <c r="B175" s="21"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="17"/>
-      <c r="B176" s="18"/>
+      <c r="A176" s="22"/>
+      <c r="B176" s="23"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="19"/>
-      <c r="B177" s="20"/>
+      <c r="A177" s="20"/>
+      <c r="B177" s="21"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="17"/>
-      <c r="B178" s="18"/>
+      <c r="A178" s="22"/>
+      <c r="B178" s="23"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="19"/>
-      <c r="B179" s="20"/>
+      <c r="A179" s="20"/>
+      <c r="B179" s="21"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="17"/>
-      <c r="B180" s="18"/>
+      <c r="A180" s="22"/>
+      <c r="B180" s="23"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="19"/>
-      <c r="B181" s="20"/>
+      <c r="A181" s="20"/>
+      <c r="B181" s="21"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="17"/>
-      <c r="B182" s="18"/>
+      <c r="A182" s="22"/>
+      <c r="B182" s="23"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="19"/>
-      <c r="B183" s="20"/>
+      <c r="A183" s="20"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="17"/>
-      <c r="B184" s="18"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="23"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="19"/>
-      <c r="B185" s="20"/>
+      <c r="A185" s="20"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="17"/>
-      <c r="B186" s="18"/>
+      <c r="A186" s="22"/>
+      <c r="B186" s="23"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="19"/>
-      <c r="B187" s="20"/>
+      <c r="A187" s="20"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="17"/>
-      <c r="B188" s="18"/>
+      <c r="A188" s="22"/>
+      <c r="B188" s="23"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="19"/>
-      <c r="B189" s="20"/>
+      <c r="A189" s="20"/>
+      <c r="B189" s="21"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="17"/>
-      <c r="B190" s="18"/>
+      <c r="A190" s="22"/>
+      <c r="B190" s="23"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
+      <c r="A191" s="20"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="17"/>
-      <c r="B192" s="18"/>
+      <c r="A192" s="22"/>
+      <c r="B192" s="23"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
+      <c r="A193" s="20"/>
+      <c r="B193" s="21"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="17"/>
-      <c r="B194" s="18"/>
+      <c r="A194" s="22"/>
+      <c r="B194" s="23"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="19"/>
-      <c r="B195" s="20"/>
+      <c r="A195" s="20"/>
+      <c r="B195" s="21"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="17"/>
-      <c r="B196" s="18"/>
+      <c r="A196" s="22"/>
+      <c r="B196" s="23"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="19"/>
-      <c r="B197" s="20"/>
+      <c r="A197" s="20"/>
+      <c r="B197" s="21"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="17"/>
-      <c r="B198" s="18"/>
+      <c r="A198" s="22"/>
+      <c r="B198" s="23"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="19"/>
-      <c r="B199" s="20"/>
+      <c r="A199" s="20"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="21"/>
-      <c r="B200" s="22"/>
-      <c r="C200" s="23"/>
+      <c r="A200" s="24"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>页面名称</t>
   </si>
@@ -277,10 +277,31 @@
     <t>注册失败</t>
   </si>
   <si>
+    <t>register_success</t>
+  </si>
+  <si>
+    <t>注册成功</t>
+  </si>
+  <si>
     <t>social_binding</t>
   </si>
   <si>
     <t>社交账户绑定</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>advice_edit</t>
+  </si>
+  <si>
+    <t>建议及投诉（编辑页）</t>
+  </si>
+  <si>
+    <t>1、图片上传</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1095,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1126,6 +1147,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,16 +1159,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1507,7 +1531,7 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1836,864 +1860,880 @@
       </c>
     </row>
     <row r="31" ht="50" customHeight="1" spans="1:3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C31" s="9"/>
     </row>
     <row r="32" ht="50" customHeight="1" spans="1:3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" ht="50" customHeight="1" spans="1:3">
+      <c r="A33" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" ht="50" customHeight="1" spans="1:3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="9"/>
-    </row>
     <row r="34" ht="50" customHeight="1" spans="1:3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="12"/>
+      <c r="A34" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="35" ht="50" customHeight="1" spans="1:3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="36" ht="50" customHeight="1" spans="1:3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="12"/>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="9"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="12"/>
     </row>
     <row r="39" ht="50" customHeight="1" spans="1:3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="9"/>
     </row>
     <row r="40" ht="50" customHeight="1" spans="1:3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="12"/>
     </row>
     <row r="41" ht="50" customHeight="1" spans="1:3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="9"/>
     </row>
     <row r="42" ht="50" customHeight="1" spans="1:3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="12"/>
     </row>
     <row r="43" ht="50" customHeight="1" spans="1:3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="9"/>
     </row>
     <row r="44" ht="50" customHeight="1" spans="1:3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="12"/>
     </row>
     <row r="45" ht="50" customHeight="1" spans="1:3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="9"/>
     </row>
     <row r="46" ht="50" customHeight="1" spans="1:3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="12"/>
     </row>
     <row r="47" ht="50" customHeight="1" spans="1:3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="9"/>
     </row>
     <row r="48" ht="50" customHeight="1" spans="1:3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="12"/>
     </row>
     <row r="49" ht="50" customHeight="1" spans="1:3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="9"/>
     </row>
     <row r="50" ht="50" customHeight="1" spans="1:3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="12"/>
     </row>
     <row r="51" ht="50" customHeight="1" spans="1:3">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="9"/>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="12"/>
     </row>
     <row r="53" ht="50" customHeight="1" spans="1:3">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="9"/>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:3">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="12"/>
     </row>
     <row r="55" ht="50" customHeight="1" spans="1:3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="9"/>
     </row>
     <row r="56" ht="50" customHeight="1" spans="1:3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="12"/>
     </row>
     <row r="57" ht="50" customHeight="1" spans="1:3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="9"/>
     </row>
     <row r="58" ht="50" customHeight="1" spans="1:3">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="12"/>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="9"/>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
-      <c r="A64" s="22"/>
-      <c r="B64" s="23"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="21"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
-      <c r="A66" s="22"/>
-      <c r="B66" s="23"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
-      <c r="A68" s="22"/>
-      <c r="B68" s="23"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="22"/>
-      <c r="B70" s="23"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="21"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="20"/>
-      <c r="B73" s="21"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="20"/>
-      <c r="B75" s="21"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="22"/>
-      <c r="B76" s="23"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="20"/>
-      <c r="B77" s="21"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="22"/>
-      <c r="B78" s="23"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="20"/>
-      <c r="B79" s="21"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="24"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="22"/>
-      <c r="B80" s="23"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="20"/>
-      <c r="B81" s="21"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="20"/>
-      <c r="B83" s="21"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="22"/>
-      <c r="B84" s="23"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="20"/>
-      <c r="B85" s="21"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="22"/>
-      <c r="B86" s="23"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="20"/>
-      <c r="B87" s="21"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="24"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="22"/>
-      <c r="B88" s="23"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="20"/>
-      <c r="B89" s="21"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="24"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="22"/>
-      <c r="B90" s="23"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="20"/>
-      <c r="B91" s="21"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="22"/>
-      <c r="B92" s="23"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="20"/>
-      <c r="B93" s="21"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="24"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="22"/>
-      <c r="B94" s="23"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="20"/>
-      <c r="B95" s="21"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="24"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="22"/>
-      <c r="B96" s="23"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="20"/>
-      <c r="B97" s="21"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="24"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="22"/>
-      <c r="B98" s="23"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="20"/>
-      <c r="B99" s="21"/>
+      <c r="A99" s="23"/>
+      <c r="B99" s="24"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="22"/>
-      <c r="B100" s="23"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="20"/>
-      <c r="B101" s="21"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="24"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="22"/>
-      <c r="B102" s="23"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="20"/>
-      <c r="B103" s="21"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="24"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="22"/>
-      <c r="B104" s="23"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="20"/>
-      <c r="B105" s="21"/>
+      <c r="A105" s="23"/>
+      <c r="B105" s="24"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="22"/>
-      <c r="B106" s="23"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="20"/>
-      <c r="B107" s="21"/>
+      <c r="A107" s="23"/>
+      <c r="B107" s="24"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="22"/>
-      <c r="B108" s="23"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="20"/>
-      <c r="B109" s="21"/>
+      <c r="A109" s="23"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="22"/>
-      <c r="B110" s="23"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="20"/>
-      <c r="B111" s="21"/>
+      <c r="A111" s="23"/>
+      <c r="B111" s="24"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="22"/>
-      <c r="B112" s="23"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="20"/>
-      <c r="B113" s="21"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="22"/>
-      <c r="B114" s="23"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="20"/>
-      <c r="B115" s="21"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="24"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="22"/>
-      <c r="B116" s="23"/>
+      <c r="A116" s="21"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="20"/>
-      <c r="B117" s="21"/>
+      <c r="A117" s="23"/>
+      <c r="B117" s="24"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="22"/>
-      <c r="B118" s="23"/>
+      <c r="A118" s="21"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="20"/>
-      <c r="B119" s="21"/>
+      <c r="A119" s="23"/>
+      <c r="B119" s="24"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="22"/>
-      <c r="B120" s="23"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="20"/>
-      <c r="B121" s="21"/>
+      <c r="A121" s="23"/>
+      <c r="B121" s="24"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="22"/>
-      <c r="B122" s="23"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="20"/>
-      <c r="B123" s="21"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="24"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="22"/>
-      <c r="B124" s="23"/>
+      <c r="A124" s="21"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="20"/>
-      <c r="B125" s="21"/>
+      <c r="A125" s="23"/>
+      <c r="B125" s="24"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="22"/>
-      <c r="B126" s="23"/>
+      <c r="A126" s="21"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="20"/>
-      <c r="B127" s="21"/>
+      <c r="A127" s="23"/>
+      <c r="B127" s="24"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="22"/>
-      <c r="B128" s="23"/>
+      <c r="A128" s="21"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="20"/>
-      <c r="B129" s="21"/>
+      <c r="A129" s="23"/>
+      <c r="B129" s="24"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="22"/>
-      <c r="B130" s="23"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="20"/>
-      <c r="B131" s="21"/>
+      <c r="A131" s="23"/>
+      <c r="B131" s="24"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="22"/>
-      <c r="B132" s="23"/>
+      <c r="A132" s="21"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="20"/>
-      <c r="B133" s="21"/>
+      <c r="A133" s="23"/>
+      <c r="B133" s="24"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="22"/>
-      <c r="B134" s="23"/>
+      <c r="A134" s="21"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="20"/>
-      <c r="B135" s="21"/>
+      <c r="A135" s="23"/>
+      <c r="B135" s="24"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="22"/>
-      <c r="B136" s="23"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="20"/>
-      <c r="B137" s="21"/>
+      <c r="A137" s="23"/>
+      <c r="B137" s="24"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="22"/>
-      <c r="B138" s="23"/>
+      <c r="A138" s="21"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="20"/>
-      <c r="B139" s="21"/>
+      <c r="A139" s="23"/>
+      <c r="B139" s="24"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="22"/>
-      <c r="B140" s="23"/>
+      <c r="A140" s="21"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="20"/>
-      <c r="B141" s="21"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="24"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="22"/>
-      <c r="B142" s="23"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="20"/>
-      <c r="B143" s="21"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="24"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="22"/>
-      <c r="B144" s="23"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="20"/>
-      <c r="B145" s="21"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="24"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="22"/>
-      <c r="B146" s="23"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="20"/>
-      <c r="B147" s="21"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="24"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="22"/>
-      <c r="B148" s="23"/>
+      <c r="A148" s="21"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="20"/>
-      <c r="B149" s="21"/>
+      <c r="A149" s="23"/>
+      <c r="B149" s="24"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="22"/>
-      <c r="B150" s="23"/>
+      <c r="A150" s="21"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="20"/>
-      <c r="B151" s="21"/>
+      <c r="A151" s="23"/>
+      <c r="B151" s="24"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="22"/>
-      <c r="B152" s="23"/>
+      <c r="A152" s="21"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="20"/>
-      <c r="B153" s="21"/>
+      <c r="A153" s="23"/>
+      <c r="B153" s="24"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="22"/>
-      <c r="B154" s="23"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="20"/>
-      <c r="B155" s="21"/>
+      <c r="A155" s="23"/>
+      <c r="B155" s="24"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="22"/>
-      <c r="B156" s="23"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="20"/>
-      <c r="B157" s="21"/>
+      <c r="A157" s="23"/>
+      <c r="B157" s="24"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="22"/>
-      <c r="B158" s="23"/>
+      <c r="A158" s="21"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="20"/>
-      <c r="B159" s="21"/>
+      <c r="A159" s="23"/>
+      <c r="B159" s="24"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="22"/>
-      <c r="B160" s="23"/>
+      <c r="A160" s="21"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="20"/>
-      <c r="B161" s="21"/>
+      <c r="A161" s="23"/>
+      <c r="B161" s="24"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="22"/>
-      <c r="B162" s="23"/>
+      <c r="A162" s="21"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="20"/>
-      <c r="B163" s="21"/>
+      <c r="A163" s="23"/>
+      <c r="B163" s="24"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="22"/>
-      <c r="B164" s="23"/>
+      <c r="A164" s="21"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="20"/>
-      <c r="B165" s="21"/>
+      <c r="A165" s="23"/>
+      <c r="B165" s="24"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="22"/>
-      <c r="B166" s="23"/>
+      <c r="A166" s="21"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="20"/>
-      <c r="B167" s="21"/>
+      <c r="A167" s="23"/>
+      <c r="B167" s="24"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="22"/>
-      <c r="B168" s="23"/>
+      <c r="A168" s="21"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="20"/>
-      <c r="B169" s="21"/>
+      <c r="A169" s="23"/>
+      <c r="B169" s="24"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="22"/>
-      <c r="B170" s="23"/>
+      <c r="A170" s="21"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="20"/>
-      <c r="B171" s="21"/>
+      <c r="A171" s="23"/>
+      <c r="B171" s="24"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="22"/>
-      <c r="B172" s="23"/>
+      <c r="A172" s="21"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="20"/>
-      <c r="B173" s="21"/>
+      <c r="A173" s="23"/>
+      <c r="B173" s="24"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="22"/>
-      <c r="B174" s="23"/>
+      <c r="A174" s="21"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="20"/>
-      <c r="B175" s="21"/>
+      <c r="A175" s="23"/>
+      <c r="B175" s="24"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="22"/>
-      <c r="B176" s="23"/>
+      <c r="A176" s="21"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="20"/>
-      <c r="B177" s="21"/>
+      <c r="A177" s="23"/>
+      <c r="B177" s="24"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="22"/>
-      <c r="B178" s="23"/>
+      <c r="A178" s="21"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="20"/>
-      <c r="B179" s="21"/>
+      <c r="A179" s="23"/>
+      <c r="B179" s="24"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="22"/>
-      <c r="B180" s="23"/>
+      <c r="A180" s="21"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="20"/>
-      <c r="B181" s="21"/>
+      <c r="A181" s="23"/>
+      <c r="B181" s="24"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="22"/>
-      <c r="B182" s="23"/>
+      <c r="A182" s="21"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="20"/>
-      <c r="B183" s="21"/>
+      <c r="A183" s="23"/>
+      <c r="B183" s="24"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="22"/>
-      <c r="B184" s="23"/>
+      <c r="A184" s="21"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="20"/>
-      <c r="B185" s="21"/>
+      <c r="A185" s="23"/>
+      <c r="B185" s="24"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="22"/>
-      <c r="B186" s="23"/>
+      <c r="A186" s="21"/>
+      <c r="B186" s="22"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="20"/>
-      <c r="B187" s="21"/>
+      <c r="A187" s="23"/>
+      <c r="B187" s="24"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="22"/>
-      <c r="B188" s="23"/>
+      <c r="A188" s="21"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="20"/>
-      <c r="B189" s="21"/>
+      <c r="A189" s="23"/>
+      <c r="B189" s="24"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="22"/>
-      <c r="B190" s="23"/>
+      <c r="A190" s="21"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="20"/>
-      <c r="B191" s="21"/>
+      <c r="A191" s="23"/>
+      <c r="B191" s="24"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="22"/>
-      <c r="B192" s="23"/>
+      <c r="A192" s="21"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="20"/>
-      <c r="B193" s="21"/>
+      <c r="A193" s="23"/>
+      <c r="B193" s="24"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="22"/>
-      <c r="B194" s="23"/>
+      <c r="A194" s="21"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="20"/>
-      <c r="B195" s="21"/>
+      <c r="A195" s="23"/>
+      <c r="B195" s="24"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="22"/>
-      <c r="B196" s="23"/>
+      <c r="A196" s="21"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="20"/>
-      <c r="B197" s="21"/>
+      <c r="A197" s="23"/>
+      <c r="B197" s="24"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="22"/>
-      <c r="B198" s="23"/>
+      <c r="A198" s="21"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="20"/>
-      <c r="B199" s="21"/>
+      <c r="A199" s="23"/>
+      <c r="B199" s="24"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="24"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="26"/>
+      <c r="A200" s="25"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>页面名称</t>
   </si>
@@ -211,14 +211,10 @@
     <t>头部右上角编辑按钮什么功能</t>
   </si>
   <si>
-    <t>amend_pay</t>
+    <t>amend_paypw</t>
   </si>
   <si>
     <t>修改支付密码</t>
-  </si>
-  <si>
-    <t>1、头部header右边点击下拉列表
-2、下一级链接</t>
   </si>
   <si>
     <t>bill_detail</t>
@@ -289,6 +285,10 @@
     <t>社交账户绑定</t>
   </si>
   <si>
+    <t>1、头部header右边点击下拉列表
+2、下一级链接</t>
+  </si>
+  <si>
     <t>set</t>
   </si>
   <si>
@@ -302,6 +302,50 @@
   </si>
   <si>
     <t>1、图片上传</t>
+  </si>
+  <si>
+    <t>logistics</t>
+  </si>
+  <si>
+    <t>查看物流</t>
+  </si>
+  <si>
+    <t>commonweal</t>
+  </si>
+  <si>
+    <t>爱心公益</t>
+  </si>
+  <si>
+    <t>amend_paypw_tel</t>
+  </si>
+  <si>
+    <t>(修改)填写支付密码</t>
+  </si>
+  <si>
+    <t>1、头部header右边点击下拉列表
+2、密码格式确定后（正则验证）</t>
+  </si>
+  <si>
+    <t>amend_paypw_pass</t>
+  </si>
+  <si>
+    <t>修改密码（psd 百信购|个人中心）</t>
+  </si>
+  <si>
+    <t>set_fail</t>
+  </si>
+  <si>
+    <t>设置失败</t>
+  </si>
+  <si>
+    <t>1、头部header右边点击下拉列表
+2、链接</t>
+  </si>
+  <si>
+    <t>set_success</t>
+  </si>
+  <si>
+    <t>设置成功</t>
   </si>
 </sst>
 </file>
@@ -453,8 +497,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,9 +512,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,187 +546,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,10 +997,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,133 +1009,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,22 +1185,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1530,14 +1574,14 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1801,109 +1845,109 @@
         <v>62</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" ht="50" customHeight="1" spans="1:3">
       <c r="A26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" ht="50" customHeight="1" spans="1:3">
       <c r="A27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="28" ht="50" customHeight="1" spans="1:3">
       <c r="A28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" ht="50" customHeight="1" spans="1:3">
       <c r="A29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" ht="50" customHeight="1" spans="1:3">
       <c r="A30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" ht="50" customHeight="1" spans="1:3">
       <c r="A31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="C31" s="9"/>
     </row>
     <row r="32" ht="50" customHeight="1" spans="1:3">
       <c r="A32" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" ht="50" customHeight="1" spans="1:3">
+      <c r="A33" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="13"/>
-    </row>
-    <row r="33" ht="50" customHeight="1" spans="1:3">
-      <c r="A33" s="15" t="s">
+      <c r="B33" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="C33" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="34" ht="50" customHeight="1" spans="1:3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>63</v>
+      <c r="C34" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" ht="50" customHeight="1" spans="1:3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -1911,34 +1955,66 @@
       </c>
     </row>
     <row r="36" ht="50" customHeight="1" spans="1:3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="C36" s="12"/>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:3">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="C37" s="9"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="12"/>
+      <c r="A38" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="39" ht="50" customHeight="1" spans="1:3">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="9"/>
+      <c r="A39" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="40" ht="50" customHeight="1" spans="1:3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="41" ht="50" customHeight="1" spans="1:3">
-      <c r="A41" s="23"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="9"/>
+      <c r="A41" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="42" ht="50" customHeight="1" spans="1:3">
       <c r="A42" s="21"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="12180"/>
+    <workbookView windowWidth="25095" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>页面名称</t>
   </si>
@@ -346,6 +346,27 @@
   </si>
   <si>
     <t>设置成功</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>代金券</t>
+  </si>
+  <si>
+    <t>interest_gender</t>
+  </si>
+  <si>
+    <t>偏好设置</t>
+  </si>
+  <si>
+    <t>interest_help</t>
+  </si>
+  <si>
+    <t>interest_goods</t>
+  </si>
+  <si>
+    <t>interest</t>
   </si>
 </sst>
 </file>
@@ -353,9 +374,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -376,15 +397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,7 +412,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,37 +489,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,37 +505,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,6 +532,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -546,25 +567,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,145 +735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,6 +910,45 @@
         <color theme="0"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -903,45 +963,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,16 +988,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,10 +1018,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,137 +1030,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,22 +1218,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1575,7 +1590,7 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1955,95 +1970,123 @@
       </c>
     </row>
     <row r="36" ht="50" customHeight="1" spans="1:3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C36" s="12"/>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:3">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="9"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" ht="50" customHeight="1" spans="1:3">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" ht="50" customHeight="1" spans="1:3">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="41" ht="50" customHeight="1" spans="1:3">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="42" ht="50" customHeight="1" spans="1:3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="C42" s="12"/>
     </row>
     <row r="43" ht="50" customHeight="1" spans="1:3">
-      <c r="A43" s="23"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="9"/>
+      <c r="A43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="44" ht="50" customHeight="1" spans="1:3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="12"/>
+      <c r="A44" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="45" ht="50" customHeight="1" spans="1:3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="9"/>
+      <c r="A45" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="46" ht="50" customHeight="1" spans="1:3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="12"/>
+      <c r="A46" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" ht="50" customHeight="1" spans="1:3">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="9"/>
     </row>
     <row r="48" ht="50" customHeight="1" spans="1:3">
@@ -2052,8 +2095,8 @@
       <c r="C48" s="12"/>
     </row>
     <row r="49" ht="50" customHeight="1" spans="1:3">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="9"/>
     </row>
     <row r="50" ht="50" customHeight="1" spans="1:3">
@@ -2062,8 +2105,8 @@
       <c r="C50" s="12"/>
     </row>
     <row r="51" ht="50" customHeight="1" spans="1:3">
-      <c r="A51" s="23"/>
-      <c r="B51" s="24"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="9"/>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:3">
@@ -2072,8 +2115,8 @@
       <c r="C52" s="12"/>
     </row>
     <row r="53" ht="50" customHeight="1" spans="1:3">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="9"/>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:3">
@@ -2082,8 +2125,8 @@
       <c r="C54" s="12"/>
     </row>
     <row r="55" ht="50" customHeight="1" spans="1:3">
-      <c r="A55" s="23"/>
-      <c r="B55" s="24"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="9"/>
     </row>
     <row r="56" ht="50" customHeight="1" spans="1:3">
@@ -2092,8 +2135,8 @@
       <c r="C56" s="12"/>
     </row>
     <row r="57" ht="50" customHeight="1" spans="1:3">
-      <c r="A57" s="23"/>
-      <c r="B57" s="24"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="9"/>
     </row>
     <row r="58" ht="50" customHeight="1" spans="1:3">
@@ -2102,8 +2145,8 @@
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
-      <c r="A59" s="23"/>
-      <c r="B59" s="24"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
@@ -2112,8 +2155,8 @@
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
@@ -2122,8 +2165,8 @@
       <c r="C62" s="12"/>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
-      <c r="A63" s="23"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="9"/>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
@@ -2132,8 +2175,8 @@
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
-      <c r="A65" s="23"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
@@ -2142,8 +2185,8 @@
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
-      <c r="A67" s="23"/>
-      <c r="B67" s="24"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
@@ -2152,8 +2195,8 @@
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
-      <c r="A69" s="23"/>
-      <c r="B69" s="24"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
@@ -2162,8 +2205,8 @@
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="23"/>
-      <c r="B71" s="24"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
@@ -2172,8 +2215,8 @@
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="23"/>
-      <c r="B73" s="24"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
@@ -2182,8 +2225,8 @@
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
@@ -2192,8 +2235,8 @@
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="23"/>
-      <c r="B77" s="24"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
@@ -2202,8 +2245,8 @@
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="23"/>
-      <c r="B79" s="24"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
@@ -2212,8 +2255,8 @@
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="23"/>
-      <c r="B81" s="24"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
@@ -2222,8 +2265,8 @@
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="23"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
@@ -2232,8 +2275,8 @@
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="23"/>
-      <c r="B85" s="24"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
@@ -2242,8 +2285,8 @@
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="23"/>
-      <c r="B87" s="24"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
@@ -2252,8 +2295,8 @@
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="23"/>
-      <c r="B89" s="24"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
@@ -2262,8 +2305,8 @@
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="23"/>
-      <c r="B91" s="24"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
@@ -2272,8 +2315,8 @@
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="23"/>
-      <c r="B93" s="24"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
@@ -2282,8 +2325,8 @@
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="23"/>
-      <c r="B95" s="24"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
@@ -2292,8 +2335,8 @@
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="23"/>
-      <c r="B97" s="24"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
@@ -2302,8 +2345,8 @@
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="23"/>
-      <c r="B99" s="24"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
@@ -2312,8 +2355,8 @@
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="23"/>
-      <c r="B101" s="24"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
@@ -2322,8 +2365,8 @@
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="23"/>
-      <c r="B103" s="24"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
@@ -2332,8 +2375,8 @@
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="23"/>
-      <c r="B105" s="24"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
@@ -2342,8 +2385,8 @@
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="23"/>
-      <c r="B107" s="24"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
@@ -2352,8 +2395,8 @@
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="23"/>
-      <c r="B109" s="24"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
@@ -2362,8 +2405,8 @@
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="23"/>
-      <c r="B111" s="24"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
@@ -2372,8 +2415,8 @@
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="23"/>
-      <c r="B113" s="24"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
@@ -2382,8 +2425,8 @@
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="23"/>
-      <c r="B115" s="24"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
@@ -2392,8 +2435,8 @@
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="23"/>
-      <c r="B117" s="24"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
@@ -2402,8 +2445,8 @@
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="23"/>
-      <c r="B119" s="24"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
@@ -2412,8 +2455,8 @@
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="23"/>
-      <c r="B121" s="24"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
@@ -2422,8 +2465,8 @@
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="23"/>
-      <c r="B123" s="24"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
@@ -2432,8 +2475,8 @@
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="23"/>
-      <c r="B125" s="24"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
@@ -2442,8 +2485,8 @@
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="23"/>
-      <c r="B127" s="24"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
@@ -2452,8 +2495,8 @@
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="23"/>
-      <c r="B129" s="24"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
@@ -2462,8 +2505,8 @@
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="23"/>
-      <c r="B131" s="24"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
@@ -2472,8 +2515,8 @@
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="23"/>
-      <c r="B133" s="24"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
@@ -2482,8 +2525,8 @@
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="23"/>
-      <c r="B135" s="24"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
@@ -2492,8 +2535,8 @@
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="23"/>
-      <c r="B137" s="24"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
@@ -2502,8 +2545,8 @@
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="23"/>
-      <c r="B139" s="24"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
@@ -2512,8 +2555,8 @@
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="23"/>
-      <c r="B141" s="24"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
@@ -2522,8 +2565,8 @@
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="23"/>
-      <c r="B143" s="24"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
@@ -2532,8 +2575,8 @@
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="23"/>
-      <c r="B145" s="24"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
@@ -2542,8 +2585,8 @@
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="23"/>
-      <c r="B147" s="24"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
@@ -2552,8 +2595,8 @@
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="23"/>
-      <c r="B149" s="24"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
@@ -2562,8 +2605,8 @@
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="23"/>
-      <c r="B151" s="24"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
@@ -2572,8 +2615,8 @@
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="23"/>
-      <c r="B153" s="24"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
@@ -2582,8 +2625,8 @@
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="23"/>
-      <c r="B155" s="24"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
@@ -2592,8 +2635,8 @@
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="23"/>
-      <c r="B157" s="24"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
@@ -2602,8 +2645,8 @@
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="23"/>
-      <c r="B159" s="24"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
@@ -2612,8 +2655,8 @@
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="23"/>
-      <c r="B161" s="24"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
@@ -2622,8 +2665,8 @@
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="23"/>
-      <c r="B163" s="24"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
@@ -2632,8 +2675,8 @@
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="23"/>
-      <c r="B165" s="24"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
@@ -2642,8 +2685,8 @@
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="23"/>
-      <c r="B167" s="24"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
@@ -2652,8 +2695,8 @@
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="23"/>
-      <c r="B169" s="24"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
@@ -2662,8 +2705,8 @@
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="23"/>
-      <c r="B171" s="24"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
@@ -2672,8 +2715,8 @@
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="23"/>
-      <c r="B173" s="24"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
@@ -2682,8 +2725,8 @@
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="23"/>
-      <c r="B175" s="24"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
@@ -2692,8 +2735,8 @@
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="23"/>
-      <c r="B177" s="24"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
@@ -2702,8 +2745,8 @@
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="23"/>
-      <c r="B179" s="24"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
@@ -2712,8 +2755,8 @@
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="23"/>
-      <c r="B181" s="24"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
@@ -2722,8 +2765,8 @@
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="23"/>
-      <c r="B183" s="24"/>
+      <c r="A183" s="19"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
@@ -2732,8 +2775,8 @@
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="23"/>
-      <c r="B185" s="24"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
@@ -2742,8 +2785,8 @@
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="23"/>
-      <c r="B187" s="24"/>
+      <c r="A187" s="19"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
@@ -2752,8 +2795,8 @@
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="23"/>
-      <c r="B189" s="24"/>
+      <c r="A189" s="19"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
@@ -2762,8 +2805,8 @@
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="23"/>
-      <c r="B191" s="24"/>
+      <c r="A191" s="19"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
@@ -2772,8 +2815,8 @@
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="23"/>
-      <c r="B193" s="24"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
@@ -2782,8 +2825,8 @@
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="23"/>
-      <c r="B195" s="24"/>
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
@@ -2792,8 +2835,8 @@
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="23"/>
-      <c r="B197" s="24"/>
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
@@ -2802,14 +2845,14 @@
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="23"/>
-      <c r="B199" s="24"/>
+      <c r="A199" s="19"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="25"/>
-      <c r="B200" s="26"/>
-      <c r="C200" s="27"/>
+      <c r="A200" s="23"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
   <si>
     <t>页面名称</t>
   </si>
@@ -367,6 +367,33 @@
   </si>
   <si>
     <t>interest</t>
+  </si>
+  <si>
+    <t>add_address</t>
+  </si>
+  <si>
+    <t>添加收货地址</t>
+  </si>
+  <si>
+    <t>需完善（地址从高德获取需传给服务器解析，
+然后返回给前端json）</t>
+  </si>
+  <si>
+    <t>bx_vip</t>
+  </si>
+  <si>
+    <t>百信会员</t>
+  </si>
+  <si>
+    <t>1、头部header右边点击下拉列表
+2、签到弹框（未设计好）
+3、下一级链接</t>
+  </si>
+  <si>
+    <t>evaluate_success</t>
+  </si>
+  <si>
+    <t>评论晒单</t>
   </si>
 </sst>
 </file>
@@ -374,10 +401,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -397,7 +424,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,68 +447,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,7 +463,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,22 +509,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,7 +553,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,187 +594,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,6 +937,45 @@
         <color theme="0"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -924,45 +990,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,16 +1015,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,10 +1045,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,133 +1057,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1218,16 +1245,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1589,8 +1616,8 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2052,10 +2079,10 @@
       </c>
     </row>
     <row r="44" ht="50" customHeight="1" spans="1:3">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -2063,10 +2090,10 @@
       </c>
     </row>
     <row r="45" ht="50" customHeight="1" spans="1:3">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -2074,10 +2101,10 @@
       </c>
     </row>
     <row r="46" ht="50" customHeight="1" spans="1:3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -2085,768 +2112,784 @@
       </c>
     </row>
     <row r="47" ht="50" customHeight="1" spans="1:3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="9"/>
+      <c r="A47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="48" ht="50" customHeight="1" spans="1:3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="12"/>
+      <c r="A48" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="49" ht="50" customHeight="1" spans="1:3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>118</v>
+      </c>
       <c r="C49" s="9"/>
     </row>
     <row r="50" ht="50" customHeight="1" spans="1:3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="12"/>
     </row>
     <row r="51" ht="50" customHeight="1" spans="1:3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="9"/>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="12"/>
     </row>
     <row r="53" ht="50" customHeight="1" spans="1:3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="9"/>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="12"/>
     </row>
     <row r="55" ht="50" customHeight="1" spans="1:3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="9"/>
     </row>
     <row r="56" ht="50" customHeight="1" spans="1:3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="12"/>
     </row>
     <row r="57" ht="50" customHeight="1" spans="1:3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="9"/>
     </row>
     <row r="58" ht="50" customHeight="1" spans="1:3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="12"/>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="9"/>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="19"/>
-      <c r="B77" s="20"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="21"/>
-      <c r="B82" s="22"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="19"/>
-      <c r="B87" s="20"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="19"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="21"/>
-      <c r="B92" s="22"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="19"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="21"/>
-      <c r="B98" s="22"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="19"/>
-      <c r="B99" s="20"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="21"/>
-      <c r="B100" s="22"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="19"/>
-      <c r="B101" s="20"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="21"/>
-      <c r="B102" s="22"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="19"/>
-      <c r="B103" s="20"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="21"/>
-      <c r="B104" s="22"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="19"/>
-      <c r="B105" s="20"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="21"/>
-      <c r="B106" s="22"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="19"/>
-      <c r="B107" s="20"/>
+      <c r="A107" s="21"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="21"/>
-      <c r="B108" s="22"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="19"/>
-      <c r="B109" s="20"/>
+      <c r="A109" s="21"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="19"/>
-      <c r="B111" s="20"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="21"/>
-      <c r="B112" s="22"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="19"/>
-      <c r="B113" s="20"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="21"/>
-      <c r="B114" s="22"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="19"/>
-      <c r="B115" s="20"/>
+      <c r="A115" s="21"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="21"/>
-      <c r="B116" s="22"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="19"/>
-      <c r="B117" s="20"/>
+      <c r="A117" s="21"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="21"/>
-      <c r="B118" s="22"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="19"/>
-      <c r="B119" s="20"/>
+      <c r="A119" s="21"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="21"/>
-      <c r="B120" s="22"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="19"/>
-      <c r="B121" s="20"/>
+      <c r="A121" s="21"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="21"/>
-      <c r="B122" s="22"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="19"/>
-      <c r="B123" s="20"/>
+      <c r="A123" s="21"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="21"/>
-      <c r="B124" s="22"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="19"/>
-      <c r="B125" s="20"/>
+      <c r="A125" s="21"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="21"/>
-      <c r="B126" s="22"/>
+      <c r="A126" s="19"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="19"/>
-      <c r="B127" s="20"/>
+      <c r="A127" s="21"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="21"/>
-      <c r="B128" s="22"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="19"/>
-      <c r="B129" s="20"/>
+      <c r="A129" s="21"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="21"/>
-      <c r="B130" s="22"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="19"/>
-      <c r="B131" s="20"/>
+      <c r="A131" s="21"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="21"/>
-      <c r="B132" s="22"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="19"/>
-      <c r="B133" s="20"/>
+      <c r="A133" s="21"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="21"/>
-      <c r="B134" s="22"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="19"/>
-      <c r="B135" s="20"/>
+      <c r="A135" s="21"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="21"/>
-      <c r="B136" s="22"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="19"/>
-      <c r="B137" s="20"/>
+      <c r="A137" s="21"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="21"/>
-      <c r="B138" s="22"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="19"/>
-      <c r="B139" s="20"/>
+      <c r="A139" s="21"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="21"/>
-      <c r="B140" s="22"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="19"/>
-      <c r="B141" s="20"/>
+      <c r="A141" s="21"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="21"/>
-      <c r="B142" s="22"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="19"/>
-      <c r="B143" s="20"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="21"/>
-      <c r="B144" s="22"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="19"/>
-      <c r="B145" s="20"/>
+      <c r="A145" s="21"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="21"/>
-      <c r="B146" s="22"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="19"/>
-      <c r="B147" s="20"/>
+      <c r="A147" s="21"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="21"/>
-      <c r="B148" s="22"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="19"/>
-      <c r="B149" s="20"/>
+      <c r="A149" s="21"/>
+      <c r="B149" s="22"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="21"/>
-      <c r="B150" s="22"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="19"/>
-      <c r="B151" s="20"/>
+      <c r="A151" s="21"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="21"/>
-      <c r="B152" s="22"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="19"/>
-      <c r="B153" s="20"/>
+      <c r="A153" s="21"/>
+      <c r="B153" s="22"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="21"/>
-      <c r="B154" s="22"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="19"/>
-      <c r="B155" s="20"/>
+      <c r="A155" s="21"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="21"/>
-      <c r="B156" s="22"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="19"/>
-      <c r="B157" s="20"/>
+      <c r="A157" s="21"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="21"/>
-      <c r="B158" s="22"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="19"/>
-      <c r="B159" s="20"/>
+      <c r="A159" s="21"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="21"/>
-      <c r="B160" s="22"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="19"/>
-      <c r="B161" s="20"/>
+      <c r="A161" s="21"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="21"/>
-      <c r="B162" s="22"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="19"/>
-      <c r="B163" s="20"/>
+      <c r="A163" s="21"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="21"/>
-      <c r="B164" s="22"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="19"/>
-      <c r="B165" s="20"/>
+      <c r="A165" s="21"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="21"/>
-      <c r="B166" s="22"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="19"/>
-      <c r="B167" s="20"/>
+      <c r="A167" s="21"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="21"/>
-      <c r="B168" s="22"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="19"/>
-      <c r="B169" s="20"/>
+      <c r="A169" s="21"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="21"/>
-      <c r="B170" s="22"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="19"/>
-      <c r="B171" s="20"/>
+      <c r="A171" s="21"/>
+      <c r="B171" s="22"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="21"/>
-      <c r="B172" s="22"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="19"/>
-      <c r="B173" s="20"/>
+      <c r="A173" s="21"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="21"/>
-      <c r="B174" s="22"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="19"/>
-      <c r="B175" s="20"/>
+      <c r="A175" s="21"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="21"/>
-      <c r="B176" s="22"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="19"/>
-      <c r="B177" s="20"/>
+      <c r="A177" s="21"/>
+      <c r="B177" s="22"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="21"/>
-      <c r="B178" s="22"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="19"/>
-      <c r="B179" s="20"/>
+      <c r="A179" s="21"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="21"/>
-      <c r="B180" s="22"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="19"/>
-      <c r="B181" s="20"/>
+      <c r="A181" s="21"/>
+      <c r="B181" s="22"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="21"/>
-      <c r="B182" s="22"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="19"/>
-      <c r="B183" s="20"/>
+      <c r="A183" s="21"/>
+      <c r="B183" s="22"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="21"/>
-      <c r="B184" s="22"/>
+      <c r="A184" s="19"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="19"/>
-      <c r="B185" s="20"/>
+      <c r="A185" s="21"/>
+      <c r="B185" s="22"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="21"/>
-      <c r="B186" s="22"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="19"/>
-      <c r="B187" s="20"/>
+      <c r="A187" s="21"/>
+      <c r="B187" s="22"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="21"/>
-      <c r="B188" s="22"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="19"/>
-      <c r="B189" s="20"/>
+      <c r="A189" s="21"/>
+      <c r="B189" s="22"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="21"/>
-      <c r="B190" s="22"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
+      <c r="A191" s="21"/>
+      <c r="B191" s="22"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="21"/>
-      <c r="B192" s="22"/>
+      <c r="A192" s="19"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
+      <c r="A193" s="21"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="21"/>
-      <c r="B194" s="22"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="19"/>
-      <c r="B195" s="20"/>
+      <c r="A195" s="21"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="21"/>
-      <c r="B196" s="22"/>
+      <c r="A196" s="19"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="19"/>
-      <c r="B197" s="20"/>
+      <c r="A197" s="21"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="21"/>
-      <c r="B198" s="22"/>
+      <c r="A198" s="19"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="19"/>
-      <c r="B199" s="20"/>
+      <c r="A199" s="21"/>
+      <c r="B199" s="22"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <t>页面名称</t>
   </si>
@@ -394,6 +394,16 @@
   </si>
   <si>
     <t>评论晒单</t>
+  </si>
+  <si>
+    <t>mobile_pay</t>
+  </si>
+  <si>
+    <t>手机充值</t>
+  </si>
+  <si>
+    <t>1、手机充值右上角什么意思
+2、充值方法流程如何显示</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,16 +1255,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2143,759 +2156,765 @@
       <c r="C49" s="9"/>
     </row>
     <row r="50" ht="50" customHeight="1" spans="1:3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="12"/>
+      <c r="A50" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="51" ht="50" customHeight="1" spans="1:3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="9"/>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="12"/>
     </row>
     <row r="53" ht="50" customHeight="1" spans="1:3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="9"/>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="12"/>
     </row>
     <row r="55" ht="50" customHeight="1" spans="1:3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="9"/>
     </row>
     <row r="56" ht="50" customHeight="1" spans="1:3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="12"/>
     </row>
     <row r="57" ht="50" customHeight="1" spans="1:3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="9"/>
     </row>
     <row r="58" ht="50" customHeight="1" spans="1:3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="12"/>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="9"/>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="19"/>
-      <c r="B70" s="20"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="21"/>
-      <c r="B71" s="22"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="19"/>
-      <c r="B72" s="20"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="20"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="20"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="21"/>
-      <c r="B77" s="22"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="21"/>
-      <c r="B79" s="22"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="23"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="21"/>
-      <c r="B81" s="22"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="19"/>
-      <c r="B82" s="20"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="21"/>
-      <c r="B83" s="22"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="21"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="19"/>
-      <c r="B84" s="20"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="21"/>
-      <c r="B85" s="22"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="19"/>
-      <c r="B86" s="20"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="21"/>
-      <c r="B87" s="22"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="19"/>
-      <c r="B88" s="20"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="19"/>
-      <c r="B90" s="20"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="21"/>
-      <c r="B91" s="22"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="21"/>
-      <c r="B93" s="22"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="19"/>
-      <c r="B94" s="20"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="23"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="21"/>
-      <c r="B95" s="22"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="19"/>
-      <c r="B96" s="20"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="23"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="21"/>
-      <c r="B97" s="22"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="19"/>
-      <c r="B98" s="20"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="21"/>
-      <c r="B99" s="22"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="19"/>
-      <c r="B100" s="20"/>
+      <c r="A100" s="22"/>
+      <c r="B100" s="23"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="21"/>
-      <c r="B101" s="22"/>
+      <c r="A101" s="20"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="19"/>
-      <c r="B102" s="20"/>
+      <c r="A102" s="22"/>
+      <c r="B102" s="23"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="21"/>
-      <c r="B103" s="22"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="19"/>
-      <c r="B104" s="20"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="21"/>
-      <c r="B105" s="22"/>
+      <c r="A105" s="20"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="19"/>
-      <c r="B106" s="20"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="23"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="21"/>
-      <c r="B107" s="22"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="19"/>
-      <c r="B108" s="20"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="23"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="21"/>
-      <c r="B109" s="22"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="19"/>
-      <c r="B110" s="20"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="21"/>
-      <c r="B111" s="22"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="19"/>
-      <c r="B112" s="20"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="21"/>
-      <c r="B113" s="22"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="19"/>
-      <c r="B114" s="20"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="23"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="21"/>
-      <c r="B115" s="22"/>
+      <c r="A115" s="20"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="19"/>
-      <c r="B116" s="20"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="23"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="21"/>
-      <c r="B117" s="22"/>
+      <c r="A117" s="20"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="19"/>
-      <c r="B118" s="20"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="21"/>
-      <c r="B119" s="22"/>
+      <c r="A119" s="20"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="19"/>
-      <c r="B120" s="20"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="23"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="21"/>
-      <c r="B121" s="22"/>
+      <c r="A121" s="20"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="19"/>
-      <c r="B122" s="20"/>
+      <c r="A122" s="22"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="21"/>
-      <c r="B123" s="22"/>
+      <c r="A123" s="20"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="19"/>
-      <c r="B124" s="20"/>
+      <c r="A124" s="22"/>
+      <c r="B124" s="23"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="21"/>
-      <c r="B125" s="22"/>
+      <c r="A125" s="20"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="19"/>
-      <c r="B126" s="20"/>
+      <c r="A126" s="22"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="21"/>
-      <c r="B127" s="22"/>
+      <c r="A127" s="20"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="19"/>
-      <c r="B128" s="20"/>
+      <c r="A128" s="22"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="21"/>
-      <c r="B129" s="22"/>
+      <c r="A129" s="20"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="19"/>
-      <c r="B130" s="20"/>
+      <c r="A130" s="22"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="21"/>
-      <c r="B131" s="22"/>
+      <c r="A131" s="20"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="19"/>
-      <c r="B132" s="20"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="23"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="21"/>
-      <c r="B133" s="22"/>
+      <c r="A133" s="20"/>
+      <c r="B133" s="21"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="19"/>
-      <c r="B134" s="20"/>
+      <c r="A134" s="22"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="21"/>
-      <c r="B135" s="22"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="21"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="19"/>
-      <c r="B136" s="20"/>
+      <c r="A136" s="22"/>
+      <c r="B136" s="23"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="21"/>
-      <c r="B137" s="22"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="21"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="19"/>
-      <c r="B138" s="20"/>
+      <c r="A138" s="22"/>
+      <c r="B138" s="23"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="21"/>
-      <c r="B139" s="22"/>
+      <c r="A139" s="20"/>
+      <c r="B139" s="21"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="19"/>
-      <c r="B140" s="20"/>
+      <c r="A140" s="22"/>
+      <c r="B140" s="23"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="21"/>
-      <c r="B141" s="22"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="21"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="19"/>
-      <c r="B142" s="20"/>
+      <c r="A142" s="22"/>
+      <c r="B142" s="23"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="21"/>
-      <c r="B143" s="22"/>
+      <c r="A143" s="20"/>
+      <c r="B143" s="21"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="19"/>
-      <c r="B144" s="20"/>
+      <c r="A144" s="22"/>
+      <c r="B144" s="23"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="21"/>
-      <c r="B145" s="22"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="21"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="19"/>
-      <c r="B146" s="20"/>
+      <c r="A146" s="22"/>
+      <c r="B146" s="23"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="21"/>
-      <c r="B147" s="22"/>
+      <c r="A147" s="20"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="19"/>
-      <c r="B148" s="20"/>
+      <c r="A148" s="22"/>
+      <c r="B148" s="23"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="21"/>
-      <c r="B149" s="22"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="19"/>
-      <c r="B150" s="20"/>
+      <c r="A150" s="22"/>
+      <c r="B150" s="23"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="21"/>
-      <c r="B151" s="22"/>
+      <c r="A151" s="20"/>
+      <c r="B151" s="21"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="19"/>
-      <c r="B152" s="20"/>
+      <c r="A152" s="22"/>
+      <c r="B152" s="23"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="21"/>
-      <c r="B153" s="22"/>
+      <c r="A153" s="20"/>
+      <c r="B153" s="21"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="19"/>
-      <c r="B154" s="20"/>
+      <c r="A154" s="22"/>
+      <c r="B154" s="23"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="21"/>
-      <c r="B155" s="22"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="21"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="19"/>
-      <c r="B156" s="20"/>
+      <c r="A156" s="22"/>
+      <c r="B156" s="23"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="21"/>
-      <c r="B157" s="22"/>
+      <c r="A157" s="20"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="19"/>
-      <c r="B158" s="20"/>
+      <c r="A158" s="22"/>
+      <c r="B158" s="23"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="21"/>
-      <c r="B159" s="22"/>
+      <c r="A159" s="20"/>
+      <c r="B159" s="21"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="19"/>
-      <c r="B160" s="20"/>
+      <c r="A160" s="22"/>
+      <c r="B160" s="23"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="21"/>
-      <c r="B161" s="22"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="19"/>
-      <c r="B162" s="20"/>
+      <c r="A162" s="22"/>
+      <c r="B162" s="23"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="21"/>
-      <c r="B163" s="22"/>
+      <c r="A163" s="20"/>
+      <c r="B163" s="21"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="19"/>
-      <c r="B164" s="20"/>
+      <c r="A164" s="22"/>
+      <c r="B164" s="23"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="21"/>
-      <c r="B165" s="22"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="21"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="19"/>
-      <c r="B166" s="20"/>
+      <c r="A166" s="22"/>
+      <c r="B166" s="23"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="21"/>
-      <c r="B167" s="22"/>
+      <c r="A167" s="20"/>
+      <c r="B167" s="21"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="19"/>
-      <c r="B168" s="20"/>
+      <c r="A168" s="22"/>
+      <c r="B168" s="23"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="21"/>
-      <c r="B169" s="22"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="21"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="19"/>
-      <c r="B170" s="20"/>
+      <c r="A170" s="22"/>
+      <c r="B170" s="23"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="21"/>
-      <c r="B171" s="22"/>
+      <c r="A171" s="20"/>
+      <c r="B171" s="21"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="19"/>
-      <c r="B172" s="20"/>
+      <c r="A172" s="22"/>
+      <c r="B172" s="23"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="21"/>
-      <c r="B173" s="22"/>
+      <c r="A173" s="20"/>
+      <c r="B173" s="21"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="19"/>
-      <c r="B174" s="20"/>
+      <c r="A174" s="22"/>
+      <c r="B174" s="23"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="21"/>
-      <c r="B175" s="22"/>
+      <c r="A175" s="20"/>
+      <c r="B175" s="21"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="19"/>
-      <c r="B176" s="20"/>
+      <c r="A176" s="22"/>
+      <c r="B176" s="23"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="21"/>
-      <c r="B177" s="22"/>
+      <c r="A177" s="20"/>
+      <c r="B177" s="21"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="19"/>
-      <c r="B178" s="20"/>
+      <c r="A178" s="22"/>
+      <c r="B178" s="23"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="21"/>
-      <c r="B179" s="22"/>
+      <c r="A179" s="20"/>
+      <c r="B179" s="21"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="19"/>
-      <c r="B180" s="20"/>
+      <c r="A180" s="22"/>
+      <c r="B180" s="23"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="21"/>
-      <c r="B181" s="22"/>
+      <c r="A181" s="20"/>
+      <c r="B181" s="21"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="19"/>
-      <c r="B182" s="20"/>
+      <c r="A182" s="22"/>
+      <c r="B182" s="23"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="21"/>
-      <c r="B183" s="22"/>
+      <c r="A183" s="20"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="19"/>
-      <c r="B184" s="20"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="23"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="21"/>
-      <c r="B185" s="22"/>
+      <c r="A185" s="20"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="19"/>
-      <c r="B186" s="20"/>
+      <c r="A186" s="22"/>
+      <c r="B186" s="23"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="21"/>
-      <c r="B187" s="22"/>
+      <c r="A187" s="20"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="19"/>
-      <c r="B188" s="20"/>
+      <c r="A188" s="22"/>
+      <c r="B188" s="23"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="21"/>
-      <c r="B189" s="22"/>
+      <c r="A189" s="20"/>
+      <c r="B189" s="21"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="19"/>
-      <c r="B190" s="20"/>
+      <c r="A190" s="22"/>
+      <c r="B190" s="23"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="21"/>
-      <c r="B191" s="22"/>
+      <c r="A191" s="20"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="19"/>
-      <c r="B192" s="20"/>
+      <c r="A192" s="22"/>
+      <c r="B192" s="23"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="21"/>
-      <c r="B193" s="22"/>
+      <c r="A193" s="20"/>
+      <c r="B193" s="21"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="19"/>
-      <c r="B194" s="20"/>
+      <c r="A194" s="22"/>
+      <c r="B194" s="23"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="21"/>
-      <c r="B195" s="22"/>
+      <c r="A195" s="20"/>
+      <c r="B195" s="21"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="19"/>
-      <c r="B196" s="20"/>
+      <c r="A196" s="22"/>
+      <c r="B196" s="23"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="21"/>
-      <c r="B197" s="22"/>
+      <c r="A197" s="20"/>
+      <c r="B197" s="21"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="19"/>
-      <c r="B198" s="20"/>
+      <c r="A198" s="22"/>
+      <c r="B198" s="23"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="21"/>
-      <c r="B199" s="22"/>
+      <c r="A199" s="20"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="23"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="25"/>
+      <c r="A200" s="24"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>页面名称</t>
   </si>
@@ -404,6 +404,12 @@
   <si>
     <t>1、手机充值右上角什么意思
 2、充值方法流程如何显示</t>
+  </si>
+  <si>
+    <t>delivery_success</t>
+  </si>
+  <si>
+    <t>收货成功</t>
   </si>
 </sst>
 </file>
@@ -1258,16 +1264,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1630,7 +1636,7 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2153,7 +2159,9 @@
       <c r="B49" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="50" ht="50" customHeight="1" spans="1:3">
       <c r="A50" s="15" t="s">
@@ -2167,748 +2175,754 @@
       </c>
     </row>
     <row r="51" ht="50" customHeight="1" spans="1:3">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="9"/>
+      <c r="A51" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="12"/>
     </row>
     <row r="53" ht="50" customHeight="1" spans="1:3">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="9"/>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:3">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="12"/>
     </row>
     <row r="55" ht="50" customHeight="1" spans="1:3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="9"/>
     </row>
     <row r="56" ht="50" customHeight="1" spans="1:3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="12"/>
     </row>
     <row r="57" ht="50" customHeight="1" spans="1:3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="9"/>
     </row>
     <row r="58" ht="50" customHeight="1" spans="1:3">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="12"/>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="9"/>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
-      <c r="A64" s="22"/>
-      <c r="B64" s="23"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="21"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
-      <c r="A66" s="22"/>
-      <c r="B66" s="23"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
-      <c r="A68" s="22"/>
-      <c r="B68" s="23"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="22"/>
-      <c r="B70" s="23"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="21"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="20"/>
-      <c r="B73" s="21"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="20"/>
-      <c r="B75" s="21"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="22"/>
-      <c r="B76" s="23"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="20"/>
-      <c r="B77" s="21"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="23"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="22"/>
-      <c r="B78" s="23"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="20"/>
-      <c r="B79" s="21"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="22"/>
-      <c r="B80" s="23"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="20"/>
-      <c r="B81" s="21"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="23"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="20"/>
-      <c r="B83" s="21"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="22"/>
-      <c r="B84" s="23"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="21"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="20"/>
-      <c r="B85" s="21"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="23"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="22"/>
-      <c r="B86" s="23"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="20"/>
-      <c r="B87" s="21"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="23"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="22"/>
-      <c r="B88" s="23"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="20"/>
-      <c r="B89" s="21"/>
+      <c r="A89" s="22"/>
+      <c r="B89" s="23"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="22"/>
-      <c r="B90" s="23"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="20"/>
-      <c r="B91" s="21"/>
+      <c r="A91" s="22"/>
+      <c r="B91" s="23"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="22"/>
-      <c r="B92" s="23"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="20"/>
-      <c r="B93" s="21"/>
+      <c r="A93" s="22"/>
+      <c r="B93" s="23"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="22"/>
-      <c r="B94" s="23"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="21"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="20"/>
-      <c r="B95" s="21"/>
+      <c r="A95" s="22"/>
+      <c r="B95" s="23"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="22"/>
-      <c r="B96" s="23"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="20"/>
-      <c r="B97" s="21"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="23"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="22"/>
-      <c r="B98" s="23"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="20"/>
-      <c r="B99" s="21"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="23"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="22"/>
-      <c r="B100" s="23"/>
+      <c r="A100" s="20"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="20"/>
-      <c r="B101" s="21"/>
+      <c r="A101" s="22"/>
+      <c r="B101" s="23"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="22"/>
-      <c r="B102" s="23"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="21"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="20"/>
-      <c r="B103" s="21"/>
+      <c r="A103" s="22"/>
+      <c r="B103" s="23"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="22"/>
-      <c r="B104" s="23"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="21"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="20"/>
-      <c r="B105" s="21"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="23"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="22"/>
-      <c r="B106" s="23"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="20"/>
-      <c r="B107" s="21"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="23"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="22"/>
-      <c r="B108" s="23"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="20"/>
-      <c r="B109" s="21"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="23"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="22"/>
-      <c r="B110" s="23"/>
+      <c r="A110" s="20"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="20"/>
-      <c r="B111" s="21"/>
+      <c r="A111" s="22"/>
+      <c r="B111" s="23"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="22"/>
-      <c r="B112" s="23"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="20"/>
-      <c r="B113" s="21"/>
+      <c r="A113" s="22"/>
+      <c r="B113" s="23"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="22"/>
-      <c r="B114" s="23"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="20"/>
-      <c r="B115" s="21"/>
+      <c r="A115" s="22"/>
+      <c r="B115" s="23"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="22"/>
-      <c r="B116" s="23"/>
+      <c r="A116" s="20"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="20"/>
-      <c r="B117" s="21"/>
+      <c r="A117" s="22"/>
+      <c r="B117" s="23"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="22"/>
-      <c r="B118" s="23"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="20"/>
-      <c r="B119" s="21"/>
+      <c r="A119" s="22"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="22"/>
-      <c r="B120" s="23"/>
+      <c r="A120" s="20"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="20"/>
-      <c r="B121" s="21"/>
+      <c r="A121" s="22"/>
+      <c r="B121" s="23"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="22"/>
-      <c r="B122" s="23"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="20"/>
-      <c r="B123" s="21"/>
+      <c r="A123" s="22"/>
+      <c r="B123" s="23"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="22"/>
-      <c r="B124" s="23"/>
+      <c r="A124" s="20"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="20"/>
-      <c r="B125" s="21"/>
+      <c r="A125" s="22"/>
+      <c r="B125" s="23"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="22"/>
-      <c r="B126" s="23"/>
+      <c r="A126" s="20"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="20"/>
-      <c r="B127" s="21"/>
+      <c r="A127" s="22"/>
+      <c r="B127" s="23"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="22"/>
-      <c r="B128" s="23"/>
+      <c r="A128" s="20"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="20"/>
-      <c r="B129" s="21"/>
+      <c r="A129" s="22"/>
+      <c r="B129" s="23"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="22"/>
-      <c r="B130" s="23"/>
+      <c r="A130" s="20"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="20"/>
-      <c r="B131" s="21"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="23"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="22"/>
-      <c r="B132" s="23"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="21"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="20"/>
-      <c r="B133" s="21"/>
+      <c r="A133" s="22"/>
+      <c r="B133" s="23"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="22"/>
-      <c r="B134" s="23"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="21"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="20"/>
-      <c r="B135" s="21"/>
+      <c r="A135" s="22"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="22"/>
-      <c r="B136" s="23"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="21"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="20"/>
-      <c r="B137" s="21"/>
+      <c r="A137" s="22"/>
+      <c r="B137" s="23"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="22"/>
-      <c r="B138" s="23"/>
+      <c r="A138" s="20"/>
+      <c r="B138" s="21"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="20"/>
-      <c r="B139" s="21"/>
+      <c r="A139" s="22"/>
+      <c r="B139" s="23"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="22"/>
-      <c r="B140" s="23"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="21"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="20"/>
-      <c r="B141" s="21"/>
+      <c r="A141" s="22"/>
+      <c r="B141" s="23"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="22"/>
-      <c r="B142" s="23"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="21"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="20"/>
-      <c r="B143" s="21"/>
+      <c r="A143" s="22"/>
+      <c r="B143" s="23"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="22"/>
-      <c r="B144" s="23"/>
+      <c r="A144" s="20"/>
+      <c r="B144" s="21"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="20"/>
-      <c r="B145" s="21"/>
+      <c r="A145" s="22"/>
+      <c r="B145" s="23"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="22"/>
-      <c r="B146" s="23"/>
+      <c r="A146" s="20"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="20"/>
-      <c r="B147" s="21"/>
+      <c r="A147" s="22"/>
+      <c r="B147" s="23"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="22"/>
-      <c r="B148" s="23"/>
+      <c r="A148" s="20"/>
+      <c r="B148" s="21"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="20"/>
-      <c r="B149" s="21"/>
+      <c r="A149" s="22"/>
+      <c r="B149" s="23"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="22"/>
-      <c r="B150" s="23"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="21"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="20"/>
-      <c r="B151" s="21"/>
+      <c r="A151" s="22"/>
+      <c r="B151" s="23"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="22"/>
-      <c r="B152" s="23"/>
+      <c r="A152" s="20"/>
+      <c r="B152" s="21"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="20"/>
-      <c r="B153" s="21"/>
+      <c r="A153" s="22"/>
+      <c r="B153" s="23"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="22"/>
-      <c r="B154" s="23"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="21"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="20"/>
-      <c r="B155" s="21"/>
+      <c r="A155" s="22"/>
+      <c r="B155" s="23"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="22"/>
-      <c r="B156" s="23"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="20"/>
-      <c r="B157" s="21"/>
+      <c r="A157" s="22"/>
+      <c r="B157" s="23"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="22"/>
-      <c r="B158" s="23"/>
+      <c r="A158" s="20"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="20"/>
-      <c r="B159" s="21"/>
+      <c r="A159" s="22"/>
+      <c r="B159" s="23"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="22"/>
-      <c r="B160" s="23"/>
+      <c r="A160" s="20"/>
+      <c r="B160" s="21"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="20"/>
-      <c r="B161" s="21"/>
+      <c r="A161" s="22"/>
+      <c r="B161" s="23"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="22"/>
-      <c r="B162" s="23"/>
+      <c r="A162" s="20"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="20"/>
-      <c r="B163" s="21"/>
+      <c r="A163" s="22"/>
+      <c r="B163" s="23"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="22"/>
-      <c r="B164" s="23"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="21"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="20"/>
-      <c r="B165" s="21"/>
+      <c r="A165" s="22"/>
+      <c r="B165" s="23"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="22"/>
-      <c r="B166" s="23"/>
+      <c r="A166" s="20"/>
+      <c r="B166" s="21"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="20"/>
-      <c r="B167" s="21"/>
+      <c r="A167" s="22"/>
+      <c r="B167" s="23"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="22"/>
-      <c r="B168" s="23"/>
+      <c r="A168" s="20"/>
+      <c r="B168" s="21"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="20"/>
-      <c r="B169" s="21"/>
+      <c r="A169" s="22"/>
+      <c r="B169" s="23"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="22"/>
-      <c r="B170" s="23"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="21"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="20"/>
-      <c r="B171" s="21"/>
+      <c r="A171" s="22"/>
+      <c r="B171" s="23"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="22"/>
-      <c r="B172" s="23"/>
+      <c r="A172" s="20"/>
+      <c r="B172" s="21"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="20"/>
-      <c r="B173" s="21"/>
+      <c r="A173" s="22"/>
+      <c r="B173" s="23"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="22"/>
-      <c r="B174" s="23"/>
+      <c r="A174" s="20"/>
+      <c r="B174" s="21"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="20"/>
-      <c r="B175" s="21"/>
+      <c r="A175" s="22"/>
+      <c r="B175" s="23"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="22"/>
-      <c r="B176" s="23"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="21"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="20"/>
-      <c r="B177" s="21"/>
+      <c r="A177" s="22"/>
+      <c r="B177" s="23"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="22"/>
-      <c r="B178" s="23"/>
+      <c r="A178" s="20"/>
+      <c r="B178" s="21"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="20"/>
-      <c r="B179" s="21"/>
+      <c r="A179" s="22"/>
+      <c r="B179" s="23"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="22"/>
-      <c r="B180" s="23"/>
+      <c r="A180" s="20"/>
+      <c r="B180" s="21"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="20"/>
-      <c r="B181" s="21"/>
+      <c r="A181" s="22"/>
+      <c r="B181" s="23"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="22"/>
-      <c r="B182" s="23"/>
+      <c r="A182" s="20"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="20"/>
-      <c r="B183" s="21"/>
+      <c r="A183" s="22"/>
+      <c r="B183" s="23"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="22"/>
-      <c r="B184" s="23"/>
+      <c r="A184" s="20"/>
+      <c r="B184" s="21"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="20"/>
-      <c r="B185" s="21"/>
+      <c r="A185" s="22"/>
+      <c r="B185" s="23"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="22"/>
-      <c r="B186" s="23"/>
+      <c r="A186" s="20"/>
+      <c r="B186" s="21"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="20"/>
-      <c r="B187" s="21"/>
+      <c r="A187" s="22"/>
+      <c r="B187" s="23"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="22"/>
-      <c r="B188" s="23"/>
+      <c r="A188" s="20"/>
+      <c r="B188" s="21"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="20"/>
-      <c r="B189" s="21"/>
+      <c r="A189" s="22"/>
+      <c r="B189" s="23"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="22"/>
-      <c r="B190" s="23"/>
+      <c r="A190" s="20"/>
+      <c r="B190" s="21"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="20"/>
-      <c r="B191" s="21"/>
+      <c r="A191" s="22"/>
+      <c r="B191" s="23"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="22"/>
-      <c r="B192" s="23"/>
+      <c r="A192" s="20"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="20"/>
-      <c r="B193" s="21"/>
+      <c r="A193" s="22"/>
+      <c r="B193" s="23"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="22"/>
-      <c r="B194" s="23"/>
+      <c r="A194" s="20"/>
+      <c r="B194" s="21"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="20"/>
-      <c r="B195" s="21"/>
+      <c r="A195" s="22"/>
+      <c r="B195" s="23"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="22"/>
-      <c r="B196" s="23"/>
+      <c r="A196" s="20"/>
+      <c r="B196" s="21"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="20"/>
-      <c r="B197" s="21"/>
+      <c r="A197" s="22"/>
+      <c r="B197" s="23"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="22"/>
-      <c r="B198" s="23"/>
+      <c r="A198" s="20"/>
+      <c r="B198" s="21"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="20"/>
-      <c r="B199" s="21"/>
+      <c r="A199" s="22"/>
+      <c r="B199" s="23"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>页面名称</t>
   </si>
@@ -410,6 +410,21 @@
   </si>
   <si>
     <t>收货成功</t>
+  </si>
+  <si>
+    <t>integration_detail</t>
+  </si>
+  <si>
+    <t>积分兑换详情</t>
+  </si>
+  <si>
+    <t>待完成</t>
+  </si>
+  <si>
+    <t>mygift</t>
+  </si>
+  <si>
+    <t>我的礼品</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1651,7 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2186,13 +2201,23 @@
       </c>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="12"/>
+      <c r="A52" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="53" ht="50" customHeight="1" spans="1:3">
-      <c r="A53" s="22"/>
-      <c r="B53" s="23"/>
+      <c r="A53" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="C53" s="9"/>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:3">

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
   <si>
     <t>页面名称</t>
   </si>
@@ -418,13 +418,28 @@
     <t>积分兑换详情</t>
   </si>
   <si>
-    <t>待完成</t>
+    <t>待完成（psd找不到）</t>
   </si>
   <si>
     <t>mygift</t>
   </si>
   <si>
     <t>我的礼品</t>
+  </si>
+  <si>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t>我要合作</t>
+  </si>
+  <si>
+    <t>合作申请等等流程（没有页面）</t>
+  </si>
+  <si>
+    <t>payment_success</t>
+  </si>
+  <si>
+    <t>交易成功</t>
   </si>
 </sst>
 </file>
@@ -432,10 +447,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -625,174 +640,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -800,12 +821,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,10 +1091,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1088,16 +1103,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,10 +1124,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1133,92 +1148,92 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,9 +1290,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1650,8 +1662,8 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2157,10 +2169,10 @@
       </c>
     </row>
     <row r="48" ht="50" customHeight="1" spans="1:3">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -2168,10 +2180,10 @@
       </c>
     </row>
     <row r="49" ht="50" customHeight="1" spans="1:3">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -2179,21 +2191,21 @@
       </c>
     </row>
     <row r="50" ht="50" customHeight="1" spans="1:3">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="51" ht="50" customHeight="1" spans="1:3">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C51" s="9" t="s">
@@ -2201,10 +2213,10 @@
       </c>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:3">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="11" t="s">
         <v>125</v>
       </c>
       <c r="C52" s="12" t="s">
@@ -2212,748 +2224,758 @@
       </c>
     </row>
     <row r="53" ht="50" customHeight="1" spans="1:3">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C53" s="9"/>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="12"/>
+      <c r="A54" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="55" ht="50" customHeight="1" spans="1:3">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
+      <c r="A55" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="C55" s="9"/>
     </row>
     <row r="56" ht="50" customHeight="1" spans="1:3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="21"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="12"/>
     </row>
     <row r="57" ht="50" customHeight="1" spans="1:3">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="9"/>
     </row>
     <row r="58" ht="50" customHeight="1" spans="1:3">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="12"/>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="9"/>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
-      <c r="A67" s="22"/>
-      <c r="B67" s="23"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
-      <c r="A69" s="22"/>
-      <c r="B69" s="23"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="22"/>
-      <c r="B71" s="23"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="20"/>
-      <c r="B72" s="21"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="22"/>
-      <c r="B73" s="23"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="20"/>
-      <c r="B74" s="21"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="22"/>
-      <c r="B75" s="23"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="20"/>
-      <c r="B76" s="21"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="22"/>
-      <c r="B77" s="23"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="20"/>
-      <c r="B78" s="21"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="22"/>
-      <c r="B79" s="23"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="20"/>
-      <c r="B80" s="21"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="22"/>
-      <c r="B81" s="23"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="20"/>
-      <c r="B82" s="21"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="22"/>
-      <c r="B83" s="23"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="20"/>
-      <c r="B84" s="21"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="22"/>
-      <c r="B85" s="23"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="20"/>
-      <c r="B86" s="21"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="22"/>
-      <c r="B87" s="23"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="20"/>
-      <c r="B88" s="21"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="22"/>
-      <c r="B89" s="23"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="20"/>
-      <c r="B90" s="21"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="22"/>
-      <c r="B91" s="23"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="20"/>
-      <c r="B92" s="21"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="22"/>
-      <c r="B93" s="23"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="20"/>
-      <c r="B94" s="21"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="22"/>
-      <c r="B95" s="23"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="20"/>
-      <c r="B96" s="21"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="22"/>
-      <c r="B97" s="23"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="20"/>
-      <c r="B98" s="21"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="22"/>
-      <c r="B99" s="23"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="20"/>
-      <c r="B100" s="21"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="22"/>
-      <c r="B101" s="23"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="20"/>
-      <c r="B102" s="21"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="22"/>
-      <c r="B103" s="23"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="20"/>
-      <c r="B104" s="21"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="22"/>
-      <c r="B105" s="23"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="20"/>
-      <c r="B106" s="21"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="22"/>
-      <c r="B107" s="23"/>
+      <c r="A107" s="21"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="20"/>
-      <c r="B108" s="21"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="22"/>
-      <c r="B109" s="23"/>
+      <c r="A109" s="21"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="20"/>
-      <c r="B110" s="21"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="22"/>
-      <c r="B111" s="23"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="20"/>
-      <c r="B112" s="21"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="22"/>
-      <c r="B113" s="23"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="20"/>
-      <c r="B114" s="21"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="22"/>
-      <c r="B115" s="23"/>
+      <c r="A115" s="21"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="20"/>
-      <c r="B116" s="21"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="22"/>
-      <c r="B117" s="23"/>
+      <c r="A117" s="21"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="20"/>
-      <c r="B118" s="21"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="22"/>
-      <c r="B119" s="23"/>
+      <c r="A119" s="21"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="20"/>
-      <c r="B120" s="21"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="22"/>
-      <c r="B121" s="23"/>
+      <c r="A121" s="21"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="20"/>
-      <c r="B122" s="21"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="22"/>
-      <c r="B123" s="23"/>
+      <c r="A123" s="21"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="20"/>
-      <c r="B124" s="21"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="22"/>
-      <c r="B125" s="23"/>
+      <c r="A125" s="21"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="20"/>
-      <c r="B126" s="21"/>
+      <c r="A126" s="19"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="22"/>
-      <c r="B127" s="23"/>
+      <c r="A127" s="21"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="20"/>
-      <c r="B128" s="21"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="22"/>
-      <c r="B129" s="23"/>
+      <c r="A129" s="21"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="20"/>
-      <c r="B130" s="21"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="22"/>
-      <c r="B131" s="23"/>
+      <c r="A131" s="21"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="20"/>
-      <c r="B132" s="21"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="22"/>
-      <c r="B133" s="23"/>
+      <c r="A133" s="21"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="20"/>
-      <c r="B134" s="21"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="22"/>
-      <c r="B135" s="23"/>
+      <c r="A135" s="21"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="20"/>
-      <c r="B136" s="21"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="22"/>
-      <c r="B137" s="23"/>
+      <c r="A137" s="21"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="20"/>
-      <c r="B138" s="21"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="22"/>
-      <c r="B139" s="23"/>
+      <c r="A139" s="21"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="20"/>
-      <c r="B140" s="21"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="22"/>
-      <c r="B141" s="23"/>
+      <c r="A141" s="21"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="20"/>
-      <c r="B142" s="21"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="22"/>
-      <c r="B143" s="23"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="20"/>
-      <c r="B144" s="21"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="22"/>
-      <c r="B145" s="23"/>
+      <c r="A145" s="21"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="20"/>
-      <c r="B146" s="21"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="22"/>
-      <c r="B147" s="23"/>
+      <c r="A147" s="21"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="20"/>
-      <c r="B148" s="21"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="22"/>
-      <c r="B149" s="23"/>
+      <c r="A149" s="21"/>
+      <c r="B149" s="22"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="20"/>
-      <c r="B150" s="21"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="22"/>
-      <c r="B151" s="23"/>
+      <c r="A151" s="21"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="20"/>
-      <c r="B152" s="21"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="22"/>
-      <c r="B153" s="23"/>
+      <c r="A153" s="21"/>
+      <c r="B153" s="22"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="20"/>
-      <c r="B154" s="21"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="22"/>
-      <c r="B155" s="23"/>
+      <c r="A155" s="21"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="20"/>
-      <c r="B156" s="21"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="22"/>
-      <c r="B157" s="23"/>
+      <c r="A157" s="21"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="20"/>
-      <c r="B158" s="21"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="22"/>
-      <c r="B159" s="23"/>
+      <c r="A159" s="21"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="20"/>
-      <c r="B160" s="21"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="22"/>
-      <c r="B161" s="23"/>
+      <c r="A161" s="21"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="20"/>
-      <c r="B162" s="21"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="22"/>
-      <c r="B163" s="23"/>
+      <c r="A163" s="21"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="20"/>
-      <c r="B164" s="21"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="22"/>
-      <c r="B165" s="23"/>
+      <c r="A165" s="21"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="20"/>
-      <c r="B166" s="21"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="22"/>
-      <c r="B167" s="23"/>
+      <c r="A167" s="21"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="20"/>
-      <c r="B168" s="21"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="22"/>
-      <c r="B169" s="23"/>
+      <c r="A169" s="21"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="20"/>
-      <c r="B170" s="21"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="22"/>
-      <c r="B171" s="23"/>
+      <c r="A171" s="21"/>
+      <c r="B171" s="22"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="20"/>
-      <c r="B172" s="21"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="22"/>
-      <c r="B173" s="23"/>
+      <c r="A173" s="21"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="20"/>
-      <c r="B174" s="21"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="22"/>
-      <c r="B175" s="23"/>
+      <c r="A175" s="21"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="20"/>
-      <c r="B176" s="21"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="22"/>
-      <c r="B177" s="23"/>
+      <c r="A177" s="21"/>
+      <c r="B177" s="22"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="20"/>
-      <c r="B178" s="21"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="22"/>
-      <c r="B179" s="23"/>
+      <c r="A179" s="21"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="20"/>
-      <c r="B180" s="21"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="22"/>
-      <c r="B181" s="23"/>
+      <c r="A181" s="21"/>
+      <c r="B181" s="22"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="20"/>
-      <c r="B182" s="21"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="22"/>
-      <c r="B183" s="23"/>
+      <c r="A183" s="21"/>
+      <c r="B183" s="22"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="20"/>
-      <c r="B184" s="21"/>
+      <c r="A184" s="19"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="22"/>
-      <c r="B185" s="23"/>
+      <c r="A185" s="21"/>
+      <c r="B185" s="22"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="20"/>
-      <c r="B186" s="21"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="22"/>
-      <c r="B187" s="23"/>
+      <c r="A187" s="21"/>
+      <c r="B187" s="22"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="20"/>
-      <c r="B188" s="21"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="22"/>
-      <c r="B189" s="23"/>
+      <c r="A189" s="21"/>
+      <c r="B189" s="22"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="20"/>
-      <c r="B190" s="21"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="22"/>
-      <c r="B191" s="23"/>
+      <c r="A191" s="21"/>
+      <c r="B191" s="22"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="20"/>
-      <c r="B192" s="21"/>
+      <c r="A192" s="19"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="22"/>
-      <c r="B193" s="23"/>
+      <c r="A193" s="21"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="20"/>
-      <c r="B194" s="21"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="22"/>
-      <c r="B195" s="23"/>
+      <c r="A195" s="21"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="20"/>
-      <c r="B196" s="21"/>
+      <c r="A196" s="19"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="22"/>
-      <c r="B197" s="23"/>
+      <c r="A197" s="21"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="20"/>
-      <c r="B198" s="21"/>
+      <c r="A198" s="19"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="22"/>
-      <c r="B199" s="23"/>
+      <c r="A199" s="21"/>
+      <c r="B199" s="22"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="24"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="26"/>
+      <c r="A200" s="23"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
   <si>
     <t>页面名称</t>
   </si>
@@ -440,6 +440,15 @@
   </si>
   <si>
     <t>交易成功</t>
+  </si>
+  <si>
+    <t>mobilepay_success</t>
+  </si>
+  <si>
+    <t>充值成功</t>
+  </si>
+  <si>
+    <t>链接</t>
   </si>
 </sst>
 </file>
@@ -1291,16 +1300,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1663,7 +1672,7 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:B55"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2253,723 +2262,729 @@
       <c r="C55" s="9"/>
     </row>
     <row r="56" ht="50" customHeight="1" spans="1:3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="12"/>
+      <c r="A56" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="57" ht="50" customHeight="1" spans="1:3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="9"/>
     </row>
     <row r="58" ht="50" customHeight="1" spans="1:3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="12"/>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="9"/>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="19"/>
-      <c r="B70" s="20"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="21"/>
-      <c r="B71" s="22"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="19"/>
-      <c r="B72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="20"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="20"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="21"/>
-      <c r="B77" s="22"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="21"/>
-      <c r="B79" s="22"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="21"/>
-      <c r="B81" s="22"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="19"/>
-      <c r="B82" s="20"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="21"/>
-      <c r="B83" s="22"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="19"/>
-      <c r="B84" s="20"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="21"/>
-      <c r="B85" s="22"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="19"/>
-      <c r="B86" s="20"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="21"/>
-      <c r="B87" s="22"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="19"/>
-      <c r="B88" s="20"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="19"/>
-      <c r="B90" s="20"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="21"/>
-      <c r="B91" s="22"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="21"/>
-      <c r="B93" s="22"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="19"/>
-      <c r="B94" s="20"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="21"/>
-      <c r="B95" s="22"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="19"/>
-      <c r="B96" s="20"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="21"/>
-      <c r="B97" s="22"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="19"/>
-      <c r="B98" s="20"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="21"/>
-      <c r="B99" s="22"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="19"/>
-      <c r="B100" s="20"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="21"/>
-      <c r="B101" s="22"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="19"/>
-      <c r="B102" s="20"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="21"/>
-      <c r="B103" s="22"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="19"/>
-      <c r="B104" s="20"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="21"/>
-      <c r="B105" s="22"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="19"/>
-      <c r="B106" s="20"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="21"/>
-      <c r="B107" s="22"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="19"/>
-      <c r="B108" s="20"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="21"/>
-      <c r="B109" s="22"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="19"/>
-      <c r="B110" s="20"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="21"/>
-      <c r="B111" s="22"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="19"/>
-      <c r="B112" s="20"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="21"/>
-      <c r="B113" s="22"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="19"/>
-      <c r="B114" s="20"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="21"/>
-      <c r="B115" s="22"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="19"/>
-      <c r="B116" s="20"/>
+      <c r="A116" s="21"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="21"/>
-      <c r="B117" s="22"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="19"/>
-      <c r="B118" s="20"/>
+      <c r="A118" s="21"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="21"/>
-      <c r="B119" s="22"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="19"/>
-      <c r="B120" s="20"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="21"/>
-      <c r="B121" s="22"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="19"/>
-      <c r="B122" s="20"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="21"/>
-      <c r="B123" s="22"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="19"/>
-      <c r="B124" s="20"/>
+      <c r="A124" s="21"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="21"/>
-      <c r="B125" s="22"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="19"/>
-      <c r="B126" s="20"/>
+      <c r="A126" s="21"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="21"/>
-      <c r="B127" s="22"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="19"/>
-      <c r="B128" s="20"/>
+      <c r="A128" s="21"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="21"/>
-      <c r="B129" s="22"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="19"/>
-      <c r="B130" s="20"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="21"/>
-      <c r="B131" s="22"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="19"/>
-      <c r="B132" s="20"/>
+      <c r="A132" s="21"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="21"/>
-      <c r="B133" s="22"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="19"/>
-      <c r="B134" s="20"/>
+      <c r="A134" s="21"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="21"/>
-      <c r="B135" s="22"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="19"/>
-      <c r="B136" s="20"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="21"/>
-      <c r="B137" s="22"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="19"/>
-      <c r="B138" s="20"/>
+      <c r="A138" s="21"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="21"/>
-      <c r="B139" s="22"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="19"/>
-      <c r="B140" s="20"/>
+      <c r="A140" s="21"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="21"/>
-      <c r="B141" s="22"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="19"/>
-      <c r="B142" s="20"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="21"/>
-      <c r="B143" s="22"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="19"/>
-      <c r="B144" s="20"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="21"/>
-      <c r="B145" s="22"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="19"/>
-      <c r="B146" s="20"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="21"/>
-      <c r="B147" s="22"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="19"/>
-      <c r="B148" s="20"/>
+      <c r="A148" s="21"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="21"/>
-      <c r="B149" s="22"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="19"/>
-      <c r="B150" s="20"/>
+      <c r="A150" s="21"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="21"/>
-      <c r="B151" s="22"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="19"/>
-      <c r="B152" s="20"/>
+      <c r="A152" s="21"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="21"/>
-      <c r="B153" s="22"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="19"/>
-      <c r="B154" s="20"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="21"/>
-      <c r="B155" s="22"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="19"/>
-      <c r="B156" s="20"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="21"/>
-      <c r="B157" s="22"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="19"/>
-      <c r="B158" s="20"/>
+      <c r="A158" s="21"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="21"/>
-      <c r="B159" s="22"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="19"/>
-      <c r="B160" s="20"/>
+      <c r="A160" s="21"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="21"/>
-      <c r="B161" s="22"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="19"/>
-      <c r="B162" s="20"/>
+      <c r="A162" s="21"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="21"/>
-      <c r="B163" s="22"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="19"/>
-      <c r="B164" s="20"/>
+      <c r="A164" s="21"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="21"/>
-      <c r="B165" s="22"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="19"/>
-      <c r="B166" s="20"/>
+      <c r="A166" s="21"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="21"/>
-      <c r="B167" s="22"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="19"/>
-      <c r="B168" s="20"/>
+      <c r="A168" s="21"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="21"/>
-      <c r="B169" s="22"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="19"/>
-      <c r="B170" s="20"/>
+      <c r="A170" s="21"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="21"/>
-      <c r="B171" s="22"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="19"/>
-      <c r="B172" s="20"/>
+      <c r="A172" s="21"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="21"/>
-      <c r="B173" s="22"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="19"/>
-      <c r="B174" s="20"/>
+      <c r="A174" s="21"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="21"/>
-      <c r="B175" s="22"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="19"/>
-      <c r="B176" s="20"/>
+      <c r="A176" s="21"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="21"/>
-      <c r="B177" s="22"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="19"/>
-      <c r="B178" s="20"/>
+      <c r="A178" s="21"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="21"/>
-      <c r="B179" s="22"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="19"/>
-      <c r="B180" s="20"/>
+      <c r="A180" s="21"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="21"/>
-      <c r="B181" s="22"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="19"/>
-      <c r="B182" s="20"/>
+      <c r="A182" s="21"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="21"/>
-      <c r="B183" s="22"/>
+      <c r="A183" s="19"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="19"/>
-      <c r="B184" s="20"/>
+      <c r="A184" s="21"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="21"/>
-      <c r="B185" s="22"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="19"/>
-      <c r="B186" s="20"/>
+      <c r="A186" s="21"/>
+      <c r="B186" s="22"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="21"/>
-      <c r="B187" s="22"/>
+      <c r="A187" s="19"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="19"/>
-      <c r="B188" s="20"/>
+      <c r="A188" s="21"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="21"/>
-      <c r="B189" s="22"/>
+      <c r="A189" s="19"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="19"/>
-      <c r="B190" s="20"/>
+      <c r="A190" s="21"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="21"/>
-      <c r="B191" s="22"/>
+      <c r="A191" s="19"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="19"/>
-      <c r="B192" s="20"/>
+      <c r="A192" s="21"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="21"/>
-      <c r="B193" s="22"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="19"/>
-      <c r="B194" s="20"/>
+      <c r="A194" s="21"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="21"/>
-      <c r="B195" s="22"/>
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="19"/>
-      <c r="B196" s="20"/>
+      <c r="A196" s="21"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="21"/>
-      <c r="B197" s="22"/>
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="19"/>
-      <c r="B198" s="20"/>
+      <c r="A198" s="21"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="21"/>
-      <c r="B199" s="22"/>
+      <c r="A199" s="19"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12600"/>
+    <workbookView windowWidth="25095" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>页面名称</t>
   </si>
@@ -449,6 +449,12 @@
   </si>
   <si>
     <t>链接</t>
+  </si>
+  <si>
+    <t>payment_fail</t>
+  </si>
+  <si>
+    <t>付款失败</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -475,36 +481,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,6 +503,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,6 +545,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,27 +614,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -649,6 +655,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -673,43 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,37 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,18 +799,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -793,43 +817,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,30 +998,6 @@
         <color theme="0"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1034,6 +1016,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1045,6 +1036,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,21 +1090,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1100,10 +1106,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1112,137 +1118,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1288,28 +1294,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2242,10 +2242,10 @@
       <c r="C53" s="9"/>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:3">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="11" t="s">
         <v>130</v>
       </c>
       <c r="C54" s="12" t="s">
@@ -2253,19 +2253,19 @@
       </c>
     </row>
     <row r="55" ht="50" customHeight="1" spans="1:3">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C55" s="9"/>
     </row>
     <row r="56" ht="50" customHeight="1" spans="1:3">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C56" s="12" t="s">
@@ -2273,13 +2273,19 @@
       </c>
     </row>
     <row r="57" ht="50" customHeight="1" spans="1:3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="9"/>
+      <c r="A57" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="58" ht="50" customHeight="1" spans="1:3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
@@ -2288,8 +2294,8 @@
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
@@ -2298,8 +2304,8 @@
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="12"/>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
@@ -2308,8 +2314,8 @@
       <c r="C63" s="9"/>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
@@ -2318,8 +2324,8 @@
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
@@ -2328,8 +2334,8 @@
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
@@ -2338,8 +2344,8 @@
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
@@ -2348,8 +2354,8 @@
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
@@ -2358,8 +2364,8 @@
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
@@ -2368,8 +2374,8 @@
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
@@ -2378,8 +2384,8 @@
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
@@ -2388,8 +2394,8 @@
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
@@ -2398,8 +2404,8 @@
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="21"/>
-      <c r="B82" s="22"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
@@ -2408,8 +2414,8 @@
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
@@ -2418,8 +2424,8 @@
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
@@ -2428,8 +2434,8 @@
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
@@ -2438,8 +2444,8 @@
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
@@ -2448,8 +2454,8 @@
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="21"/>
-      <c r="B92" s="22"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
@@ -2458,8 +2464,8 @@
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
@@ -2468,8 +2474,8 @@
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
@@ -2478,8 +2484,8 @@
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="21"/>
-      <c r="B98" s="22"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
@@ -2488,8 +2494,8 @@
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="21"/>
-      <c r="B100" s="22"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
@@ -2498,8 +2504,8 @@
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="21"/>
-      <c r="B102" s="22"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
@@ -2508,8 +2514,8 @@
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="21"/>
-      <c r="B104" s="22"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
@@ -2518,8 +2524,8 @@
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="21"/>
-      <c r="B106" s="22"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
@@ -2528,8 +2534,8 @@
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="21"/>
-      <c r="B108" s="22"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
@@ -2538,8 +2544,8 @@
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
@@ -2548,8 +2554,8 @@
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="21"/>
-      <c r="B112" s="22"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
@@ -2558,8 +2564,8 @@
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="21"/>
-      <c r="B114" s="22"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
@@ -2568,8 +2574,8 @@
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="21"/>
-      <c r="B116" s="22"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
@@ -2578,8 +2584,8 @@
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="21"/>
-      <c r="B118" s="22"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
@@ -2588,8 +2594,8 @@
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="21"/>
-      <c r="B120" s="22"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
@@ -2598,8 +2604,8 @@
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="21"/>
-      <c r="B122" s="22"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
@@ -2608,8 +2614,8 @@
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="21"/>
-      <c r="B124" s="22"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
@@ -2618,8 +2624,8 @@
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="21"/>
-      <c r="B126" s="22"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
@@ -2628,8 +2634,8 @@
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="21"/>
-      <c r="B128" s="22"/>
+      <c r="A128" s="17"/>
+      <c r="B128" s="18"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
@@ -2638,8 +2644,8 @@
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="21"/>
-      <c r="B130" s="22"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="18"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
@@ -2648,8 +2654,8 @@
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="21"/>
-      <c r="B132" s="22"/>
+      <c r="A132" s="17"/>
+      <c r="B132" s="18"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
@@ -2658,8 +2664,8 @@
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="21"/>
-      <c r="B134" s="22"/>
+      <c r="A134" s="17"/>
+      <c r="B134" s="18"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
@@ -2668,8 +2674,8 @@
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="21"/>
-      <c r="B136" s="22"/>
+      <c r="A136" s="17"/>
+      <c r="B136" s="18"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
@@ -2678,8 +2684,8 @@
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="21"/>
-      <c r="B138" s="22"/>
+      <c r="A138" s="17"/>
+      <c r="B138" s="18"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
@@ -2688,8 +2694,8 @@
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="21"/>
-      <c r="B140" s="22"/>
+      <c r="A140" s="17"/>
+      <c r="B140" s="18"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
@@ -2698,8 +2704,8 @@
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="21"/>
-      <c r="B142" s="22"/>
+      <c r="A142" s="17"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
@@ -2708,8 +2714,8 @@
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="21"/>
-      <c r="B144" s="22"/>
+      <c r="A144" s="17"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
@@ -2718,8 +2724,8 @@
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="21"/>
-      <c r="B146" s="22"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
@@ -2728,8 +2734,8 @@
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="21"/>
-      <c r="B148" s="22"/>
+      <c r="A148" s="17"/>
+      <c r="B148" s="18"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
@@ -2738,8 +2744,8 @@
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="21"/>
-      <c r="B150" s="22"/>
+      <c r="A150" s="17"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
@@ -2748,8 +2754,8 @@
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="21"/>
-      <c r="B152" s="22"/>
+      <c r="A152" s="17"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
@@ -2758,8 +2764,8 @@
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="21"/>
-      <c r="B154" s="22"/>
+      <c r="A154" s="17"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
@@ -2768,8 +2774,8 @@
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="21"/>
-      <c r="B156" s="22"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
@@ -2778,8 +2784,8 @@
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="21"/>
-      <c r="B158" s="22"/>
+      <c r="A158" s="17"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
@@ -2788,8 +2794,8 @@
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="21"/>
-      <c r="B160" s="22"/>
+      <c r="A160" s="17"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
@@ -2798,8 +2804,8 @@
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="21"/>
-      <c r="B162" s="22"/>
+      <c r="A162" s="17"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
@@ -2808,8 +2814,8 @@
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="21"/>
-      <c r="B164" s="22"/>
+      <c r="A164" s="17"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
@@ -2818,8 +2824,8 @@
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="21"/>
-      <c r="B166" s="22"/>
+      <c r="A166" s="17"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
@@ -2828,8 +2834,8 @@
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="21"/>
-      <c r="B168" s="22"/>
+      <c r="A168" s="17"/>
+      <c r="B168" s="18"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
@@ -2838,8 +2844,8 @@
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="21"/>
-      <c r="B170" s="22"/>
+      <c r="A170" s="17"/>
+      <c r="B170" s="18"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
@@ -2848,8 +2854,8 @@
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="21"/>
-      <c r="B172" s="22"/>
+      <c r="A172" s="17"/>
+      <c r="B172" s="18"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
@@ -2858,8 +2864,8 @@
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="21"/>
-      <c r="B174" s="22"/>
+      <c r="A174" s="17"/>
+      <c r="B174" s="18"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
@@ -2868,8 +2874,8 @@
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="21"/>
-      <c r="B176" s="22"/>
+      <c r="A176" s="17"/>
+      <c r="B176" s="18"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
@@ -2878,8 +2884,8 @@
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="21"/>
-      <c r="B178" s="22"/>
+      <c r="A178" s="17"/>
+      <c r="B178" s="18"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
@@ -2888,8 +2894,8 @@
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="21"/>
-      <c r="B180" s="22"/>
+      <c r="A180" s="17"/>
+      <c r="B180" s="18"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
@@ -2898,8 +2904,8 @@
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="21"/>
-      <c r="B182" s="22"/>
+      <c r="A182" s="17"/>
+      <c r="B182" s="18"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
@@ -2908,8 +2914,8 @@
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="21"/>
-      <c r="B184" s="22"/>
+      <c r="A184" s="17"/>
+      <c r="B184" s="18"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
@@ -2918,8 +2924,8 @@
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="21"/>
-      <c r="B186" s="22"/>
+      <c r="A186" s="17"/>
+      <c r="B186" s="18"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
@@ -2928,8 +2934,8 @@
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="21"/>
-      <c r="B188" s="22"/>
+      <c r="A188" s="17"/>
+      <c r="B188" s="18"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
@@ -2938,8 +2944,8 @@
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="21"/>
-      <c r="B190" s="22"/>
+      <c r="A190" s="17"/>
+      <c r="B190" s="18"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
@@ -2948,8 +2954,8 @@
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="21"/>
-      <c r="B192" s="22"/>
+      <c r="A192" s="17"/>
+      <c r="B192" s="18"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
@@ -2958,8 +2964,8 @@
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="21"/>
-      <c r="B194" s="22"/>
+      <c r="A194" s="17"/>
+      <c r="B194" s="18"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
@@ -2968,8 +2974,8 @@
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="21"/>
-      <c r="B196" s="22"/>
+      <c r="A196" s="17"/>
+      <c r="B196" s="18"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
@@ -2978,8 +2984,8 @@
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="21"/>
-      <c r="B198" s="22"/>
+      <c r="A198" s="17"/>
+      <c r="B198" s="18"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
@@ -2988,9 +2994,9 @@
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="23"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="25"/>
+      <c r="A200" s="21"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -43,9 +43,6 @@
     <t>我的钱包</t>
   </si>
   <si>
-    <t>1、头部header右边点击下拉列表</t>
-  </si>
-  <si>
     <t>transfer</t>
   </si>
   <si>
@@ -76,8 +73,7 @@
     <t>更多工具</t>
   </si>
   <si>
-    <t>1、头部header右边点击下拉列表
-2、头部header右边点击搜索功能</t>
+    <t>1、头部header右边点击搜索功能</t>
   </si>
   <si>
     <t>transfer_money</t>
@@ -86,8 +82,25 @@
     <t>可爱的人</t>
   </si>
   <si>
-    <t>1、头部header右边点击下拉列表
-2、备注修改或不修改textarea高度自适应效果</t>
+    <r>
+      <t>1、备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改或不修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>textarea高度自适应效果</t>
+    </r>
   </si>
   <si>
     <t>balance</t>
@@ -134,9 +147,6 @@
   </si>
   <si>
     <t>我的足迹</t>
-  </si>
-  <si>
-    <t>1、头部header右边点击下拉列表（询问季伟）</t>
   </si>
   <si>
     <t>intimacy</t>
@@ -188,9 +198,8 @@
     <t>账户安全</t>
   </si>
   <si>
-    <t>1、头部header右边点击下拉列表
-2、用户名修改链接
-3、手机号修改链接</t>
+    <t>1、用户名修改链接
+2、手机号修改链接</t>
   </si>
   <si>
     <t>addshop</t>
@@ -232,8 +241,7 @@
     <t>绑定失败</t>
   </si>
   <si>
-    <t>1、头部header右边点击下拉列表
-2、重新绑定链接</t>
+    <t>1、重新绑定链接</t>
   </si>
   <si>
     <t>binding_success</t>
@@ -242,8 +250,7 @@
     <t>绑定成功</t>
   </si>
   <si>
-    <t>1、头部header右边点击下拉列表
-2、登陆链接</t>
+    <t>1、登陆链接</t>
   </si>
   <si>
     <t>verify_code</t>
@@ -252,8 +259,7 @@
     <t>填写验证码</t>
   </si>
   <si>
-    <t>1、头部header右边点击下拉列表
-2、验证码倒计时，是否能够重新获取验证码</t>
+    <t>1、验证码倒计时，是否能够重新获取验证码</t>
   </si>
   <si>
     <t>personal_data</t>
@@ -262,9 +268,8 @@
     <t>个人资料</t>
   </si>
   <si>
-    <t>1、头部header右边点击下拉列表
-2、昵称构成有哪些条件（正则）
-3、头像上传</t>
+    <t>1、昵称构成有哪些条件（正则）
+2、头像上传</t>
   </si>
   <si>
     <t>register_fail</t>
@@ -285,8 +290,7 @@
     <t>社交账户绑定</t>
   </si>
   <si>
-    <t>1、头部header右边点击下拉列表
-2、下一级链接</t>
+    <t>1、下一级链接</t>
   </si>
   <si>
     <t>set</t>
@@ -322,8 +326,7 @@
     <t>(修改)填写支付密码</t>
   </si>
   <si>
-    <t>1、头部header右边点击下拉列表
-2、密码格式确定后（正则验证）</t>
+    <t>1、密码格式确定后（正则验证）</t>
   </si>
   <si>
     <t>amend_paypw_pass</t>
@@ -338,8 +341,7 @@
     <t>设置失败</t>
   </si>
   <si>
-    <t>1、头部header右边点击下拉列表
-2、链接</t>
+    <t>1、链接</t>
   </si>
   <si>
     <t>set_success</t>
@@ -385,9 +387,8 @@
     <t>百信会员</t>
   </si>
   <si>
-    <t>1、头部header右边点击下拉列表
-2、签到弹框（未设计好）
-3、下一级链接</t>
+    <t>1、签到弹框（未设计好）
+2、下一级链接</t>
   </si>
   <si>
     <t>evaluate_success</t>
@@ -455,6 +456,12 @@
   </si>
   <si>
     <t>付款失败</t>
+  </si>
+  <si>
+    <t>order_detail</t>
+  </si>
+  <si>
+    <t>订单详情</t>
   </si>
 </sst>
 </file>
@@ -463,11 +470,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +488,21 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,13 +525,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,6 +560,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -554,13 +593,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,30 +621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -620,13 +628,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -655,13 +669,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,67 +789,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,12 +843,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -782,60 +850,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,6 +1012,21 @@
         <color theme="0"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1040,17 +1069,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,26 +1106,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1106,10 +1120,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,137 +1132,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1294,22 +1308,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1671,8 +1679,8 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1711,586 +1719,564 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:3">
       <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:3">
       <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:3">
       <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:3">
       <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:3">
       <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="1:3">
       <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:3">
       <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="C10" s="12"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:3">
       <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="C11" s="9"/>
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:3">
       <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" ht="50" customHeight="1" spans="1:3">
       <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="C13" s="9"/>
     </row>
     <row r="14" ht="50" customHeight="1" spans="1:3">
       <c r="A14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="1:3">
       <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:3">
       <c r="A16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" ht="50" customHeight="1" spans="1:3">
       <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" ht="50" customHeight="1" spans="1:3">
       <c r="A18" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" ht="50" customHeight="1" spans="1:3">
       <c r="A19" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="9"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:3">
       <c r="A20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="21" ht="87" customHeight="1" spans="1:3">
       <c r="A21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" ht="50" customHeight="1" spans="1:3">
       <c r="A22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" ht="50" customHeight="1" spans="1:3">
       <c r="A23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" ht="50" customHeight="1" spans="1:3">
       <c r="A24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" ht="50" customHeight="1" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>8</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" ht="50" customHeight="1" spans="1:3">
       <c r="A26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" ht="50" customHeight="1" spans="1:3">
       <c r="A27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" ht="50" customHeight="1" spans="1:3">
       <c r="A28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" ht="50" customHeight="1" spans="1:3">
       <c r="A29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" ht="50" customHeight="1" spans="1:3">
       <c r="A30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="31" ht="50" customHeight="1" spans="1:3">
       <c r="A31" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="9"/>
     </row>
     <row r="32" ht="50" customHeight="1" spans="1:3">
       <c r="A32" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C32" s="13"/>
     </row>
     <row r="33" ht="50" customHeight="1" spans="1:3">
       <c r="A33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" ht="50" customHeight="1" spans="1:3">
       <c r="A34" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" ht="50" customHeight="1" spans="1:3">
       <c r="A35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="36" ht="50" customHeight="1" spans="1:3">
       <c r="A36" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="12"/>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:3">
       <c r="A37" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C37" s="9"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:3">
       <c r="A38" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" ht="50" customHeight="1" spans="1:3">
       <c r="A39" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" ht="50" customHeight="1" spans="1:3">
       <c r="A40" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="41" ht="50" customHeight="1" spans="1:3">
       <c r="A41" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" ht="50" customHeight="1" spans="1:3">
       <c r="A42" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C42" s="12"/>
     </row>
     <row r="43" ht="50" customHeight="1" spans="1:3">
       <c r="A43" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>8</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" ht="50" customHeight="1" spans="1:3">
       <c r="A44" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C44" s="12"/>
     </row>
     <row r="45" ht="50" customHeight="1" spans="1:3">
       <c r="A45" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>8</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" ht="50" customHeight="1" spans="1:3">
       <c r="A46" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" ht="50" customHeight="1" spans="1:3">
       <c r="A47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="48" ht="50" customHeight="1" spans="1:3">
       <c r="A48" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="49" ht="50" customHeight="1" spans="1:3">
       <c r="A49" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" ht="50" customHeight="1" spans="1:3">
       <c r="A50" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="51" ht="50" customHeight="1" spans="1:3">
       <c r="A51" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:3">
       <c r="A52" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="53" ht="50" customHeight="1" spans="1:3">
       <c r="A53" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C53" s="9"/>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:3">
       <c r="A54" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="55" ht="50" customHeight="1" spans="1:3">
       <c r="A55" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C55" s="9"/>
     </row>
     <row r="56" ht="50" customHeight="1" spans="1:3">
       <c r="A56" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="11" t="s">
+    </row>
+    <row r="57" ht="50" customHeight="1" spans="1:3">
+      <c r="A57" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="B57" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="57" ht="50" customHeight="1" spans="1:3">
-      <c r="A57" s="15" t="s">
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" ht="50" customHeight="1" spans="1:3">
+      <c r="A58" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B58" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" ht="50" customHeight="1" spans="1:3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
@@ -2299,8 +2285,8 @@
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
@@ -2309,8 +2295,8 @@
       <c r="C62" s="12"/>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="9"/>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
@@ -2319,8 +2305,8 @@
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
@@ -2329,8 +2315,8 @@
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
@@ -2339,8 +2325,8 @@
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
@@ -2349,8 +2335,8 @@
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
@@ -2359,8 +2345,8 @@
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
@@ -2369,8 +2355,8 @@
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
@@ -2379,8 +2365,8 @@
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="19"/>
-      <c r="B77" s="20"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
@@ -2389,8 +2375,8 @@
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
@@ -2399,8 +2385,8 @@
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
@@ -2409,8 +2395,8 @@
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
@@ -2419,8 +2405,8 @@
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
@@ -2429,8 +2415,8 @@
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="19"/>
-      <c r="B87" s="20"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
@@ -2439,8 +2425,8 @@
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
@@ -2449,8 +2435,8 @@
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="19"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
@@ -2459,8 +2445,8 @@
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
@@ -2469,8 +2455,8 @@
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="16"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
@@ -2479,8 +2465,8 @@
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="19"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="16"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
@@ -2489,8 +2475,8 @@
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="19"/>
-      <c r="B99" s="20"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
@@ -2499,8 +2485,8 @@
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="19"/>
-      <c r="B101" s="20"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="16"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
@@ -2509,8 +2495,8 @@
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="19"/>
-      <c r="B103" s="20"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
@@ -2519,8 +2505,8 @@
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="19"/>
-      <c r="B105" s="20"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
@@ -2529,8 +2515,8 @@
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="19"/>
-      <c r="B107" s="20"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
@@ -2539,8 +2525,8 @@
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="19"/>
-      <c r="B109" s="20"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="16"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
@@ -2549,8 +2535,8 @@
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="19"/>
-      <c r="B111" s="20"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
@@ -2559,8 +2545,8 @@
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="19"/>
-      <c r="B113" s="20"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="16"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
@@ -2569,8 +2555,8 @@
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="19"/>
-      <c r="B115" s="20"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
@@ -2579,8 +2565,8 @@
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="19"/>
-      <c r="B117" s="20"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="16"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
@@ -2589,8 +2575,8 @@
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="19"/>
-      <c r="B119" s="20"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="16"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
@@ -2599,8 +2585,8 @@
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="19"/>
-      <c r="B121" s="20"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="16"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
@@ -2609,8 +2595,8 @@
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="19"/>
-      <c r="B123" s="20"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="16"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
@@ -2619,8 +2605,8 @@
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="19"/>
-      <c r="B125" s="20"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="16"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
@@ -2629,8 +2615,8 @@
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="19"/>
-      <c r="B127" s="20"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="16"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
@@ -2639,8 +2625,8 @@
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="19"/>
-      <c r="B129" s="20"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="16"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
@@ -2649,8 +2635,8 @@
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="19"/>
-      <c r="B131" s="20"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="16"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
@@ -2659,8 +2645,8 @@
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="19"/>
-      <c r="B133" s="20"/>
+      <c r="A133" s="15"/>
+      <c r="B133" s="16"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
@@ -2669,8 +2655,8 @@
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="19"/>
-      <c r="B135" s="20"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="16"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
@@ -2679,8 +2665,8 @@
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="19"/>
-      <c r="B137" s="20"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="16"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
@@ -2689,8 +2675,8 @@
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="19"/>
-      <c r="B139" s="20"/>
+      <c r="A139" s="15"/>
+      <c r="B139" s="16"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
@@ -2699,8 +2685,8 @@
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="19"/>
-      <c r="B141" s="20"/>
+      <c r="A141" s="15"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
@@ -2709,8 +2695,8 @@
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="19"/>
-      <c r="B143" s="20"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="16"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
@@ -2719,8 +2705,8 @@
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="19"/>
-      <c r="B145" s="20"/>
+      <c r="A145" s="15"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
@@ -2729,8 +2715,8 @@
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="19"/>
-      <c r="B147" s="20"/>
+      <c r="A147" s="15"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
@@ -2739,8 +2725,8 @@
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="19"/>
-      <c r="B149" s="20"/>
+      <c r="A149" s="15"/>
+      <c r="B149" s="16"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
@@ -2749,8 +2735,8 @@
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="19"/>
-      <c r="B151" s="20"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="16"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
@@ -2759,8 +2745,8 @@
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="19"/>
-      <c r="B153" s="20"/>
+      <c r="A153" s="15"/>
+      <c r="B153" s="16"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
@@ -2769,8 +2755,8 @@
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="19"/>
-      <c r="B155" s="20"/>
+      <c r="A155" s="15"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
@@ -2779,8 +2765,8 @@
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="19"/>
-      <c r="B157" s="20"/>
+      <c r="A157" s="15"/>
+      <c r="B157" s="16"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
@@ -2789,8 +2775,8 @@
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="19"/>
-      <c r="B159" s="20"/>
+      <c r="A159" s="15"/>
+      <c r="B159" s="16"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
@@ -2799,8 +2785,8 @@
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="19"/>
-      <c r="B161" s="20"/>
+      <c r="A161" s="15"/>
+      <c r="B161" s="16"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
@@ -2809,8 +2795,8 @@
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="19"/>
-      <c r="B163" s="20"/>
+      <c r="A163" s="15"/>
+      <c r="B163" s="16"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
@@ -2819,8 +2805,8 @@
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="19"/>
-      <c r="B165" s="20"/>
+      <c r="A165" s="15"/>
+      <c r="B165" s="16"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
@@ -2829,8 +2815,8 @@
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="19"/>
-      <c r="B167" s="20"/>
+      <c r="A167" s="15"/>
+      <c r="B167" s="16"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
@@ -2839,8 +2825,8 @@
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="19"/>
-      <c r="B169" s="20"/>
+      <c r="A169" s="15"/>
+      <c r="B169" s="16"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
@@ -2849,8 +2835,8 @@
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="19"/>
-      <c r="B171" s="20"/>
+      <c r="A171" s="15"/>
+      <c r="B171" s="16"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
@@ -2859,8 +2845,8 @@
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="19"/>
-      <c r="B173" s="20"/>
+      <c r="A173" s="15"/>
+      <c r="B173" s="16"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
@@ -2869,8 +2855,8 @@
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="19"/>
-      <c r="B175" s="20"/>
+      <c r="A175" s="15"/>
+      <c r="B175" s="16"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
@@ -2879,8 +2865,8 @@
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="19"/>
-      <c r="B177" s="20"/>
+      <c r="A177" s="15"/>
+      <c r="B177" s="16"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
@@ -2889,8 +2875,8 @@
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="19"/>
-      <c r="B179" s="20"/>
+      <c r="A179" s="15"/>
+      <c r="B179" s="16"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
@@ -2899,8 +2885,8 @@
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="19"/>
-      <c r="B181" s="20"/>
+      <c r="A181" s="15"/>
+      <c r="B181" s="16"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
@@ -2909,8 +2895,8 @@
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="19"/>
-      <c r="B183" s="20"/>
+      <c r="A183" s="15"/>
+      <c r="B183" s="16"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
@@ -2919,8 +2905,8 @@
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="19"/>
-      <c r="B185" s="20"/>
+      <c r="A185" s="15"/>
+      <c r="B185" s="16"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
@@ -2929,8 +2915,8 @@
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="19"/>
-      <c r="B187" s="20"/>
+      <c r="A187" s="15"/>
+      <c r="B187" s="16"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
@@ -2939,8 +2925,8 @@
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="19"/>
-      <c r="B189" s="20"/>
+      <c r="A189" s="15"/>
+      <c r="B189" s="16"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
@@ -2949,8 +2935,8 @@
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
+      <c r="A191" s="15"/>
+      <c r="B191" s="16"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
@@ -2959,8 +2945,8 @@
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
+      <c r="A193" s="15"/>
+      <c r="B193" s="16"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
@@ -2969,8 +2955,8 @@
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="19"/>
-      <c r="B195" s="20"/>
+      <c r="A195" s="15"/>
+      <c r="B195" s="16"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
@@ -2979,8 +2965,8 @@
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="19"/>
-      <c r="B197" s="20"/>
+      <c r="A197" s="15"/>
+      <c r="B197" s="16"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
@@ -2989,14 +2975,14 @@
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="19"/>
-      <c r="B199" s="20"/>
+      <c r="A199" s="15"/>
+      <c r="B199" s="16"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="21"/>
-      <c r="B200" s="22"/>
-      <c r="C200" s="23"/>
+      <c r="A200" s="19"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t>页面名称</t>
   </si>
@@ -83,12 +83,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、备注</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFFC000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>修改或不修改</t>
@@ -97,6 +103,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>textarea高度自适应效果</t>
@@ -462,6 +469,18 @@
   </si>
   <si>
     <t>订单详情</t>
+  </si>
+  <si>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>调查问卷</t>
+  </si>
+  <si>
+    <t>questionnaire_progress</t>
+  </si>
+  <si>
+    <t>调查问卷（答题）</t>
   </si>
 </sst>
 </file>
@@ -469,12 +488,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,7 +519,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,24 +632,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,8 +646,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,7 +658,12 @@
       <color rgb="FFFFC000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -669,187 +693,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,17 +1039,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,15 +1074,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,17 +1113,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,10 +1144,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,137 +1156,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1307,6 +1331,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1679,13 +1715,13 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="41.5" customWidth="1"/>
   </cols>
@@ -2275,714 +2311,722 @@
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
+      <c r="A59" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>140</v>
+      </c>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="12"/>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="9"/>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="18"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="16"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="15"/>
-      <c r="B79" s="16"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="15"/>
-      <c r="B83" s="16"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="18"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="15"/>
-      <c r="B85" s="16"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="17"/>
-      <c r="B86" s="18"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="15"/>
-      <c r="B87" s="16"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="15"/>
-      <c r="B89" s="16"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="17"/>
-      <c r="B90" s="18"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="15"/>
-      <c r="B91" s="16"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="17"/>
-      <c r="B92" s="18"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="15"/>
-      <c r="B93" s="16"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="15"/>
-      <c r="B95" s="16"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="17"/>
-      <c r="B96" s="18"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="15"/>
-      <c r="B97" s="16"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="17"/>
-      <c r="B98" s="18"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="15"/>
-      <c r="B99" s="16"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="17"/>
-      <c r="B100" s="18"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="15"/>
-      <c r="B101" s="16"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="17"/>
-      <c r="B102" s="18"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="15"/>
-      <c r="B103" s="16"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="17"/>
-      <c r="B104" s="18"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="15"/>
-      <c r="B105" s="16"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="17"/>
-      <c r="B106" s="18"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="15"/>
-      <c r="B107" s="16"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="17"/>
-      <c r="B108" s="18"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="15"/>
-      <c r="B109" s="16"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="17"/>
-      <c r="B110" s="18"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="15"/>
-      <c r="B111" s="16"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="17"/>
-      <c r="B112" s="18"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="15"/>
-      <c r="B113" s="16"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="17"/>
-      <c r="B114" s="18"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="15"/>
-      <c r="B115" s="16"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="17"/>
-      <c r="B116" s="18"/>
+      <c r="A116" s="21"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="15"/>
-      <c r="B117" s="16"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="17"/>
-      <c r="B118" s="18"/>
+      <c r="A118" s="21"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="15"/>
-      <c r="B119" s="16"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="17"/>
-      <c r="B120" s="18"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="15"/>
-      <c r="B121" s="16"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="17"/>
-      <c r="B122" s="18"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="15"/>
-      <c r="B123" s="16"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="17"/>
-      <c r="B124" s="18"/>
+      <c r="A124" s="21"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="15"/>
-      <c r="B125" s="16"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="17"/>
-      <c r="B126" s="18"/>
+      <c r="A126" s="21"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="15"/>
-      <c r="B127" s="16"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="17"/>
-      <c r="B128" s="18"/>
+      <c r="A128" s="21"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="15"/>
-      <c r="B129" s="16"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="17"/>
-      <c r="B130" s="18"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="15"/>
-      <c r="B131" s="16"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="17"/>
-      <c r="B132" s="18"/>
+      <c r="A132" s="21"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="15"/>
-      <c r="B133" s="16"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="17"/>
-      <c r="B134" s="18"/>
+      <c r="A134" s="21"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="15"/>
-      <c r="B135" s="16"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="17"/>
-      <c r="B136" s="18"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="15"/>
-      <c r="B137" s="16"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="17"/>
-      <c r="B138" s="18"/>
+      <c r="A138" s="21"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="15"/>
-      <c r="B139" s="16"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="17"/>
-      <c r="B140" s="18"/>
+      <c r="A140" s="21"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="15"/>
-      <c r="B141" s="16"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="17"/>
-      <c r="B142" s="18"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="15"/>
-      <c r="B143" s="16"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="17"/>
-      <c r="B144" s="18"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="15"/>
-      <c r="B145" s="16"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="17"/>
-      <c r="B146" s="18"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="15"/>
-      <c r="B147" s="16"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="17"/>
-      <c r="B148" s="18"/>
+      <c r="A148" s="21"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="15"/>
-      <c r="B149" s="16"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="17"/>
-      <c r="B150" s="18"/>
+      <c r="A150" s="21"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="15"/>
-      <c r="B151" s="16"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="17"/>
-      <c r="B152" s="18"/>
+      <c r="A152" s="21"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="15"/>
-      <c r="B153" s="16"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="17"/>
-      <c r="B154" s="18"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="15"/>
-      <c r="B155" s="16"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="17"/>
-      <c r="B156" s="18"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="15"/>
-      <c r="B157" s="16"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="17"/>
-      <c r="B158" s="18"/>
+      <c r="A158" s="21"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="15"/>
-      <c r="B159" s="16"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="17"/>
-      <c r="B160" s="18"/>
+      <c r="A160" s="21"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="15"/>
-      <c r="B161" s="16"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="17"/>
-      <c r="B162" s="18"/>
+      <c r="A162" s="21"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="15"/>
-      <c r="B163" s="16"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="17"/>
-      <c r="B164" s="18"/>
+      <c r="A164" s="21"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="15"/>
-      <c r="B165" s="16"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="17"/>
-      <c r="B166" s="18"/>
+      <c r="A166" s="21"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="15"/>
-      <c r="B167" s="16"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="17"/>
-      <c r="B168" s="18"/>
+      <c r="A168" s="21"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="15"/>
-      <c r="B169" s="16"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="17"/>
-      <c r="B170" s="18"/>
+      <c r="A170" s="21"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="15"/>
-      <c r="B171" s="16"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="17"/>
-      <c r="B172" s="18"/>
+      <c r="A172" s="21"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="15"/>
-      <c r="B173" s="16"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="17"/>
-      <c r="B174" s="18"/>
+      <c r="A174" s="21"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="15"/>
-      <c r="B175" s="16"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="17"/>
-      <c r="B176" s="18"/>
+      <c r="A176" s="21"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="15"/>
-      <c r="B177" s="16"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="17"/>
-      <c r="B178" s="18"/>
+      <c r="A178" s="21"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="15"/>
-      <c r="B179" s="16"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="17"/>
-      <c r="B180" s="18"/>
+      <c r="A180" s="21"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="15"/>
-      <c r="B181" s="16"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="17"/>
-      <c r="B182" s="18"/>
+      <c r="A182" s="21"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="15"/>
-      <c r="B183" s="16"/>
+      <c r="A183" s="19"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="17"/>
-      <c r="B184" s="18"/>
+      <c r="A184" s="21"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="15"/>
-      <c r="B185" s="16"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="17"/>
-      <c r="B186" s="18"/>
+      <c r="A186" s="21"/>
+      <c r="B186" s="22"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="15"/>
-      <c r="B187" s="16"/>
+      <c r="A187" s="19"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="17"/>
-      <c r="B188" s="18"/>
+      <c r="A188" s="21"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="15"/>
-      <c r="B189" s="16"/>
+      <c r="A189" s="19"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="17"/>
-      <c r="B190" s="18"/>
+      <c r="A190" s="21"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="15"/>
-      <c r="B191" s="16"/>
+      <c r="A191" s="19"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="17"/>
-      <c r="B192" s="18"/>
+      <c r="A192" s="21"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="15"/>
-      <c r="B193" s="16"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="17"/>
-      <c r="B194" s="18"/>
+      <c r="A194" s="21"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="15"/>
-      <c r="B195" s="16"/>
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="17"/>
-      <c r="B196" s="18"/>
+      <c r="A196" s="21"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="15"/>
-      <c r="B197" s="16"/>
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="17"/>
-      <c r="B198" s="18"/>
+      <c r="A198" s="21"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="15"/>
-      <c r="B199" s="16"/>
+      <c r="A199" s="19"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="19"/>
-      <c r="B200" s="20"/>
-      <c r="C200" s="21"/>
+      <c r="A200" s="23"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>页面名称</t>
   </si>
@@ -86,6 +86,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>1、备注</t>
@@ -482,15 +483,39 @@
   <si>
     <t>调查问卷（答题）</t>
   </si>
+  <si>
+    <t>recharge</t>
+  </si>
+  <si>
+    <t>账户充值</t>
+  </si>
+  <si>
+    <t>transfer_bank</t>
+  </si>
+  <si>
+    <t>转账到银行卡</t>
+  </si>
+  <si>
+    <t>需要判断是哪个银行接口</t>
+  </si>
+  <si>
+    <t>apply_refund</t>
+  </si>
+  <si>
+    <t>申请退款</t>
+  </si>
+  <si>
+    <t>图片上传</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -632,8 +657,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,12 +672,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -659,12 +690,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -693,6 +718,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -711,72 +892,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -784,96 +899,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,149 +1169,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1338,22 +1363,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1715,8 +1734,8 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2311,41 +2330,57 @@
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="8" t="s">
         <v>140</v>
       </c>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="11" t="s">
         <v>142</v>
       </c>
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="12"/>
+      <c r="A62" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="9"/>
+      <c r="A63" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
@@ -2354,8 +2389,8 @@
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
@@ -2364,8 +2399,8 @@
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
@@ -2374,8 +2409,8 @@
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
@@ -2384,8 +2419,8 @@
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
@@ -2394,8 +2429,8 @@
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
@@ -2404,8 +2439,8 @@
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
@@ -2414,8 +2449,8 @@
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
@@ -2424,8 +2459,8 @@
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
@@ -2434,8 +2469,8 @@
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="21"/>
-      <c r="B82" s="22"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
@@ -2444,8 +2479,8 @@
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
@@ -2454,8 +2489,8 @@
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
@@ -2464,8 +2499,8 @@
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
@@ -2474,8 +2509,8 @@
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
@@ -2484,8 +2519,8 @@
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="21"/>
-      <c r="B92" s="22"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
@@ -2494,8 +2529,8 @@
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
@@ -2504,8 +2539,8 @@
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
@@ -2514,8 +2549,8 @@
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="21"/>
-      <c r="B98" s="22"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
@@ -2524,8 +2559,8 @@
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="21"/>
-      <c r="B100" s="22"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
@@ -2534,8 +2569,8 @@
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="21"/>
-      <c r="B102" s="22"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
@@ -2544,8 +2579,8 @@
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="21"/>
-      <c r="B104" s="22"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
@@ -2554,8 +2589,8 @@
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="21"/>
-      <c r="B106" s="22"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
@@ -2564,8 +2599,8 @@
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="21"/>
-      <c r="B108" s="22"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
@@ -2574,8 +2609,8 @@
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
@@ -2584,8 +2619,8 @@
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="21"/>
-      <c r="B112" s="22"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
@@ -2594,8 +2629,8 @@
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="21"/>
-      <c r="B114" s="22"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
@@ -2604,8 +2639,8 @@
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="21"/>
-      <c r="B116" s="22"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
@@ -2614,8 +2649,8 @@
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="21"/>
-      <c r="B118" s="22"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
@@ -2624,8 +2659,8 @@
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="21"/>
-      <c r="B120" s="22"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
@@ -2634,8 +2669,8 @@
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="21"/>
-      <c r="B122" s="22"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
@@ -2644,8 +2679,8 @@
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="21"/>
-      <c r="B124" s="22"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
@@ -2654,8 +2689,8 @@
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="21"/>
-      <c r="B126" s="22"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
@@ -2664,8 +2699,8 @@
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="21"/>
-      <c r="B128" s="22"/>
+      <c r="A128" s="17"/>
+      <c r="B128" s="18"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
@@ -2674,8 +2709,8 @@
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="21"/>
-      <c r="B130" s="22"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="18"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
@@ -2684,8 +2719,8 @@
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="21"/>
-      <c r="B132" s="22"/>
+      <c r="A132" s="17"/>
+      <c r="B132" s="18"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
@@ -2694,8 +2729,8 @@
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="21"/>
-      <c r="B134" s="22"/>
+      <c r="A134" s="17"/>
+      <c r="B134" s="18"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
@@ -2704,8 +2739,8 @@
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="21"/>
-      <c r="B136" s="22"/>
+      <c r="A136" s="17"/>
+      <c r="B136" s="18"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
@@ -2714,8 +2749,8 @@
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="21"/>
-      <c r="B138" s="22"/>
+      <c r="A138" s="17"/>
+      <c r="B138" s="18"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
@@ -2724,8 +2759,8 @@
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="21"/>
-      <c r="B140" s="22"/>
+      <c r="A140" s="17"/>
+      <c r="B140" s="18"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
@@ -2734,8 +2769,8 @@
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="21"/>
-      <c r="B142" s="22"/>
+      <c r="A142" s="17"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
@@ -2744,8 +2779,8 @@
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="21"/>
-      <c r="B144" s="22"/>
+      <c r="A144" s="17"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
@@ -2754,8 +2789,8 @@
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="21"/>
-      <c r="B146" s="22"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
@@ -2764,8 +2799,8 @@
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="21"/>
-      <c r="B148" s="22"/>
+      <c r="A148" s="17"/>
+      <c r="B148" s="18"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
@@ -2774,8 +2809,8 @@
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="21"/>
-      <c r="B150" s="22"/>
+      <c r="A150" s="17"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
@@ -2784,8 +2819,8 @@
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="21"/>
-      <c r="B152" s="22"/>
+      <c r="A152" s="17"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
@@ -2794,8 +2829,8 @@
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="21"/>
-      <c r="B154" s="22"/>
+      <c r="A154" s="17"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
@@ -2804,8 +2839,8 @@
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="21"/>
-      <c r="B156" s="22"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
@@ -2814,8 +2849,8 @@
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="21"/>
-      <c r="B158" s="22"/>
+      <c r="A158" s="17"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
@@ -2824,8 +2859,8 @@
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="21"/>
-      <c r="B160" s="22"/>
+      <c r="A160" s="17"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
@@ -2834,8 +2869,8 @@
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="21"/>
-      <c r="B162" s="22"/>
+      <c r="A162" s="17"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
@@ -2844,8 +2879,8 @@
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="21"/>
-      <c r="B164" s="22"/>
+      <c r="A164" s="17"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
@@ -2854,8 +2889,8 @@
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="21"/>
-      <c r="B166" s="22"/>
+      <c r="A166" s="17"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
@@ -2864,8 +2899,8 @@
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="21"/>
-      <c r="B168" s="22"/>
+      <c r="A168" s="17"/>
+      <c r="B168" s="18"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
@@ -2874,8 +2909,8 @@
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="21"/>
-      <c r="B170" s="22"/>
+      <c r="A170" s="17"/>
+      <c r="B170" s="18"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
@@ -2884,8 +2919,8 @@
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="21"/>
-      <c r="B172" s="22"/>
+      <c r="A172" s="17"/>
+      <c r="B172" s="18"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
@@ -2894,8 +2929,8 @@
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="21"/>
-      <c r="B174" s="22"/>
+      <c r="A174" s="17"/>
+      <c r="B174" s="18"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
@@ -2904,8 +2939,8 @@
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="21"/>
-      <c r="B176" s="22"/>
+      <c r="A176" s="17"/>
+      <c r="B176" s="18"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
@@ -2914,8 +2949,8 @@
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="21"/>
-      <c r="B178" s="22"/>
+      <c r="A178" s="17"/>
+      <c r="B178" s="18"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
@@ -2924,8 +2959,8 @@
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="21"/>
-      <c r="B180" s="22"/>
+      <c r="A180" s="17"/>
+      <c r="B180" s="18"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
@@ -2934,8 +2969,8 @@
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="21"/>
-      <c r="B182" s="22"/>
+      <c r="A182" s="17"/>
+      <c r="B182" s="18"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
@@ -2944,8 +2979,8 @@
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="21"/>
-      <c r="B184" s="22"/>
+      <c r="A184" s="17"/>
+      <c r="B184" s="18"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
@@ -2954,8 +2989,8 @@
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="21"/>
-      <c r="B186" s="22"/>
+      <c r="A186" s="17"/>
+      <c r="B186" s="18"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
@@ -2964,8 +2999,8 @@
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="21"/>
-      <c r="B188" s="22"/>
+      <c r="A188" s="17"/>
+      <c r="B188" s="18"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
@@ -2974,8 +3009,8 @@
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="21"/>
-      <c r="B190" s="22"/>
+      <c r="A190" s="17"/>
+      <c r="B190" s="18"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
@@ -2984,8 +3019,8 @@
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="21"/>
-      <c r="B192" s="22"/>
+      <c r="A192" s="17"/>
+      <c r="B192" s="18"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
@@ -2994,8 +3029,8 @@
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="21"/>
-      <c r="B194" s="22"/>
+      <c r="A194" s="17"/>
+      <c r="B194" s="18"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
@@ -3004,8 +3039,8 @@
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="21"/>
-      <c r="B196" s="22"/>
+      <c r="A196" s="17"/>
+      <c r="B196" s="18"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
@@ -3014,8 +3049,8 @@
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="21"/>
-      <c r="B198" s="22"/>
+      <c r="A198" s="17"/>
+      <c r="B198" s="18"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
@@ -3024,9 +3059,9 @@
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="23"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="25"/>
+      <c r="A200" s="21"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>页面名称</t>
   </si>
@@ -506,6 +506,12 @@
   </si>
   <si>
     <t>图片上传</t>
+  </si>
+  <si>
+    <t>audit_progress</t>
+  </si>
+  <si>
+    <t>审核进度</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1363,16 +1369,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1735,7 +1747,7 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2379,8 +2391,12 @@
       </c>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
@@ -2389,8 +2405,8 @@
       <c r="C65" s="9"/>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
@@ -2399,8 +2415,8 @@
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
@@ -2409,8 +2425,8 @@
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
@@ -2419,8 +2435,8 @@
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
@@ -2429,8 +2445,8 @@
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="18"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
@@ -2439,8 +2455,8 @@
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
@@ -2449,8 +2465,8 @@
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
@@ -2459,8 +2475,8 @@
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
@@ -2469,8 +2485,8 @@
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
@@ -2479,8 +2495,8 @@
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="18"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
@@ -2489,8 +2505,8 @@
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="17"/>
-      <c r="B86" s="18"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
@@ -2499,8 +2515,8 @@
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
@@ -2509,8 +2525,8 @@
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="17"/>
-      <c r="B90" s="18"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
@@ -2519,8 +2535,8 @@
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="17"/>
-      <c r="B92" s="18"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
@@ -2529,8 +2545,8 @@
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
@@ -2539,8 +2555,8 @@
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="17"/>
-      <c r="B96" s="18"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
@@ -2549,8 +2565,8 @@
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="17"/>
-      <c r="B98" s="18"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
@@ -2559,8 +2575,8 @@
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="17"/>
-      <c r="B100" s="18"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
@@ -2569,8 +2585,8 @@
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="17"/>
-      <c r="B102" s="18"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
@@ -2579,8 +2595,8 @@
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="17"/>
-      <c r="B104" s="18"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
@@ -2589,8 +2605,8 @@
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="17"/>
-      <c r="B106" s="18"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
@@ -2599,8 +2615,8 @@
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="17"/>
-      <c r="B108" s="18"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
@@ -2609,8 +2625,8 @@
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="17"/>
-      <c r="B110" s="18"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
@@ -2619,8 +2635,8 @@
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="17"/>
-      <c r="B112" s="18"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
@@ -2629,8 +2645,8 @@
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="17"/>
-      <c r="B114" s="18"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
@@ -2639,8 +2655,8 @@
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="17"/>
-      <c r="B116" s="18"/>
+      <c r="A116" s="21"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
@@ -2649,8 +2665,8 @@
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="17"/>
-      <c r="B118" s="18"/>
+      <c r="A118" s="21"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
@@ -2659,8 +2675,8 @@
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="17"/>
-      <c r="B120" s="18"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
@@ -2669,8 +2685,8 @@
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="17"/>
-      <c r="B122" s="18"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
@@ -2679,8 +2695,8 @@
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="17"/>
-      <c r="B124" s="18"/>
+      <c r="A124" s="21"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
@@ -2689,8 +2705,8 @@
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="17"/>
-      <c r="B126" s="18"/>
+      <c r="A126" s="21"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
@@ -2699,8 +2715,8 @@
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="17"/>
-      <c r="B128" s="18"/>
+      <c r="A128" s="21"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
@@ -2709,8 +2725,8 @@
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="17"/>
-      <c r="B130" s="18"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
@@ -2719,8 +2735,8 @@
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="17"/>
-      <c r="B132" s="18"/>
+      <c r="A132" s="21"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
@@ -2729,8 +2745,8 @@
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="17"/>
-      <c r="B134" s="18"/>
+      <c r="A134" s="21"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
@@ -2739,8 +2755,8 @@
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="17"/>
-      <c r="B136" s="18"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
@@ -2749,8 +2765,8 @@
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="17"/>
-      <c r="B138" s="18"/>
+      <c r="A138" s="21"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
@@ -2759,8 +2775,8 @@
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="17"/>
-      <c r="B140" s="18"/>
+      <c r="A140" s="21"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
@@ -2769,8 +2785,8 @@
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="17"/>
-      <c r="B142" s="18"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
@@ -2779,8 +2795,8 @@
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="17"/>
-      <c r="B144" s="18"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
@@ -2789,8 +2805,8 @@
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="17"/>
-      <c r="B146" s="18"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
@@ -2799,8 +2815,8 @@
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="17"/>
-      <c r="B148" s="18"/>
+      <c r="A148" s="21"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
@@ -2809,8 +2825,8 @@
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="17"/>
-      <c r="B150" s="18"/>
+      <c r="A150" s="21"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
@@ -2819,8 +2835,8 @@
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="17"/>
-      <c r="B152" s="18"/>
+      <c r="A152" s="21"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
@@ -2829,8 +2845,8 @@
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="17"/>
-      <c r="B154" s="18"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
@@ -2839,8 +2855,8 @@
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="17"/>
-      <c r="B156" s="18"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
@@ -2849,8 +2865,8 @@
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="17"/>
-      <c r="B158" s="18"/>
+      <c r="A158" s="21"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
@@ -2859,8 +2875,8 @@
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="17"/>
-      <c r="B160" s="18"/>
+      <c r="A160" s="21"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
@@ -2869,8 +2885,8 @@
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="17"/>
-      <c r="B162" s="18"/>
+      <c r="A162" s="21"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
@@ -2879,8 +2895,8 @@
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="17"/>
-      <c r="B164" s="18"/>
+      <c r="A164" s="21"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
@@ -2889,8 +2905,8 @@
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="17"/>
-      <c r="B166" s="18"/>
+      <c r="A166" s="21"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
@@ -2899,8 +2915,8 @@
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="17"/>
-      <c r="B168" s="18"/>
+      <c r="A168" s="21"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
@@ -2909,8 +2925,8 @@
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="17"/>
-      <c r="B170" s="18"/>
+      <c r="A170" s="21"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
@@ -2919,8 +2935,8 @@
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="17"/>
-      <c r="B172" s="18"/>
+      <c r="A172" s="21"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
@@ -2929,8 +2945,8 @@
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="17"/>
-      <c r="B174" s="18"/>
+      <c r="A174" s="21"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
@@ -2939,8 +2955,8 @@
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="17"/>
-      <c r="B176" s="18"/>
+      <c r="A176" s="21"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
@@ -2949,8 +2965,8 @@
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="17"/>
-      <c r="B178" s="18"/>
+      <c r="A178" s="21"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
@@ -2959,8 +2975,8 @@
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="17"/>
-      <c r="B180" s="18"/>
+      <c r="A180" s="21"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
@@ -2969,8 +2985,8 @@
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="17"/>
-      <c r="B182" s="18"/>
+      <c r="A182" s="21"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
@@ -2979,8 +2995,8 @@
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="17"/>
-      <c r="B184" s="18"/>
+      <c r="A184" s="21"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
@@ -2989,8 +3005,8 @@
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="17"/>
-      <c r="B186" s="18"/>
+      <c r="A186" s="21"/>
+      <c r="B186" s="22"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
@@ -2999,8 +3015,8 @@
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="17"/>
-      <c r="B188" s="18"/>
+      <c r="A188" s="21"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
@@ -3009,8 +3025,8 @@
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="17"/>
-      <c r="B190" s="18"/>
+      <c r="A190" s="21"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
@@ -3019,8 +3035,8 @@
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="17"/>
-      <c r="B192" s="18"/>
+      <c r="A192" s="21"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
@@ -3029,8 +3045,8 @@
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="17"/>
-      <c r="B194" s="18"/>
+      <c r="A194" s="21"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
@@ -3039,8 +3055,8 @@
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="17"/>
-      <c r="B196" s="18"/>
+      <c r="A196" s="21"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
@@ -3049,8 +3065,8 @@
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="17"/>
-      <c r="B198" s="18"/>
+      <c r="A198" s="21"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
@@ -3059,9 +3075,9 @@
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="21"/>
-      <c r="B200" s="22"/>
-      <c r="C200" s="23"/>
+      <c r="A200" s="23"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
   <si>
     <t>页面名称</t>
   </si>
@@ -513,16 +513,49 @@
   <si>
     <t>审核进度</t>
   </si>
+  <si>
+    <t>certification</t>
+  </si>
+  <si>
+    <t>实名认证</t>
+  </si>
+  <si>
+    <t>1、身份证原件拍照上传</t>
+  </si>
+  <si>
+    <t>bingding_mobile</t>
+  </si>
+  <si>
+    <t>绑定手机</t>
+  </si>
+  <si>
+    <t>bingding_mobile_new</t>
+  </si>
+  <si>
+    <t>绑定新手机号</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> proceeds</t>
+  </si>
+  <si>
+    <t>小金库</t>
+  </si>
+  <si>
+    <t>add_friends</t>
+  </si>
+  <si>
+    <t>开通好友关系</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -663,9 +696,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,8 +710,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,6 +757,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -736,18 +787,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -760,31 +841,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,24 +907,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -832,79 +919,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,10 +1208,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,137 +1220,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1363,28 +1396,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1746,15 +1767,15 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:3">
@@ -2380,10 +2401,10 @@
       </c>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C63" s="9" t="s">
@@ -2391,693 +2412,715 @@
       </c>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="11" t="s">
         <v>152</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="9"/>
+      <c r="A65" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="19"/>
-      <c r="B77" s="20"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="21"/>
-      <c r="B82" s="22"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="16"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="19"/>
-      <c r="B87" s="20"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="19"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="21"/>
-      <c r="B92" s="22"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="19"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="17"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="21"/>
-      <c r="B98" s="22"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="19"/>
-      <c r="B99" s="20"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="21"/>
-      <c r="B100" s="22"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="16"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="19"/>
-      <c r="B101" s="20"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="21"/>
-      <c r="B102" s="22"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="19"/>
-      <c r="B103" s="20"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="21"/>
-      <c r="B104" s="22"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="19"/>
-      <c r="B105" s="20"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="21"/>
-      <c r="B106" s="22"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="16"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="19"/>
-      <c r="B107" s="20"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="21"/>
-      <c r="B108" s="22"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="19"/>
-      <c r="B109" s="20"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="19"/>
-      <c r="B111" s="20"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="21"/>
-      <c r="B112" s="22"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="16"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="19"/>
-      <c r="B113" s="20"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="21"/>
-      <c r="B114" s="22"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="16"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="19"/>
-      <c r="B115" s="20"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="21"/>
-      <c r="B116" s="22"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="16"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="19"/>
-      <c r="B117" s="20"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="21"/>
-      <c r="B118" s="22"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="16"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="19"/>
-      <c r="B119" s="20"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="21"/>
-      <c r="B120" s="22"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="16"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="19"/>
-      <c r="B121" s="20"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="21"/>
-      <c r="B122" s="22"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="16"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="19"/>
-      <c r="B123" s="20"/>
+      <c r="A123" s="17"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="21"/>
-      <c r="B124" s="22"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="16"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="19"/>
-      <c r="B125" s="20"/>
+      <c r="A125" s="17"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="21"/>
-      <c r="B126" s="22"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="16"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="19"/>
-      <c r="B127" s="20"/>
+      <c r="A127" s="17"/>
+      <c r="B127" s="18"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="21"/>
-      <c r="B128" s="22"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="16"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="19"/>
-      <c r="B129" s="20"/>
+      <c r="A129" s="17"/>
+      <c r="B129" s="18"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="21"/>
-      <c r="B130" s="22"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="16"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="19"/>
-      <c r="B131" s="20"/>
+      <c r="A131" s="17"/>
+      <c r="B131" s="18"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="21"/>
-      <c r="B132" s="22"/>
+      <c r="A132" s="15"/>
+      <c r="B132" s="16"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="19"/>
-      <c r="B133" s="20"/>
+      <c r="A133" s="17"/>
+      <c r="B133" s="18"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="21"/>
-      <c r="B134" s="22"/>
+      <c r="A134" s="15"/>
+      <c r="B134" s="16"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="19"/>
-      <c r="B135" s="20"/>
+      <c r="A135" s="17"/>
+      <c r="B135" s="18"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="21"/>
-      <c r="B136" s="22"/>
+      <c r="A136" s="15"/>
+      <c r="B136" s="16"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="19"/>
-      <c r="B137" s="20"/>
+      <c r="A137" s="17"/>
+      <c r="B137" s="18"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="21"/>
-      <c r="B138" s="22"/>
+      <c r="A138" s="15"/>
+      <c r="B138" s="16"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="19"/>
-      <c r="B139" s="20"/>
+      <c r="A139" s="17"/>
+      <c r="B139" s="18"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="21"/>
-      <c r="B140" s="22"/>
+      <c r="A140" s="15"/>
+      <c r="B140" s="16"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="19"/>
-      <c r="B141" s="20"/>
+      <c r="A141" s="17"/>
+      <c r="B141" s="18"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="21"/>
-      <c r="B142" s="22"/>
+      <c r="A142" s="15"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="19"/>
-      <c r="B143" s="20"/>
+      <c r="A143" s="17"/>
+      <c r="B143" s="18"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="21"/>
-      <c r="B144" s="22"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="16"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="19"/>
-      <c r="B145" s="20"/>
+      <c r="A145" s="17"/>
+      <c r="B145" s="18"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="21"/>
-      <c r="B146" s="22"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="16"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="19"/>
-      <c r="B147" s="20"/>
+      <c r="A147" s="17"/>
+      <c r="B147" s="18"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="21"/>
-      <c r="B148" s="22"/>
+      <c r="A148" s="15"/>
+      <c r="B148" s="16"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="19"/>
-      <c r="B149" s="20"/>
+      <c r="A149" s="17"/>
+      <c r="B149" s="18"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="21"/>
-      <c r="B150" s="22"/>
+      <c r="A150" s="15"/>
+      <c r="B150" s="16"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="19"/>
-      <c r="B151" s="20"/>
+      <c r="A151" s="17"/>
+      <c r="B151" s="18"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="21"/>
-      <c r="B152" s="22"/>
+      <c r="A152" s="15"/>
+      <c r="B152" s="16"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="19"/>
-      <c r="B153" s="20"/>
+      <c r="A153" s="17"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="21"/>
-      <c r="B154" s="22"/>
+      <c r="A154" s="15"/>
+      <c r="B154" s="16"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="19"/>
-      <c r="B155" s="20"/>
+      <c r="A155" s="17"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="21"/>
-      <c r="B156" s="22"/>
+      <c r="A156" s="15"/>
+      <c r="B156" s="16"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="19"/>
-      <c r="B157" s="20"/>
+      <c r="A157" s="17"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="21"/>
-      <c r="B158" s="22"/>
+      <c r="A158" s="15"/>
+      <c r="B158" s="16"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="19"/>
-      <c r="B159" s="20"/>
+      <c r="A159" s="17"/>
+      <c r="B159" s="18"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="21"/>
-      <c r="B160" s="22"/>
+      <c r="A160" s="15"/>
+      <c r="B160" s="16"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="19"/>
-      <c r="B161" s="20"/>
+      <c r="A161" s="17"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="21"/>
-      <c r="B162" s="22"/>
+      <c r="A162" s="15"/>
+      <c r="B162" s="16"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="19"/>
-      <c r="B163" s="20"/>
+      <c r="A163" s="17"/>
+      <c r="B163" s="18"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="21"/>
-      <c r="B164" s="22"/>
+      <c r="A164" s="15"/>
+      <c r="B164" s="16"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="19"/>
-      <c r="B165" s="20"/>
+      <c r="A165" s="17"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="21"/>
-      <c r="B166" s="22"/>
+      <c r="A166" s="15"/>
+      <c r="B166" s="16"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="19"/>
-      <c r="B167" s="20"/>
+      <c r="A167" s="17"/>
+      <c r="B167" s="18"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="21"/>
-      <c r="B168" s="22"/>
+      <c r="A168" s="15"/>
+      <c r="B168" s="16"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="19"/>
-      <c r="B169" s="20"/>
+      <c r="A169" s="17"/>
+      <c r="B169" s="18"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="21"/>
-      <c r="B170" s="22"/>
+      <c r="A170" s="15"/>
+      <c r="B170" s="16"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="19"/>
-      <c r="B171" s="20"/>
+      <c r="A171" s="17"/>
+      <c r="B171" s="18"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="21"/>
-      <c r="B172" s="22"/>
+      <c r="A172" s="15"/>
+      <c r="B172" s="16"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="19"/>
-      <c r="B173" s="20"/>
+      <c r="A173" s="17"/>
+      <c r="B173" s="18"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="21"/>
-      <c r="B174" s="22"/>
+      <c r="A174" s="15"/>
+      <c r="B174" s="16"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="19"/>
-      <c r="B175" s="20"/>
+      <c r="A175" s="17"/>
+      <c r="B175" s="18"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="21"/>
-      <c r="B176" s="22"/>
+      <c r="A176" s="15"/>
+      <c r="B176" s="16"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="19"/>
-      <c r="B177" s="20"/>
+      <c r="A177" s="17"/>
+      <c r="B177" s="18"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="21"/>
-      <c r="B178" s="22"/>
+      <c r="A178" s="15"/>
+      <c r="B178" s="16"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="19"/>
-      <c r="B179" s="20"/>
+      <c r="A179" s="17"/>
+      <c r="B179" s="18"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="21"/>
-      <c r="B180" s="22"/>
+      <c r="A180" s="15"/>
+      <c r="B180" s="16"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="19"/>
-      <c r="B181" s="20"/>
+      <c r="A181" s="17"/>
+      <c r="B181" s="18"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="21"/>
-      <c r="B182" s="22"/>
+      <c r="A182" s="15"/>
+      <c r="B182" s="16"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="19"/>
-      <c r="B183" s="20"/>
+      <c r="A183" s="17"/>
+      <c r="B183" s="18"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="21"/>
-      <c r="B184" s="22"/>
+      <c r="A184" s="15"/>
+      <c r="B184" s="16"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="19"/>
-      <c r="B185" s="20"/>
+      <c r="A185" s="17"/>
+      <c r="B185" s="18"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="21"/>
-      <c r="B186" s="22"/>
+      <c r="A186" s="15"/>
+      <c r="B186" s="16"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="19"/>
-      <c r="B187" s="20"/>
+      <c r="A187" s="17"/>
+      <c r="B187" s="18"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="21"/>
-      <c r="B188" s="22"/>
+      <c r="A188" s="15"/>
+      <c r="B188" s="16"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="19"/>
-      <c r="B189" s="20"/>
+      <c r="A189" s="17"/>
+      <c r="B189" s="18"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="21"/>
-      <c r="B190" s="22"/>
+      <c r="A190" s="15"/>
+      <c r="B190" s="16"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
+      <c r="A191" s="17"/>
+      <c r="B191" s="18"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="21"/>
-      <c r="B192" s="22"/>
+      <c r="A192" s="15"/>
+      <c r="B192" s="16"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
+      <c r="A193" s="17"/>
+      <c r="B193" s="18"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="21"/>
-      <c r="B194" s="22"/>
+      <c r="A194" s="15"/>
+      <c r="B194" s="16"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="19"/>
-      <c r="B195" s="20"/>
+      <c r="A195" s="17"/>
+      <c r="B195" s="18"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="21"/>
-      <c r="B196" s="22"/>
+      <c r="A196" s="15"/>
+      <c r="B196" s="16"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="19"/>
-      <c r="B197" s="20"/>
+      <c r="A197" s="17"/>
+      <c r="B197" s="18"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="21"/>
-      <c r="B198" s="22"/>
+      <c r="A198" s="15"/>
+      <c r="B198" s="16"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="19"/>
-      <c r="B199" s="20"/>
+      <c r="A199" s="17"/>
+      <c r="B199" s="18"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="23"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="25"/>
+      <c r="A200" s="19"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169">
   <si>
     <t>页面名称</t>
   </si>
@@ -545,6 +545,21 @@
   </si>
   <si>
     <t>开通好友关系</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>消息通知</t>
+  </si>
+  <si>
+    <t>mybooking</t>
+  </si>
+  <si>
+    <t>我的预定</t>
+  </si>
+  <si>
+    <t>未写</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1395,6 +1410,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1767,8 +1794,8 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2468,659 +2495,669 @@
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="16"/>
+      <c r="A70" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>165</v>
+      </c>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="9"/>
+      <c r="A71" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="15"/>
-      <c r="B72" s="16"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="17"/>
-      <c r="B75" s="18"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="17"/>
-      <c r="B77" s="18"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="17"/>
-      <c r="B79" s="18"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="15"/>
-      <c r="B80" s="16"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="18"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="15"/>
-      <c r="B82" s="16"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="17"/>
-      <c r="B83" s="18"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="15"/>
-      <c r="B84" s="16"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="17"/>
-      <c r="B85" s="18"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="15"/>
-      <c r="B86" s="16"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="17"/>
-      <c r="B87" s="18"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="15"/>
-      <c r="B88" s="16"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="17"/>
-      <c r="B89" s="18"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="15"/>
-      <c r="B90" s="16"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="17"/>
-      <c r="B91" s="18"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="15"/>
-      <c r="B92" s="16"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="17"/>
-      <c r="B93" s="18"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="15"/>
-      <c r="B94" s="16"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="17"/>
-      <c r="B95" s="18"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="15"/>
-      <c r="B96" s="16"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="17"/>
-      <c r="B97" s="18"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="15"/>
-      <c r="B98" s="16"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="17"/>
-      <c r="B99" s="18"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="15"/>
-      <c r="B100" s="16"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="17"/>
-      <c r="B101" s="18"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="15"/>
-      <c r="B102" s="16"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="17"/>
-      <c r="B103" s="18"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="15"/>
-      <c r="B104" s="16"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="17"/>
-      <c r="B105" s="18"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="15"/>
-      <c r="B106" s="16"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="17"/>
-      <c r="B107" s="18"/>
+      <c r="A107" s="21"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="15"/>
-      <c r="B108" s="16"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="17"/>
-      <c r="B109" s="18"/>
+      <c r="A109" s="21"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="15"/>
-      <c r="B110" s="16"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="17"/>
-      <c r="B111" s="18"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="15"/>
-      <c r="B112" s="16"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="17"/>
-      <c r="B113" s="18"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="15"/>
-      <c r="B114" s="16"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="17"/>
-      <c r="B115" s="18"/>
+      <c r="A115" s="21"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="15"/>
-      <c r="B116" s="16"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="17"/>
-      <c r="B117" s="18"/>
+      <c r="A117" s="21"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="15"/>
-      <c r="B118" s="16"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="17"/>
-      <c r="B119" s="18"/>
+      <c r="A119" s="21"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="15"/>
-      <c r="B120" s="16"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="17"/>
-      <c r="B121" s="18"/>
+      <c r="A121" s="21"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="15"/>
-      <c r="B122" s="16"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="17"/>
-      <c r="B123" s="18"/>
+      <c r="A123" s="21"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="15"/>
-      <c r="B124" s="16"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="17"/>
-      <c r="B125" s="18"/>
+      <c r="A125" s="21"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="15"/>
-      <c r="B126" s="16"/>
+      <c r="A126" s="19"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="17"/>
-      <c r="B127" s="18"/>
+      <c r="A127" s="21"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="15"/>
-      <c r="B128" s="16"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="17"/>
-      <c r="B129" s="18"/>
+      <c r="A129" s="21"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="15"/>
-      <c r="B130" s="16"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="17"/>
-      <c r="B131" s="18"/>
+      <c r="A131" s="21"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="15"/>
-      <c r="B132" s="16"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="17"/>
-      <c r="B133" s="18"/>
+      <c r="A133" s="21"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="15"/>
-      <c r="B134" s="16"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="17"/>
-      <c r="B135" s="18"/>
+      <c r="A135" s="21"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="15"/>
-      <c r="B136" s="16"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="17"/>
-      <c r="B137" s="18"/>
+      <c r="A137" s="21"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="15"/>
-      <c r="B138" s="16"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="17"/>
-      <c r="B139" s="18"/>
+      <c r="A139" s="21"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="15"/>
-      <c r="B140" s="16"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="17"/>
-      <c r="B141" s="18"/>
+      <c r="A141" s="21"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="15"/>
-      <c r="B142" s="16"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="17"/>
-      <c r="B143" s="18"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="15"/>
-      <c r="B144" s="16"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="17"/>
-      <c r="B145" s="18"/>
+      <c r="A145" s="21"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="15"/>
-      <c r="B146" s="16"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="17"/>
-      <c r="B147" s="18"/>
+      <c r="A147" s="21"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="15"/>
-      <c r="B148" s="16"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="17"/>
-      <c r="B149" s="18"/>
+      <c r="A149" s="21"/>
+      <c r="B149" s="22"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="15"/>
-      <c r="B150" s="16"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="17"/>
-      <c r="B151" s="18"/>
+      <c r="A151" s="21"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="15"/>
-      <c r="B152" s="16"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="17"/>
-      <c r="B153" s="18"/>
+      <c r="A153" s="21"/>
+      <c r="B153" s="22"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="15"/>
-      <c r="B154" s="16"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="17"/>
-      <c r="B155" s="18"/>
+      <c r="A155" s="21"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="15"/>
-      <c r="B156" s="16"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="17"/>
-      <c r="B157" s="18"/>
+      <c r="A157" s="21"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="15"/>
-      <c r="B158" s="16"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="17"/>
-      <c r="B159" s="18"/>
+      <c r="A159" s="21"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="15"/>
-      <c r="B160" s="16"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="17"/>
-      <c r="B161" s="18"/>
+      <c r="A161" s="21"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="15"/>
-      <c r="B162" s="16"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="17"/>
-      <c r="B163" s="18"/>
+      <c r="A163" s="21"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="15"/>
-      <c r="B164" s="16"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="17"/>
-      <c r="B165" s="18"/>
+      <c r="A165" s="21"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="15"/>
-      <c r="B166" s="16"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="17"/>
-      <c r="B167" s="18"/>
+      <c r="A167" s="21"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="15"/>
-      <c r="B168" s="16"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="17"/>
-      <c r="B169" s="18"/>
+      <c r="A169" s="21"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="15"/>
-      <c r="B170" s="16"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="17"/>
-      <c r="B171" s="18"/>
+      <c r="A171" s="21"/>
+      <c r="B171" s="22"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="15"/>
-      <c r="B172" s="16"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="17"/>
-      <c r="B173" s="18"/>
+      <c r="A173" s="21"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="15"/>
-      <c r="B174" s="16"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="17"/>
-      <c r="B175" s="18"/>
+      <c r="A175" s="21"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="15"/>
-      <c r="B176" s="16"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="17"/>
-      <c r="B177" s="18"/>
+      <c r="A177" s="21"/>
+      <c r="B177" s="22"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="15"/>
-      <c r="B178" s="16"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="17"/>
-      <c r="B179" s="18"/>
+      <c r="A179" s="21"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="15"/>
-      <c r="B180" s="16"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="17"/>
-      <c r="B181" s="18"/>
+      <c r="A181" s="21"/>
+      <c r="B181" s="22"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="15"/>
-      <c r="B182" s="16"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="17"/>
-      <c r="B183" s="18"/>
+      <c r="A183" s="21"/>
+      <c r="B183" s="22"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="15"/>
-      <c r="B184" s="16"/>
+      <c r="A184" s="19"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="17"/>
-      <c r="B185" s="18"/>
+      <c r="A185" s="21"/>
+      <c r="B185" s="22"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="15"/>
-      <c r="B186" s="16"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="17"/>
-      <c r="B187" s="18"/>
+      <c r="A187" s="21"/>
+      <c r="B187" s="22"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="15"/>
-      <c r="B188" s="16"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="17"/>
-      <c r="B189" s="18"/>
+      <c r="A189" s="21"/>
+      <c r="B189" s="22"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="15"/>
-      <c r="B190" s="16"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="17"/>
-      <c r="B191" s="18"/>
+      <c r="A191" s="21"/>
+      <c r="B191" s="22"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="15"/>
-      <c r="B192" s="16"/>
+      <c r="A192" s="19"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="17"/>
-      <c r="B193" s="18"/>
+      <c r="A193" s="21"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="15"/>
-      <c r="B194" s="16"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="17"/>
-      <c r="B195" s="18"/>
+      <c r="A195" s="21"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="15"/>
-      <c r="B196" s="16"/>
+      <c r="A196" s="19"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="17"/>
-      <c r="B197" s="18"/>
+      <c r="A197" s="21"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="15"/>
-      <c r="B198" s="16"/>
+      <c r="A198" s="19"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="17"/>
-      <c r="B199" s="18"/>
+      <c r="A199" s="21"/>
+      <c r="B199" s="22"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="19"/>
-      <c r="B200" s="20"/>
-      <c r="C200" s="21"/>
+      <c r="A200" s="23"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -553,13 +553,13 @@
     <t>消息通知</t>
   </si>
   <si>
-    <t>mybooking</t>
-  </si>
-  <si>
-    <t>我的预定</t>
-  </si>
-  <si>
-    <t>未写</t>
+    <t>redpacket</t>
+  </si>
+  <si>
+    <t>红包</t>
+  </si>
+  <si>
+    <t>筛选待定</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +1795,7 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12180"/>
+    <workbookView windowWidth="16320" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>页面名称</t>
   </si>
@@ -561,16 +561,28 @@
   <si>
     <t>筛选待定</t>
   </si>
+  <si>
+    <t>withdraw_progress</t>
+  </si>
+  <si>
+    <t>提现进度</t>
+  </si>
+  <si>
+    <t>no_evaluation</t>
+  </si>
+  <si>
+    <t>未评价</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -590,7 +602,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,7 +610,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,61 +631,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -689,11 +646,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -713,6 +701,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,49 +784,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,78 +946,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -934,19 +958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,6 +1127,26 @@
         <color theme="0"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1133,30 +1165,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1168,26 +1176,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,6 +1198,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1223,145 +1235,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1794,8 +1806,8 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2495,19 +2507,19 @@
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="11" t="s">
         <v>165</v>
       </c>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="8" t="s">
         <v>167</v>
       </c>
       <c r="C71" s="9" t="s">
@@ -2515,13 +2527,21 @@
       </c>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="19"/>
-      <c r="B72" s="20"/>
+      <c r="A72" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>170</v>
+      </c>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
+      <c r="A73" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>172</v>
+      </c>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
   <si>
     <t>页面名称</t>
   </si>
@@ -573,16 +573,34 @@
   <si>
     <t>未评价</t>
   </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>信用护照</t>
+  </si>
+  <si>
+    <t>不完善</t>
+  </si>
+  <si>
+    <t>transfer_2</t>
+  </si>
+  <si>
+    <t>转账</t>
+  </si>
+  <si>
+    <t>之前有个转账</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -602,7 +620,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,7 +628,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,6 +649,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -646,42 +719,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -701,30 +743,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,6 +802,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -796,60 +898,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -886,79 +934,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,6 +1145,60 @@
         <color theme="0"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1145,37 +1217,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,30 +1240,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1235,10 +1253,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,133 +1265,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1806,8 +1824,8 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2527,32 +2545,44 @@
       </c>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="11" t="s">
         <v>170</v>
       </c>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="8" t="s">
         <v>172</v>
       </c>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="12"/>
+      <c r="A74" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="9"/>
+      <c r="A75" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
       <c r="A76" s="19"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16320" windowHeight="12180"/>
+    <workbookView windowWidth="25095" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
   <si>
     <t>页面名称</t>
   </si>
@@ -83,12 +83,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>1、备注</t>
     </r>
     <r>
@@ -107,7 +101,8 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>textarea高度自适应效果</t>
+      <t>textarea高度自适应效果
+2、输入密码</t>
     </r>
   </si>
   <si>
@@ -139,6 +134,9 @@
   </si>
   <si>
     <t>资产分析</t>
+  </si>
+  <si>
+    <t>需修改</t>
   </si>
   <si>
     <t>edit</t>
@@ -523,13 +521,18 @@
     <t>1、身份证原件拍照上传</t>
   </si>
   <si>
-    <t>bingding_mobile</t>
+    <t>binding_mobile</t>
   </si>
   <si>
     <t>绑定手机</t>
   </si>
   <si>
-    <t>bingding_mobile_new</t>
+    <t>更换手机号码之后存在问题：
+1、之前手机号不用，接收不到短信验证码
+2、输入新手机号到底用哪个页面（有两个）</t>
+  </si>
+  <si>
+    <t>binding_mobile_new</t>
   </si>
   <si>
     <t>绑定新手机号</t>
@@ -590,6 +593,42 @@
   </si>
   <si>
     <t>之前有个转账</t>
+  </si>
+  <si>
+    <t>go_evaluate</t>
+  </si>
+  <si>
+    <t>发表评价</t>
+  </si>
+  <si>
+    <t>点击发布ajax传值</t>
+  </si>
+  <si>
+    <t>all_order</t>
+  </si>
+  <si>
+    <t>普通订单、定制订单</t>
+  </si>
+  <si>
+    <t>mybooking</t>
+  </si>
+  <si>
+    <t>我的预定</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>我的地址</t>
+  </si>
+  <si>
+    <t>功能未实现</t>
+  </si>
+  <si>
+    <t>my_evaluation</t>
+  </si>
+  <si>
+    <t>我的评价</t>
   </si>
 </sst>
 </file>
@@ -597,12 +636,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,30 +659,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,6 +732,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,27 +801,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -764,12 +816,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -802,6 +848,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -832,60 +986,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -893,60 +993,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,16 +1194,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1173,21 +1219,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1198,6 +1229,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,21 +1283,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1253,10 +1299,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1265,133 +1311,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1411,7 +1457,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1420,49 +1466,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1824,8 +1870,8 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1888,7 +1934,7 @@
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="12"/>
@@ -1897,7 +1943,7 @@
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="9"/>
@@ -1909,7 +1955,7 @@
       <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1920,7 +1966,7 @@
       <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1946,7 +1992,7 @@
       <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="12"/>
@@ -1955,7 +2001,7 @@
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="9"/>
@@ -1967,1241 +2013,1269 @@
       <c r="B14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" ht="50" customHeight="1" spans="1:3">
       <c r="A15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="14" t="s">
         <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:3">
       <c r="A16" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="12"/>
     </row>
     <row r="17" ht="50" customHeight="1" spans="1:3">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="50" customHeight="1" spans="1:3">
       <c r="A18" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="12"/>
     </row>
     <row r="19" ht="50" customHeight="1" spans="1:3">
       <c r="A19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
         <v>43</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="9"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:3">
       <c r="A20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="11" t="s">
         <v>45</v>
       </c>
+      <c r="B20" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="C20" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" ht="87" customHeight="1" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="14" t="s">
         <v>49</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" ht="50" customHeight="1" spans="1:3">
       <c r="A22" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="13" t="s">
         <v>52</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" ht="50" customHeight="1" spans="1:3">
       <c r="A23" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" ht="50" customHeight="1" spans="1:3">
       <c r="A24" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" ht="50" customHeight="1" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" ht="50" customHeight="1" spans="1:3">
       <c r="A26" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" ht="50" customHeight="1" spans="1:3">
       <c r="A27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="14" t="s">
         <v>66</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" ht="50" customHeight="1" spans="1:3">
       <c r="A28" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="13" t="s">
         <v>69</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" ht="50" customHeight="1" spans="1:3">
       <c r="A29" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="14" t="s">
         <v>72</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="30" ht="50" customHeight="1" spans="1:3">
       <c r="A30" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="13" t="s">
         <v>75</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="31" ht="50" customHeight="1" spans="1:3">
       <c r="A31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="8" t="s">
         <v>77</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="C31" s="9"/>
     </row>
     <row r="32" ht="50" customHeight="1" spans="1:3">
       <c r="A32" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="B32" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="15"/>
     </row>
     <row r="33" ht="50" customHeight="1" spans="1:3">
       <c r="A33" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="14" t="s">
         <v>82</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" ht="50" customHeight="1" spans="1:3">
       <c r="A34" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="35" ht="50" customHeight="1" spans="1:3">
       <c r="A35" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" ht="50" customHeight="1" spans="1:3">
       <c r="A36" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="11" t="s">
         <v>89</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C36" s="12"/>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:3">
       <c r="A37" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" s="9"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:3">
       <c r="A38" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>94</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="39" ht="50" customHeight="1" spans="1:3">
       <c r="A39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="40" ht="50" customHeight="1" spans="1:3">
       <c r="A40" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="B40" s="13" t="s">
         <v>99</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="41" ht="50" customHeight="1" spans="1:3">
       <c r="A41" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="42" ht="50" customHeight="1" spans="1:3">
       <c r="A42" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C42" s="12"/>
     </row>
     <row r="43" ht="50" customHeight="1" spans="1:3">
       <c r="A43" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C43" s="9"/>
     </row>
     <row r="44" ht="50" customHeight="1" spans="1:3">
       <c r="A44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="C44" s="12"/>
     </row>
     <row r="45" ht="50" customHeight="1" spans="1:3">
       <c r="A45" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="9"/>
     </row>
     <row r="46" ht="50" customHeight="1" spans="1:3">
       <c r="A46" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C46" s="12"/>
     </row>
     <row r="47" ht="50" customHeight="1" spans="1:3">
       <c r="A47" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="14" t="s">
         <v>111</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="48" ht="50" customHeight="1" spans="1:3">
       <c r="A48" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="13" t="s">
         <v>114</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="49" ht="50" customHeight="1" spans="1:3">
       <c r="A49" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="8" t="s">
         <v>116</v>
       </c>
+      <c r="B49" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="C49" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" ht="50" customHeight="1" spans="1:3">
       <c r="A50" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="13" t="s">
         <v>119</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="51" ht="50" customHeight="1" spans="1:3">
       <c r="A51" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="8" t="s">
         <v>121</v>
       </c>
+      <c r="B51" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="C51" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:3">
       <c r="A52" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" ht="50" customHeight="1" spans="1:3">
       <c r="A53" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C53" s="9"/>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:3">
       <c r="A54" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" ht="50" customHeight="1" spans="1:3">
       <c r="A55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="8" t="s">
         <v>131</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="C55" s="9"/>
     </row>
     <row r="56" ht="50" customHeight="1" spans="1:3">
       <c r="A56" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" s="11" t="s">
         <v>133</v>
       </c>
+      <c r="B56" s="13" t="s">
+        <v>134</v>
+      </c>
       <c r="C56" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" ht="50" customHeight="1" spans="1:3">
       <c r="A57" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57" s="8" t="s">
         <v>136</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="C57" s="9"/>
     </row>
     <row r="58" ht="50" customHeight="1" spans="1:3">
       <c r="A58" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
       <c r="A59" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
       <c r="A60" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
       <c r="A61" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
       <c r="A62" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
       <c r="A63" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B63" s="8" t="s">
         <v>149</v>
       </c>
+      <c r="B63" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="C63" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
       <c r="A64" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B64" s="11" t="s">
         <v>152</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
       <c r="A65" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
       <c r="A66" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="12"/>
+        <v>158</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
       <c r="A67" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
       <c r="A68" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
       <c r="A69" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
       <c r="A70" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
       <c r="A71" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
       <c r="A72" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>172</v>
       </c>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
       <c r="A73" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
-      <c r="A74" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>174</v>
+      <c r="A74" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
-      <c r="A75" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>177</v>
+      <c r="A75" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="12"/>
+      <c r="A76" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
-      <c r="A77" s="21"/>
-      <c r="B77" s="22"/>
+      <c r="A77" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
+      <c r="A78" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
-      <c r="A79" s="21"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="9"/>
+      <c r="A79" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
-      <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>192</v>
+      </c>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="21"/>
-      <c r="B81" s="22"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="9"/>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="19"/>
-      <c r="B82" s="20"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="21"/>
-      <c r="B83" s="22"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="19"/>
-      <c r="B84" s="20"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="21"/>
-      <c r="B85" s="22"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="19"/>
-      <c r="B86" s="20"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="21"/>
-      <c r="B87" s="22"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="19"/>
-      <c r="B88" s="20"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="19"/>
-      <c r="B90" s="20"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="21"/>
-      <c r="B91" s="22"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="21"/>
-      <c r="B93" s="22"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="19"/>
-      <c r="B94" s="20"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="21"/>
-      <c r="B95" s="22"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="19"/>
-      <c r="B96" s="20"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="21"/>
-      <c r="B97" s="22"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="19"/>
-      <c r="B98" s="20"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="21"/>
-      <c r="B99" s="22"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="19"/>
-      <c r="B100" s="20"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="21"/>
-      <c r="B101" s="22"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="19"/>
-      <c r="B102" s="20"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="21"/>
-      <c r="B103" s="22"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="19"/>
-      <c r="B104" s="20"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="21"/>
-      <c r="B105" s="22"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="19"/>
-      <c r="B106" s="20"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="21"/>
-      <c r="B107" s="22"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="19"/>
-      <c r="B108" s="20"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="21"/>
-      <c r="B109" s="22"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="19"/>
-      <c r="B110" s="20"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="21"/>
-      <c r="B111" s="22"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="19"/>
-      <c r="B112" s="20"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="21"/>
-      <c r="B113" s="22"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="19"/>
-      <c r="B114" s="20"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="21"/>
-      <c r="B115" s="22"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="19"/>
-      <c r="B116" s="20"/>
+      <c r="A116" s="21"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="21"/>
-      <c r="B117" s="22"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="19"/>
-      <c r="B118" s="20"/>
+      <c r="A118" s="21"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="21"/>
-      <c r="B119" s="22"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="19"/>
-      <c r="B120" s="20"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="21"/>
-      <c r="B121" s="22"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="19"/>
-      <c r="B122" s="20"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="21"/>
-      <c r="B123" s="22"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="19"/>
-      <c r="B124" s="20"/>
+      <c r="A124" s="21"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="21"/>
-      <c r="B125" s="22"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="19"/>
-      <c r="B126" s="20"/>
+      <c r="A126" s="21"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="21"/>
-      <c r="B127" s="22"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="19"/>
-      <c r="B128" s="20"/>
+      <c r="A128" s="21"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="21"/>
-      <c r="B129" s="22"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="19"/>
-      <c r="B130" s="20"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="21"/>
-      <c r="B131" s="22"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="19"/>
-      <c r="B132" s="20"/>
+      <c r="A132" s="21"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="21"/>
-      <c r="B133" s="22"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="19"/>
-      <c r="B134" s="20"/>
+      <c r="A134" s="21"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="21"/>
-      <c r="B135" s="22"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="19"/>
-      <c r="B136" s="20"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="21"/>
-      <c r="B137" s="22"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="19"/>
-      <c r="B138" s="20"/>
+      <c r="A138" s="21"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="21"/>
-      <c r="B139" s="22"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="19"/>
-      <c r="B140" s="20"/>
+      <c r="A140" s="21"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="21"/>
-      <c r="B141" s="22"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="19"/>
-      <c r="B142" s="20"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="21"/>
-      <c r="B143" s="22"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="19"/>
-      <c r="B144" s="20"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="21"/>
-      <c r="B145" s="22"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="19"/>
-      <c r="B146" s="20"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="21"/>
-      <c r="B147" s="22"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="19"/>
-      <c r="B148" s="20"/>
+      <c r="A148" s="21"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="21"/>
-      <c r="B149" s="22"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="19"/>
-      <c r="B150" s="20"/>
+      <c r="A150" s="21"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="21"/>
-      <c r="B151" s="22"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="19"/>
-      <c r="B152" s="20"/>
+      <c r="A152" s="21"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="21"/>
-      <c r="B153" s="22"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="19"/>
-      <c r="B154" s="20"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="21"/>
-      <c r="B155" s="22"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="19"/>
-      <c r="B156" s="20"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="21"/>
-      <c r="B157" s="22"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="19"/>
-      <c r="B158" s="20"/>
+      <c r="A158" s="21"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="21"/>
-      <c r="B159" s="22"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="19"/>
-      <c r="B160" s="20"/>
+      <c r="A160" s="21"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="21"/>
-      <c r="B161" s="22"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="19"/>
-      <c r="B162" s="20"/>
+      <c r="A162" s="21"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="21"/>
-      <c r="B163" s="22"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="19"/>
-      <c r="B164" s="20"/>
+      <c r="A164" s="21"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="21"/>
-      <c r="B165" s="22"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="19"/>
-      <c r="B166" s="20"/>
+      <c r="A166" s="21"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="21"/>
-      <c r="B167" s="22"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="19"/>
-      <c r="B168" s="20"/>
+      <c r="A168" s="21"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="21"/>
-      <c r="B169" s="22"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="19"/>
-      <c r="B170" s="20"/>
+      <c r="A170" s="21"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="21"/>
-      <c r="B171" s="22"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="19"/>
-      <c r="B172" s="20"/>
+      <c r="A172" s="21"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="21"/>
-      <c r="B173" s="22"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="19"/>
-      <c r="B174" s="20"/>
+      <c r="A174" s="21"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="21"/>
-      <c r="B175" s="22"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="19"/>
-      <c r="B176" s="20"/>
+      <c r="A176" s="21"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="21"/>
-      <c r="B177" s="22"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="19"/>
-      <c r="B178" s="20"/>
+      <c r="A178" s="21"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="21"/>
-      <c r="B179" s="22"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="19"/>
-      <c r="B180" s="20"/>
+      <c r="A180" s="21"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="21"/>
-      <c r="B181" s="22"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="19"/>
-      <c r="B182" s="20"/>
+      <c r="A182" s="21"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="21"/>
-      <c r="B183" s="22"/>
+      <c r="A183" s="19"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="19"/>
-      <c r="B184" s="20"/>
+      <c r="A184" s="21"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="21"/>
-      <c r="B185" s="22"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="19"/>
-      <c r="B186" s="20"/>
+      <c r="A186" s="21"/>
+      <c r="B186" s="22"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="21"/>
-      <c r="B187" s="22"/>
+      <c r="A187" s="19"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="19"/>
-      <c r="B188" s="20"/>
+      <c r="A188" s="21"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="21"/>
-      <c r="B189" s="22"/>
+      <c r="A189" s="19"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="19"/>
-      <c r="B190" s="20"/>
+      <c r="A190" s="21"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="21"/>
-      <c r="B191" s="22"/>
+      <c r="A191" s="19"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="19"/>
-      <c r="B192" s="20"/>
+      <c r="A192" s="21"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="21"/>
-      <c r="B193" s="22"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="19"/>
-      <c r="B194" s="20"/>
+      <c r="A194" s="21"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="21"/>
-      <c r="B195" s="22"/>
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="19"/>
-      <c r="B196" s="20"/>
+      <c r="A196" s="21"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="21"/>
-      <c r="B197" s="22"/>
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="19"/>
-      <c r="B198" s="20"/>
+      <c r="A198" s="21"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="21"/>
-      <c r="B199" s="22"/>
+      <c r="A199" s="19"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12600"/>
+    <workbookView windowWidth="25095" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
   <si>
     <t>页面名称</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、备注</t>
     </r>
     <r>
@@ -630,16 +636,31 @@
   <si>
     <t>我的评价</t>
   </si>
+  <si>
+    <t>user_withdraw</t>
+  </si>
+  <si>
+    <t>提现</t>
+  </si>
+  <si>
+    <t>ajax接口对接</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>相似商品</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -673,6 +694,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,50 +776,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,7 +801,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,6 +823,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -848,7 +869,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,6 +893,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -872,7 +923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,12 +935,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -902,6 +947,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -920,6 +983,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -932,7 +1031,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,90 +1050,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,6 +1215,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1209,15 +1254,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1229,36 +1265,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1283,6 +1289,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1299,10 +1320,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1311,137 +1332,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1494,9 +1515,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1870,8 +1888,8 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2543,7 +2561,7 @@
       <c r="B66" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="15" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2684,604 +2702,614 @@
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
-      <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="9"/>
+      <c r="A81" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
-      <c r="A82" s="21"/>
-      <c r="B82" s="22"/>
+      <c r="A82" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>197</v>
+      </c>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="19"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="21"/>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="19"/>
-      <c r="B87" s="20"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="19"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="19"/>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="19"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="19"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="21"/>
-      <c r="B92" s="22"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="21"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="19"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="21"/>
-      <c r="B98" s="22"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="19"/>
-      <c r="B99" s="20"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="21"/>
-      <c r="B100" s="22"/>
+      <c r="A100" s="20"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="19"/>
-      <c r="B101" s="20"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="19"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="21"/>
-      <c r="B102" s="22"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="21"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="19"/>
-      <c r="B103" s="20"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="21"/>
-      <c r="B104" s="22"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="21"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="19"/>
-      <c r="B105" s="20"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="19"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="21"/>
-      <c r="B106" s="22"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="19"/>
-      <c r="B107" s="20"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="19"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="21"/>
-      <c r="B108" s="22"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="19"/>
-      <c r="B109" s="20"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
+      <c r="A110" s="20"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="19"/>
-      <c r="B111" s="20"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="21"/>
-      <c r="B112" s="22"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="19"/>
-      <c r="B113" s="20"/>
+      <c r="A113" s="18"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="21"/>
-      <c r="B114" s="22"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="19"/>
-      <c r="B115" s="20"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="21"/>
-      <c r="B116" s="22"/>
+      <c r="A116" s="20"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="19"/>
-      <c r="B117" s="20"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="21"/>
-      <c r="B118" s="22"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="19"/>
-      <c r="B119" s="20"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="21"/>
-      <c r="B120" s="22"/>
+      <c r="A120" s="20"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="19"/>
-      <c r="B121" s="20"/>
+      <c r="A121" s="18"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="21"/>
-      <c r="B122" s="22"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="19"/>
-      <c r="B123" s="20"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="19"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="21"/>
-      <c r="B124" s="22"/>
+      <c r="A124" s="20"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="19"/>
-      <c r="B125" s="20"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="21"/>
-      <c r="B126" s="22"/>
+      <c r="A126" s="20"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="19"/>
-      <c r="B127" s="20"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="21"/>
-      <c r="B128" s="22"/>
+      <c r="A128" s="20"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="19"/>
-      <c r="B129" s="20"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="21"/>
-      <c r="B130" s="22"/>
+      <c r="A130" s="20"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="19"/>
-      <c r="B131" s="20"/>
+      <c r="A131" s="18"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="21"/>
-      <c r="B132" s="22"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="21"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="19"/>
-      <c r="B133" s="20"/>
+      <c r="A133" s="18"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="21"/>
-      <c r="B134" s="22"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="21"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="19"/>
-      <c r="B135" s="20"/>
+      <c r="A135" s="18"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="21"/>
-      <c r="B136" s="22"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="21"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="19"/>
-      <c r="B137" s="20"/>
+      <c r="A137" s="18"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="21"/>
-      <c r="B138" s="22"/>
+      <c r="A138" s="20"/>
+      <c r="B138" s="21"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="19"/>
-      <c r="B139" s="20"/>
+      <c r="A139" s="18"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="21"/>
-      <c r="B140" s="22"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="21"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="19"/>
-      <c r="B141" s="20"/>
+      <c r="A141" s="18"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="21"/>
-      <c r="B142" s="22"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="21"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="19"/>
-      <c r="B143" s="20"/>
+      <c r="A143" s="18"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="21"/>
-      <c r="B144" s="22"/>
+      <c r="A144" s="20"/>
+      <c r="B144" s="21"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="19"/>
-      <c r="B145" s="20"/>
+      <c r="A145" s="18"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="21"/>
-      <c r="B146" s="22"/>
+      <c r="A146" s="20"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="19"/>
-      <c r="B147" s="20"/>
+      <c r="A147" s="18"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="21"/>
-      <c r="B148" s="22"/>
+      <c r="A148" s="20"/>
+      <c r="B148" s="21"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="19"/>
-      <c r="B149" s="20"/>
+      <c r="A149" s="18"/>
+      <c r="B149" s="19"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="21"/>
-      <c r="B150" s="22"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="21"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="19"/>
-      <c r="B151" s="20"/>
+      <c r="A151" s="18"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="21"/>
-      <c r="B152" s="22"/>
+      <c r="A152" s="20"/>
+      <c r="B152" s="21"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="19"/>
-      <c r="B153" s="20"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="21"/>
-      <c r="B154" s="22"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="21"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="19"/>
-      <c r="B155" s="20"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="21"/>
-      <c r="B156" s="22"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="19"/>
-      <c r="B157" s="20"/>
+      <c r="A157" s="18"/>
+      <c r="B157" s="19"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="21"/>
-      <c r="B158" s="22"/>
+      <c r="A158" s="20"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="19"/>
-      <c r="B159" s="20"/>
+      <c r="A159" s="18"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="21"/>
-      <c r="B160" s="22"/>
+      <c r="A160" s="20"/>
+      <c r="B160" s="21"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="19"/>
-      <c r="B161" s="20"/>
+      <c r="A161" s="18"/>
+      <c r="B161" s="19"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="21"/>
-      <c r="B162" s="22"/>
+      <c r="A162" s="20"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="19"/>
-      <c r="B163" s="20"/>
+      <c r="A163" s="18"/>
+      <c r="B163" s="19"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="21"/>
-      <c r="B164" s="22"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="21"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="19"/>
-      <c r="B165" s="20"/>
+      <c r="A165" s="18"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="21"/>
-      <c r="B166" s="22"/>
+      <c r="A166" s="20"/>
+      <c r="B166" s="21"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="19"/>
-      <c r="B167" s="20"/>
+      <c r="A167" s="18"/>
+      <c r="B167" s="19"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="21"/>
-      <c r="B168" s="22"/>
+      <c r="A168" s="20"/>
+      <c r="B168" s="21"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="19"/>
-      <c r="B169" s="20"/>
+      <c r="A169" s="18"/>
+      <c r="B169" s="19"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="21"/>
-      <c r="B170" s="22"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="21"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="19"/>
-      <c r="B171" s="20"/>
+      <c r="A171" s="18"/>
+      <c r="B171" s="19"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="21"/>
-      <c r="B172" s="22"/>
+      <c r="A172" s="20"/>
+      <c r="B172" s="21"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="19"/>
-      <c r="B173" s="20"/>
+      <c r="A173" s="18"/>
+      <c r="B173" s="19"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="21"/>
-      <c r="B174" s="22"/>
+      <c r="A174" s="20"/>
+      <c r="B174" s="21"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="19"/>
-      <c r="B175" s="20"/>
+      <c r="A175" s="18"/>
+      <c r="B175" s="19"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="21"/>
-      <c r="B176" s="22"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="21"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="19"/>
-      <c r="B177" s="20"/>
+      <c r="A177" s="18"/>
+      <c r="B177" s="19"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="21"/>
-      <c r="B178" s="22"/>
+      <c r="A178" s="20"/>
+      <c r="B178" s="21"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="19"/>
-      <c r="B179" s="20"/>
+      <c r="A179" s="18"/>
+      <c r="B179" s="19"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="21"/>
-      <c r="B180" s="22"/>
+      <c r="A180" s="20"/>
+      <c r="B180" s="21"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="19"/>
-      <c r="B181" s="20"/>
+      <c r="A181" s="18"/>
+      <c r="B181" s="19"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="21"/>
-      <c r="B182" s="22"/>
+      <c r="A182" s="20"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="19"/>
-      <c r="B183" s="20"/>
+      <c r="A183" s="18"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="21"/>
-      <c r="B184" s="22"/>
+      <c r="A184" s="20"/>
+      <c r="B184" s="21"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="19"/>
-      <c r="B185" s="20"/>
+      <c r="A185" s="18"/>
+      <c r="B185" s="19"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="21"/>
-      <c r="B186" s="22"/>
+      <c r="A186" s="20"/>
+      <c r="B186" s="21"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="19"/>
-      <c r="B187" s="20"/>
+      <c r="A187" s="18"/>
+      <c r="B187" s="19"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="21"/>
-      <c r="B188" s="22"/>
+      <c r="A188" s="20"/>
+      <c r="B188" s="21"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="19"/>
-      <c r="B189" s="20"/>
+      <c r="A189" s="18"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="21"/>
-      <c r="B190" s="22"/>
+      <c r="A190" s="20"/>
+      <c r="B190" s="21"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
+      <c r="A191" s="18"/>
+      <c r="B191" s="19"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="21"/>
-      <c r="B192" s="22"/>
+      <c r="A192" s="20"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
+      <c r="A193" s="18"/>
+      <c r="B193" s="19"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="21"/>
-      <c r="B194" s="22"/>
+      <c r="A194" s="20"/>
+      <c r="B194" s="21"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="19"/>
-      <c r="B195" s="20"/>
+      <c r="A195" s="18"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="21"/>
-      <c r="B196" s="22"/>
+      <c r="A196" s="20"/>
+      <c r="B196" s="21"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="19"/>
-      <c r="B197" s="20"/>
+      <c r="A197" s="18"/>
+      <c r="B197" s="19"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="21"/>
-      <c r="B198" s="22"/>
+      <c r="A198" s="20"/>
+      <c r="B198" s="21"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="19"/>
-      <c r="B199" s="20"/>
+      <c r="A199" s="18"/>
+      <c r="B199" s="19"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="23"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="25"/>
+      <c r="A200" s="22"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12180"/>
+    <workbookView windowWidth="14955" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
   <si>
     <t>页面名称</t>
   </si>
@@ -651,6 +651,51 @@
   <si>
     <t>相似商品</t>
   </si>
+  <si>
+    <t>01-19任务</t>
+  </si>
+  <si>
+    <t>mobilepay_fail</t>
+  </si>
+  <si>
+    <t>手机充值失败</t>
+  </si>
+  <si>
+    <t>pay_success</t>
+  </si>
+  <si>
+    <t>支付成功</t>
+  </si>
+  <si>
+    <t>pay_fail</t>
+  </si>
+  <si>
+    <t>支付失败</t>
+  </si>
+  <si>
+    <t>bill_list</t>
+  </si>
+  <si>
+    <t>账单(每月明细)</t>
+  </si>
+  <si>
+    <t>bill_show_detail</t>
+  </si>
+  <si>
+    <t>每条账单显示明细</t>
+  </si>
+  <si>
+    <t>binding_mobile_new2</t>
+  </si>
+  <si>
+    <t>新手机号</t>
+  </si>
+  <si>
+    <t>notice_friends</t>
+  </si>
+  <si>
+    <t>我的好友</t>
+  </si>
 </sst>
 </file>
 
@@ -662,7 +707,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +735,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1320,10 +1373,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1332,137 +1385,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1517,10 +1570,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1888,8 +1956,8 @@
   <sheetPr/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2019,7 +2087,7 @@
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="9"/>
@@ -2409,7 +2477,7 @@
       <c r="A51" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C51" s="9" t="s">
@@ -2722,594 +2790,624 @@
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="18"/>
+      <c r="A83" s="18" t="s">
+        <v>198</v>
+      </c>
       <c r="B83" s="19"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="20"/>
-      <c r="B84" s="21"/>
+      <c r="A84" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>200</v>
+      </c>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="18"/>
-      <c r="B85" s="19"/>
+      <c r="A85" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>202</v>
+      </c>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="20"/>
-      <c r="B86" s="21"/>
+      <c r="A86" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>204</v>
+      </c>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="18"/>
-      <c r="B87" s="19"/>
+      <c r="A87" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>206</v>
+      </c>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="20"/>
-      <c r="B88" s="21"/>
+      <c r="A88" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>208</v>
+      </c>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19"/>
+      <c r="A89" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>210</v>
+      </c>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="20"/>
-      <c r="B90" s="21"/>
+      <c r="A90" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>212</v>
+      </c>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="18"/>
+      <c r="A91" s="24"/>
       <c r="B91" s="19"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="20"/>
-      <c r="B92" s="21"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="18"/>
+      <c r="A93" s="24"/>
       <c r="B93" s="19"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="20"/>
-      <c r="B94" s="21"/>
+      <c r="A94" s="25"/>
+      <c r="B94" s="26"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="18"/>
+      <c r="A95" s="24"/>
       <c r="B95" s="19"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="20"/>
-      <c r="B96" s="21"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="26"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="18"/>
+      <c r="A97" s="24"/>
       <c r="B97" s="19"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="20"/>
-      <c r="B98" s="21"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="26"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="18"/>
+      <c r="A99" s="24"/>
       <c r="B99" s="19"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="20"/>
-      <c r="B100" s="21"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="26"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="18"/>
+      <c r="A101" s="24"/>
       <c r="B101" s="19"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="20"/>
-      <c r="B102" s="21"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="26"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="18"/>
+      <c r="A103" s="24"/>
       <c r="B103" s="19"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="20"/>
-      <c r="B104" s="21"/>
+      <c r="A104" s="25"/>
+      <c r="B104" s="26"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="18"/>
+      <c r="A105" s="24"/>
       <c r="B105" s="19"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="20"/>
-      <c r="B106" s="21"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="18"/>
+      <c r="A107" s="24"/>
       <c r="B107" s="19"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="20"/>
-      <c r="B108" s="21"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="26"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="18"/>
+      <c r="A109" s="24"/>
       <c r="B109" s="19"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="20"/>
-      <c r="B110" s="21"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="26"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="18"/>
+      <c r="A111" s="24"/>
       <c r="B111" s="19"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="20"/>
-      <c r="B112" s="21"/>
+      <c r="A112" s="25"/>
+      <c r="B112" s="26"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="18"/>
+      <c r="A113" s="24"/>
       <c r="B113" s="19"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="20"/>
-      <c r="B114" s="21"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="26"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="18"/>
+      <c r="A115" s="24"/>
       <c r="B115" s="19"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="20"/>
-      <c r="B116" s="21"/>
+      <c r="A116" s="25"/>
+      <c r="B116" s="26"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="18"/>
+      <c r="A117" s="24"/>
       <c r="B117" s="19"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="20"/>
-      <c r="B118" s="21"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="26"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="18"/>
+      <c r="A119" s="24"/>
       <c r="B119" s="19"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="20"/>
-      <c r="B120" s="21"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="26"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="18"/>
+      <c r="A121" s="24"/>
       <c r="B121" s="19"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="20"/>
-      <c r="B122" s="21"/>
+      <c r="A122" s="25"/>
+      <c r="B122" s="26"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="18"/>
+      <c r="A123" s="24"/>
       <c r="B123" s="19"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="20"/>
-      <c r="B124" s="21"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="26"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="18"/>
+      <c r="A125" s="24"/>
       <c r="B125" s="19"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="20"/>
-      <c r="B126" s="21"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="26"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="18"/>
+      <c r="A127" s="24"/>
       <c r="B127" s="19"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="20"/>
-      <c r="B128" s="21"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="26"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="18"/>
+      <c r="A129" s="24"/>
       <c r="B129" s="19"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="20"/>
-      <c r="B130" s="21"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="26"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="18"/>
+      <c r="A131" s="24"/>
       <c r="B131" s="19"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="20"/>
-      <c r="B132" s="21"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="26"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="18"/>
+      <c r="A133" s="24"/>
       <c r="B133" s="19"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="20"/>
-      <c r="B134" s="21"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="26"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="18"/>
+      <c r="A135" s="24"/>
       <c r="B135" s="19"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="20"/>
-      <c r="B136" s="21"/>
+      <c r="A136" s="25"/>
+      <c r="B136" s="26"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="18"/>
+      <c r="A137" s="24"/>
       <c r="B137" s="19"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="20"/>
-      <c r="B138" s="21"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="26"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="18"/>
+      <c r="A139" s="24"/>
       <c r="B139" s="19"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="20"/>
-      <c r="B140" s="21"/>
+      <c r="A140" s="25"/>
+      <c r="B140" s="26"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="18"/>
+      <c r="A141" s="24"/>
       <c r="B141" s="19"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="20"/>
-      <c r="B142" s="21"/>
+      <c r="A142" s="25"/>
+      <c r="B142" s="26"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="18"/>
+      <c r="A143" s="24"/>
       <c r="B143" s="19"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="20"/>
-      <c r="B144" s="21"/>
+      <c r="A144" s="25"/>
+      <c r="B144" s="26"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="18"/>
+      <c r="A145" s="24"/>
       <c r="B145" s="19"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="20"/>
-      <c r="B146" s="21"/>
+      <c r="A146" s="25"/>
+      <c r="B146" s="26"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="18"/>
+      <c r="A147" s="24"/>
       <c r="B147" s="19"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="20"/>
-      <c r="B148" s="21"/>
+      <c r="A148" s="25"/>
+      <c r="B148" s="26"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="18"/>
+      <c r="A149" s="24"/>
       <c r="B149" s="19"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="20"/>
-      <c r="B150" s="21"/>
+      <c r="A150" s="25"/>
+      <c r="B150" s="26"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="18"/>
+      <c r="A151" s="24"/>
       <c r="B151" s="19"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="20"/>
-      <c r="B152" s="21"/>
+      <c r="A152" s="25"/>
+      <c r="B152" s="26"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="18"/>
+      <c r="A153" s="24"/>
       <c r="B153" s="19"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="20"/>
-      <c r="B154" s="21"/>
+      <c r="A154" s="25"/>
+      <c r="B154" s="26"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="18"/>
+      <c r="A155" s="24"/>
       <c r="B155" s="19"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="20"/>
-      <c r="B156" s="21"/>
+      <c r="A156" s="25"/>
+      <c r="B156" s="26"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="18"/>
+      <c r="A157" s="24"/>
       <c r="B157" s="19"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="20"/>
-      <c r="B158" s="21"/>
+      <c r="A158" s="25"/>
+      <c r="B158" s="26"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="18"/>
+      <c r="A159" s="24"/>
       <c r="B159" s="19"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="20"/>
-      <c r="B160" s="21"/>
+      <c r="A160" s="25"/>
+      <c r="B160" s="26"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="18"/>
+      <c r="A161" s="24"/>
       <c r="B161" s="19"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="20"/>
-      <c r="B162" s="21"/>
+      <c r="A162" s="25"/>
+      <c r="B162" s="26"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="18"/>
+      <c r="A163" s="24"/>
       <c r="B163" s="19"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="20"/>
-      <c r="B164" s="21"/>
+      <c r="A164" s="25"/>
+      <c r="B164" s="26"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="18"/>
+      <c r="A165" s="24"/>
       <c r="B165" s="19"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="20"/>
-      <c r="B166" s="21"/>
+      <c r="A166" s="25"/>
+      <c r="B166" s="26"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="18"/>
+      <c r="A167" s="24"/>
       <c r="B167" s="19"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="20"/>
-      <c r="B168" s="21"/>
+      <c r="A168" s="25"/>
+      <c r="B168" s="26"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="18"/>
+      <c r="A169" s="24"/>
       <c r="B169" s="19"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="20"/>
-      <c r="B170" s="21"/>
+      <c r="A170" s="25"/>
+      <c r="B170" s="26"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="18"/>
+      <c r="A171" s="24"/>
       <c r="B171" s="19"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="20"/>
-      <c r="B172" s="21"/>
+      <c r="A172" s="25"/>
+      <c r="B172" s="26"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="18"/>
+      <c r="A173" s="24"/>
       <c r="B173" s="19"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="20"/>
-      <c r="B174" s="21"/>
+      <c r="A174" s="25"/>
+      <c r="B174" s="26"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="18"/>
+      <c r="A175" s="24"/>
       <c r="B175" s="19"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="20"/>
-      <c r="B176" s="21"/>
+      <c r="A176" s="25"/>
+      <c r="B176" s="26"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="18"/>
+      <c r="A177" s="24"/>
       <c r="B177" s="19"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="20"/>
-      <c r="B178" s="21"/>
+      <c r="A178" s="25"/>
+      <c r="B178" s="26"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="18"/>
+      <c r="A179" s="24"/>
       <c r="B179" s="19"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="20"/>
-      <c r="B180" s="21"/>
+      <c r="A180" s="25"/>
+      <c r="B180" s="26"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="18"/>
+      <c r="A181" s="24"/>
       <c r="B181" s="19"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="20"/>
-      <c r="B182" s="21"/>
+      <c r="A182" s="25"/>
+      <c r="B182" s="26"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="18"/>
+      <c r="A183" s="24"/>
       <c r="B183" s="19"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="20"/>
-      <c r="B184" s="21"/>
+      <c r="A184" s="25"/>
+      <c r="B184" s="26"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="18"/>
+      <c r="A185" s="24"/>
       <c r="B185" s="19"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="20"/>
-      <c r="B186" s="21"/>
+      <c r="A186" s="25"/>
+      <c r="B186" s="26"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="18"/>
+      <c r="A187" s="24"/>
       <c r="B187" s="19"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="20"/>
-      <c r="B188" s="21"/>
+      <c r="A188" s="25"/>
+      <c r="B188" s="26"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="18"/>
+      <c r="A189" s="24"/>
       <c r="B189" s="19"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="20"/>
-      <c r="B190" s="21"/>
+      <c r="A190" s="25"/>
+      <c r="B190" s="26"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="18"/>
+      <c r="A191" s="24"/>
       <c r="B191" s="19"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="20"/>
-      <c r="B192" s="21"/>
+      <c r="A192" s="25"/>
+      <c r="B192" s="26"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="18"/>
+      <c r="A193" s="24"/>
       <c r="B193" s="19"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="20"/>
-      <c r="B194" s="21"/>
+      <c r="A194" s="25"/>
+      <c r="B194" s="26"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="18"/>
+      <c r="A195" s="24"/>
       <c r="B195" s="19"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="20"/>
-      <c r="B196" s="21"/>
+      <c r="A196" s="25"/>
+      <c r="B196" s="26"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="18"/>
+      <c r="A197" s="24"/>
       <c r="B197" s="19"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="20"/>
-      <c r="B198" s="21"/>
+      <c r="A198" s="25"/>
+      <c r="B198" s="26"/>
       <c r="C198" s="12"/>
     </row>
     <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="18"/>
+      <c r="A199" s="24"/>
       <c r="B199" s="19"/>
       <c r="C199" s="9"/>
     </row>
     <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="22"/>
-      <c r="B200" s="23"/>
-      <c r="C200" s="24"/>
+      <c r="A200" s="27"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14955" windowHeight="8520"/>
+    <workbookView windowWidth="25095" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
   <si>
     <t>页面名称</t>
   </si>
@@ -652,9 +652,6 @@
     <t>相似商品</t>
   </si>
   <si>
-    <t>01-19任务</t>
-  </si>
-  <si>
     <t>mobilepay_fail</t>
   </si>
   <si>
@@ -695,6 +692,27 @@
   </si>
   <si>
     <t>我的好友</t>
+  </si>
+  <si>
+    <t>referrer</t>
+  </si>
+  <si>
+    <t>我推荐的人</t>
+  </si>
+  <si>
+    <t>certify</t>
+  </si>
+  <si>
+    <t>bank_card</t>
+  </si>
+  <si>
+    <t>银行卡</t>
+  </si>
+  <si>
+    <t>add_bank_card</t>
+  </si>
+  <si>
+    <t>添加银行卡</t>
   </si>
 </sst>
 </file>
@@ -703,11 +721,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,27 +737,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="9" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -867,9 +864,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,11 +878,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -928,6 +931,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -940,25 +955,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,7 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,6 +991,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1006,13 +1015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,7 +1039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,13 +1057,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,13 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,13 +1099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,10 +1376,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1385,137 +1388,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1531,7 +1534,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1540,7 +1543,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1549,52 +1552,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1954,10 +1945,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2020,7 +2011,7 @@
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="12"/>
@@ -2029,7 +2020,7 @@
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="9"/>
@@ -2041,7 +2032,7 @@
       <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2052,7 +2043,7 @@
       <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2078,7 +2069,7 @@
       <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="12"/>
@@ -2099,7 +2090,7 @@
       <c r="B14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2107,10 +2098,10 @@
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2147,7 +2138,7 @@
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="9"/>
@@ -2156,7 +2147,7 @@
       <c r="A20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -2170,7 +2161,7 @@
       <c r="B21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2181,7 +2172,7 @@
       <c r="B22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2214,7 +2205,7 @@
       <c r="B25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" ht="50" customHeight="1" spans="1:3">
       <c r="A26" s="10" t="s">
@@ -2234,7 +2225,7 @@
       <c r="B27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="14" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2245,7 +2236,7 @@
       <c r="B28" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2256,7 +2247,7 @@
       <c r="B29" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="14" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2267,7 +2258,7 @@
       <c r="B30" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="13" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2275,7 +2266,7 @@
       <c r="A31" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="9"/>
@@ -2284,10 +2275,10 @@
       <c r="A32" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" ht="50" customHeight="1" spans="1:3">
       <c r="A33" s="7" t="s">
@@ -2296,7 +2287,7 @@
       <c r="B33" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2307,7 +2298,7 @@
       <c r="B34" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="13" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2326,7 +2317,7 @@
       <c r="A36" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="12"/>
@@ -2344,10 +2335,10 @@
       <c r="A38" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="13" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2358,7 +2349,7 @@
       <c r="B39" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="14" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2366,10 +2357,10 @@
       <c r="A40" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="13" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2380,7 +2371,7 @@
       <c r="B41" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="14" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2436,7 +2427,7 @@
       <c r="B47" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="14" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2447,7 +2438,7 @@
       <c r="B48" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="13" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2455,7 +2446,7 @@
       <c r="A49" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -2469,7 +2460,7 @@
       <c r="B50" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2519,7 +2510,7 @@
       <c r="A55" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C55" s="9"/>
@@ -2528,7 +2519,7 @@
       <c r="A56" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C56" s="12" t="s">
@@ -2539,7 +2530,7 @@
       <c r="A57" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="8" t="s">
         <v>137</v>
       </c>
       <c r="C57" s="9"/>
@@ -2595,7 +2586,7 @@
       <c r="A63" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C63" s="9" t="s">
@@ -2606,7 +2597,7 @@
       <c r="A64" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="11" t="s">
         <v>153</v>
       </c>
       <c r="C64" s="12"/>
@@ -2629,7 +2620,7 @@
       <c r="B66" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="13" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2637,7 +2628,7 @@
       <c r="A67" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C67" s="9"/>
@@ -2646,7 +2637,7 @@
       <c r="A68" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="11" t="s">
         <v>163</v>
       </c>
       <c r="C68" s="12"/>
@@ -2684,7 +2675,7 @@
       <c r="A72" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C72" s="12"/>
@@ -2702,7 +2693,7 @@
       <c r="A74" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C74" s="12" t="s">
@@ -2713,7 +2704,7 @@
       <c r="A75" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="8" t="s">
         <v>179</v>
       </c>
       <c r="C75" s="9" t="s">
@@ -2724,7 +2715,7 @@
       <c r="A76" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="11" t="s">
         <v>182</v>
       </c>
       <c r="C76" s="12" t="s">
@@ -2773,7 +2764,7 @@
       <c r="A81" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="8" t="s">
         <v>194</v>
       </c>
       <c r="C81" s="9" t="s">
@@ -2784,630 +2775,634 @@
       <c r="A82" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="11" t="s">
         <v>197</v>
       </c>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B83" s="19"/>
+      <c r="B83" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
-      <c r="A84" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B84" s="21" t="s">
+      <c r="A84" s="10" t="s">
         <v>200</v>
       </c>
+      <c r="B84" s="11" t="s">
+        <v>201</v>
+      </c>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
-      <c r="A85" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B85" s="23" t="s">
+      <c r="A85" s="7" t="s">
         <v>202</v>
       </c>
+      <c r="B85" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
-      <c r="A86" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="B86" s="21" t="s">
+      <c r="A86" s="10" t="s">
         <v>204</v>
       </c>
+      <c r="B86" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
-      <c r="A87" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="B87" s="23" t="s">
+      <c r="A87" s="7" t="s">
         <v>206</v>
       </c>
+      <c r="B87" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
-      <c r="A88" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B88" s="21" t="s">
+      <c r="A88" s="10" t="s">
         <v>208</v>
       </c>
+      <c r="B88" s="11" t="s">
+        <v>209</v>
+      </c>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
-      <c r="A89" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="B89" s="23" t="s">
+      <c r="A89" s="7" t="s">
         <v>210</v>
       </c>
+      <c r="B89" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
-      <c r="A90" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B90" s="21" t="s">
+      <c r="A90" s="10" t="s">
         <v>212</v>
       </c>
+      <c r="B90" s="11" t="s">
+        <v>213</v>
+      </c>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="24"/>
-      <c r="B91" s="19"/>
+      <c r="A91" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>155</v>
+      </c>
       <c r="C91" s="9"/>
     </row>
     <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="25"/>
-      <c r="B92" s="26"/>
+      <c r="A92" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>216</v>
+      </c>
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="24"/>
-      <c r="B93" s="19"/>
+      <c r="A93" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="C93" s="9"/>
     </row>
     <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="25"/>
-      <c r="B94" s="26"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="24"/>
-      <c r="B95" s="19"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="25"/>
-      <c r="B96" s="26"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="24"/>
-      <c r="B97" s="19"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="25"/>
-      <c r="B98" s="26"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="24"/>
-      <c r="B99" s="19"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="25"/>
-      <c r="B100" s="26"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="24"/>
-      <c r="B101" s="19"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="25"/>
-      <c r="B102" s="26"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="24"/>
-      <c r="B103" s="19"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="25"/>
-      <c r="B104" s="26"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="24"/>
-      <c r="B105" s="19"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="25"/>
-      <c r="B106" s="26"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="24"/>
-      <c r="B107" s="19"/>
+      <c r="A107" s="21"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="25"/>
-      <c r="B108" s="26"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="24"/>
-      <c r="B109" s="19"/>
+      <c r="A109" s="21"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="25"/>
-      <c r="B110" s="26"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="24"/>
-      <c r="B111" s="19"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="25"/>
-      <c r="B112" s="26"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="24"/>
-      <c r="B113" s="19"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="25"/>
-      <c r="B114" s="26"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="24"/>
-      <c r="B115" s="19"/>
+      <c r="A115" s="21"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="25"/>
-      <c r="B116" s="26"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="24"/>
-      <c r="B117" s="19"/>
+      <c r="A117" s="21"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="25"/>
-      <c r="B118" s="26"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="24"/>
-      <c r="B119" s="19"/>
+      <c r="A119" s="21"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="25"/>
-      <c r="B120" s="26"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="24"/>
-      <c r="B121" s="19"/>
+      <c r="A121" s="21"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="25"/>
-      <c r="B122" s="26"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="24"/>
-      <c r="B123" s="19"/>
+      <c r="A123" s="21"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="25"/>
-      <c r="B124" s="26"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="24"/>
-      <c r="B125" s="19"/>
+      <c r="A125" s="21"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="25"/>
-      <c r="B126" s="26"/>
+      <c r="A126" s="19"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="24"/>
-      <c r="B127" s="19"/>
+      <c r="A127" s="21"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="25"/>
-      <c r="B128" s="26"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="24"/>
-      <c r="B129" s="19"/>
+      <c r="A129" s="21"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="25"/>
-      <c r="B130" s="26"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="24"/>
-      <c r="B131" s="19"/>
+      <c r="A131" s="21"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="25"/>
-      <c r="B132" s="26"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="24"/>
-      <c r="B133" s="19"/>
+      <c r="A133" s="21"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="25"/>
-      <c r="B134" s="26"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="24"/>
-      <c r="B135" s="19"/>
+      <c r="A135" s="21"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="25"/>
-      <c r="B136" s="26"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="24"/>
-      <c r="B137" s="19"/>
+      <c r="A137" s="21"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="25"/>
-      <c r="B138" s="26"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="24"/>
-      <c r="B139" s="19"/>
+      <c r="A139" s="21"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="25"/>
-      <c r="B140" s="26"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="24"/>
-      <c r="B141" s="19"/>
+      <c r="A141" s="21"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="25"/>
-      <c r="B142" s="26"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="24"/>
-      <c r="B143" s="19"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="25"/>
-      <c r="B144" s="26"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="24"/>
-      <c r="B145" s="19"/>
+      <c r="A145" s="21"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="25"/>
-      <c r="B146" s="26"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="24"/>
-      <c r="B147" s="19"/>
+      <c r="A147" s="21"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="25"/>
-      <c r="B148" s="26"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="24"/>
-      <c r="B149" s="19"/>
+      <c r="A149" s="21"/>
+      <c r="B149" s="22"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="25"/>
-      <c r="B150" s="26"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="24"/>
-      <c r="B151" s="19"/>
+      <c r="A151" s="21"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="25"/>
-      <c r="B152" s="26"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="24"/>
-      <c r="B153" s="19"/>
+      <c r="A153" s="21"/>
+      <c r="B153" s="22"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="25"/>
-      <c r="B154" s="26"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="24"/>
-      <c r="B155" s="19"/>
+      <c r="A155" s="21"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="25"/>
-      <c r="B156" s="26"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="24"/>
-      <c r="B157" s="19"/>
+      <c r="A157" s="21"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="25"/>
-      <c r="B158" s="26"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="24"/>
-      <c r="B159" s="19"/>
+      <c r="A159" s="21"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="25"/>
-      <c r="B160" s="26"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="24"/>
-      <c r="B161" s="19"/>
+      <c r="A161" s="21"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="25"/>
-      <c r="B162" s="26"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="24"/>
-      <c r="B163" s="19"/>
+      <c r="A163" s="21"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="25"/>
-      <c r="B164" s="26"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="24"/>
-      <c r="B165" s="19"/>
+      <c r="A165" s="21"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="25"/>
-      <c r="B166" s="26"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="24"/>
-      <c r="B167" s="19"/>
+      <c r="A167" s="21"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="25"/>
-      <c r="B168" s="26"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="24"/>
-      <c r="B169" s="19"/>
+      <c r="A169" s="21"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="25"/>
-      <c r="B170" s="26"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="24"/>
-      <c r="B171" s="19"/>
+      <c r="A171" s="21"/>
+      <c r="B171" s="22"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="25"/>
-      <c r="B172" s="26"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="24"/>
-      <c r="B173" s="19"/>
+      <c r="A173" s="21"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="25"/>
-      <c r="B174" s="26"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="24"/>
-      <c r="B175" s="19"/>
+      <c r="A175" s="21"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="25"/>
-      <c r="B176" s="26"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="24"/>
-      <c r="B177" s="19"/>
+      <c r="A177" s="21"/>
+      <c r="B177" s="22"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="25"/>
-      <c r="B178" s="26"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="24"/>
-      <c r="B179" s="19"/>
+      <c r="A179" s="21"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="25"/>
-      <c r="B180" s="26"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="24"/>
-      <c r="B181" s="19"/>
+      <c r="A181" s="21"/>
+      <c r="B181" s="22"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="25"/>
-      <c r="B182" s="26"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="24"/>
-      <c r="B183" s="19"/>
+      <c r="A183" s="21"/>
+      <c r="B183" s="22"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="25"/>
-      <c r="B184" s="26"/>
+      <c r="A184" s="19"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="24"/>
-      <c r="B185" s="19"/>
+      <c r="A185" s="21"/>
+      <c r="B185" s="22"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="25"/>
-      <c r="B186" s="26"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="24"/>
-      <c r="B187" s="19"/>
+      <c r="A187" s="21"/>
+      <c r="B187" s="22"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="25"/>
-      <c r="B188" s="26"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="24"/>
-      <c r="B189" s="19"/>
+      <c r="A189" s="21"/>
+      <c r="B189" s="22"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="25"/>
-      <c r="B190" s="26"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="24"/>
-      <c r="B191" s="19"/>
+      <c r="A191" s="21"/>
+      <c r="B191" s="22"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="25"/>
-      <c r="B192" s="26"/>
+      <c r="A192" s="19"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="24"/>
-      <c r="B193" s="19"/>
+      <c r="A193" s="21"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="25"/>
-      <c r="B194" s="26"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="24"/>
-      <c r="B195" s="19"/>
+      <c r="A195" s="21"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="25"/>
-      <c r="B196" s="26"/>
+      <c r="A196" s="19"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="24"/>
-      <c r="B197" s="19"/>
+      <c r="A197" s="21"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="25"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="12"/>
-    </row>
-    <row r="199" ht="50" customHeight="1" spans="1:3">
-      <c r="A199" s="24"/>
-      <c r="B199" s="19"/>
-      <c r="C199" s="9"/>
-    </row>
-    <row r="200" ht="50" customHeight="1" spans="1:3">
-      <c r="A200" s="27"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="29"/>
+      <c r="A198" s="23"/>
+      <c r="B198" s="24"/>
+      <c r="C198" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人中心页面.xlsx
+++ b/个人中心页面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
   <si>
     <t>页面名称</t>
   </si>
@@ -142,9 +142,6 @@
     <t>资产分析</t>
   </si>
   <si>
-    <t>需修改</t>
-  </si>
-  <si>
     <t>edit</t>
   </si>
   <si>
@@ -210,10 +207,6 @@
     <t>账户安全</t>
   </si>
   <si>
-    <t>1、用户名修改链接
-2、手机号修改链接</t>
-  </si>
-  <si>
     <t>addshop</t>
   </si>
   <si>
@@ -244,9 +237,6 @@
     <t>账单明细</t>
   </si>
   <si>
-    <t>下一级链接</t>
-  </si>
-  <si>
     <t>binding_failure</t>
   </si>
   <si>
@@ -269,9 +259,6 @@
   </si>
   <si>
     <t>填写验证码</t>
-  </si>
-  <si>
-    <t>1、验证码倒计时，是否能够重新获取验证码</t>
   </si>
   <si>
     <t>personal_data</t>
@@ -302,9 +289,6 @@
     <t>社交账户绑定</t>
   </si>
   <si>
-    <t>1、下一级链接</t>
-  </si>
-  <si>
     <t>set</t>
   </si>
   <si>
@@ -407,6 +391,9 @@
   </si>
   <si>
     <t>评论晒单</t>
+  </si>
+  <si>
+    <t>下一级链接</t>
   </si>
   <si>
     <t>mobile_pay</t>
@@ -713,6 +700,24 @@
   </si>
   <si>
     <t>添加银行卡</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> agreement</t>
+  </si>
+  <si>
+    <t>协议管理</t>
+  </si>
+  <si>
+    <t>scan_file</t>
+  </si>
+  <si>
+    <t>扫描件</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>优惠券</t>
   </si>
 </sst>
 </file>
@@ -720,12 +725,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,30 +748,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,14 +785,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -805,46 +794,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,6 +820,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -880,7 +892,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,7 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,25 +949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,6 +967,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1003,90 +1081,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1106,6 +1100,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,17 +1283,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1310,61 +1366,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1376,10 +1388,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1388,137 +1400,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1534,7 +1546,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1543,7 +1555,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1552,7 +1564,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1564,28 +1576,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1947,8 +1947,8 @@
   <sheetPr/>
   <dimension ref="A1:C198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2090,1319 +2090,1321 @@
       <c r="B14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="1:3">
       <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:3">
       <c r="A16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="C16" s="12"/>
     </row>
     <row r="17" ht="50" customHeight="1" spans="1:3">
       <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" ht="50" customHeight="1" spans="1:3">
       <c r="A18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="C18" s="12"/>
     </row>
     <row r="19" ht="50" customHeight="1" spans="1:3">
       <c r="A19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="C19" s="9"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:3">
       <c r="A20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" ht="87" customHeight="1" spans="1:3">
       <c r="A21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" ht="50" customHeight="1" spans="1:3">
       <c r="A22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" ht="50" customHeight="1" spans="1:3">
       <c r="A23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="24" ht="50" customHeight="1" spans="1:3">
       <c r="A24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" ht="50" customHeight="1" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="14"/>
     </row>
     <row r="26" ht="50" customHeight="1" spans="1:3">
       <c r="A26" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" ht="50" customHeight="1" spans="1:3">
       <c r="A27" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" ht="50" customHeight="1" spans="1:3">
       <c r="A28" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" ht="50" customHeight="1" spans="1:3">
       <c r="A29" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>73</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" ht="50" customHeight="1" spans="1:3">
       <c r="A30" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" ht="50" customHeight="1" spans="1:3">
       <c r="A31" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C31" s="9"/>
     </row>
     <row r="32" ht="50" customHeight="1" spans="1:3">
       <c r="A32" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C32" s="13"/>
     </row>
     <row r="33" ht="50" customHeight="1" spans="1:3">
       <c r="A33" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>83</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" ht="50" customHeight="1" spans="1:3">
       <c r="A34" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>83</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" ht="50" customHeight="1" spans="1:3">
       <c r="A35" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" ht="50" customHeight="1" spans="1:3">
       <c r="A36" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C36" s="12"/>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:3">
       <c r="A37" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C37" s="9"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:3">
       <c r="A38" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" ht="50" customHeight="1" spans="1:3">
       <c r="A39" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" ht="50" customHeight="1" spans="1:3">
       <c r="A40" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" ht="50" customHeight="1" spans="1:3">
       <c r="A41" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" ht="50" customHeight="1" spans="1:3">
       <c r="A42" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C42" s="12"/>
     </row>
     <row r="43" ht="50" customHeight="1" spans="1:3">
       <c r="A43" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C43" s="9"/>
     </row>
     <row r="44" ht="50" customHeight="1" spans="1:3">
       <c r="A44" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C44" s="12"/>
     </row>
     <row r="45" ht="50" customHeight="1" spans="1:3">
       <c r="A45" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C45" s="9"/>
     </row>
     <row r="46" ht="50" customHeight="1" spans="1:3">
       <c r="A46" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C46" s="12"/>
     </row>
     <row r="47" ht="50" customHeight="1" spans="1:3">
       <c r="A47" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" ht="50" customHeight="1" spans="1:3">
       <c r="A48" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" ht="50" customHeight="1" spans="1:3">
       <c r="A49" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" ht="50" customHeight="1" spans="1:3">
       <c r="A50" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" ht="50" customHeight="1" spans="1:3">
       <c r="A51" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:3">
       <c r="A52" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" ht="50" customHeight="1" spans="1:3">
       <c r="A53" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C53" s="9"/>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:3">
       <c r="A54" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" ht="50" customHeight="1" spans="1:3">
       <c r="A55" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C55" s="9"/>
     </row>
     <row r="56" ht="50" customHeight="1" spans="1:3">
       <c r="A56" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" ht="50" customHeight="1" spans="1:3">
       <c r="A57" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C57" s="9"/>
     </row>
     <row r="58" ht="50" customHeight="1" spans="1:3">
       <c r="A58" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C58" s="12"/>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:3">
       <c r="A59" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C59" s="9"/>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:3">
       <c r="A60" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:3">
       <c r="A61" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C61" s="9"/>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:3">
       <c r="A62" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:3">
       <c r="A63" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:3">
       <c r="A64" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:3">
       <c r="A65" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:3">
       <c r="A66" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" ht="50" customHeight="1" spans="1:3">
       <c r="A67" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C67" s="9"/>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:3">
       <c r="A68" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C68" s="12"/>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:3">
       <c r="A69" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C69" s="9"/>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:3">
       <c r="A70" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C70" s="12"/>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:3">
       <c r="A71" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:3">
       <c r="A72" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:3">
       <c r="A73" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C73" s="9"/>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:3">
       <c r="A74" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:3">
       <c r="A75" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:3">
       <c r="A76" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:3">
       <c r="A77" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C77" s="9"/>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:3">
       <c r="A78" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:3">
       <c r="A79" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:3">
       <c r="A80" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C80" s="12"/>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:3">
       <c r="A81" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:3">
       <c r="A82" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C82" s="12"/>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:3">
       <c r="A83" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C83" s="9"/>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:3">
       <c r="A84" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:3">
       <c r="A85" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C85" s="9"/>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:3">
       <c r="A86" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C86" s="12"/>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:3">
       <c r="A87" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C87" s="9"/>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:3">
       <c r="A88" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C88" s="12"/>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:3">
       <c r="A89" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C89" s="9"/>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:3">
       <c r="A90" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" s="12"/>
+    </row>
+    <row r="91" ht="50" customHeight="1" spans="1:3">
+      <c r="A91" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91" s="9"/>
+    </row>
+    <row r="92" ht="50" customHeight="1" spans="1:3">
+      <c r="A92" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="C92" s="12"/>
+    </row>
+    <row r="93" ht="50" customHeight="1" spans="1:3">
+      <c r="A93" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C90" s="12"/>
-    </row>
-    <row r="91" ht="50" customHeight="1" spans="1:3">
-      <c r="A91" s="15" t="s">
+      <c r="B93" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B91" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C91" s="9"/>
-    </row>
-    <row r="92" ht="50" customHeight="1" spans="1:3">
-      <c r="A92" s="17" t="s">
+      <c r="C93" s="9"/>
+    </row>
+    <row r="94" ht="50" customHeight="1" spans="1:3">
+      <c r="A94" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B94" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C92" s="12"/>
-    </row>
-    <row r="93" ht="50" customHeight="1" spans="1:3">
-      <c r="A93" s="15" t="s">
+      <c r="C94" s="12"/>
+    </row>
+    <row r="95" ht="50" customHeight="1" spans="1:3">
+      <c r="A95" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B95" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C93" s="9"/>
-    </row>
-    <row r="94" ht="50" customHeight="1" spans="1:3">
-      <c r="A94" s="19"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="12"/>
-    </row>
-    <row r="95" ht="50" customHeight="1" spans="1:3">
-      <c r="A95" s="21"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="9"/>
+      <c r="C95" s="9" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="96" ht="50" customHeight="1" spans="1:3">
-      <c r="A96" s="19"/>
-      <c r="B96" s="20"/>
+      <c r="A96" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>220</v>
+      </c>
       <c r="C96" s="12"/>
     </row>
     <row r="97" ht="50" customHeight="1" spans="1:3">
-      <c r="A97" s="21"/>
-      <c r="B97" s="22"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="16"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" ht="50" customHeight="1" spans="1:3">
-      <c r="A98" s="19"/>
-      <c r="B98" s="20"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="50" customHeight="1" spans="1:3">
-      <c r="A99" s="21"/>
-      <c r="B99" s="22"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" ht="50" customHeight="1" spans="1:3">
-      <c r="A100" s="19"/>
-      <c r="B100" s="20"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="12"/>
     </row>
     <row r="101" ht="50" customHeight="1" spans="1:3">
-      <c r="A101" s="21"/>
-      <c r="B101" s="22"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="16"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" ht="50" customHeight="1" spans="1:3">
-      <c r="A102" s="19"/>
-      <c r="B102" s="20"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103" ht="50" customHeight="1" spans="1:3">
-      <c r="A103" s="21"/>
-      <c r="B103" s="22"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="9"/>
     </row>
     <row r="104" ht="50" customHeight="1" spans="1:3">
-      <c r="A104" s="19"/>
-      <c r="B104" s="20"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="50" customHeight="1" spans="1:3">
-      <c r="A105" s="21"/>
-      <c r="B105" s="22"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106" ht="50" customHeight="1" spans="1:3">
-      <c r="A106" s="19"/>
-      <c r="B106" s="20"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="12"/>
     </row>
     <row r="107" ht="50" customHeight="1" spans="1:3">
-      <c r="A107" s="21"/>
-      <c r="B107" s="22"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" ht="50" customHeight="1" spans="1:3">
-      <c r="A108" s="19"/>
-      <c r="B108" s="20"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="12"/>
     </row>
     <row r="109" ht="50" customHeight="1" spans="1:3">
-      <c r="A109" s="21"/>
-      <c r="B109" s="22"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="16"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110" ht="50" customHeight="1" spans="1:3">
-      <c r="A110" s="19"/>
-      <c r="B110" s="20"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="50" customHeight="1" spans="1:3">
-      <c r="A111" s="21"/>
-      <c r="B111" s="22"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" ht="50" customHeight="1" spans="1:3">
-      <c r="A112" s="19"/>
-      <c r="B112" s="20"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="12"/>
     </row>
     <row r="113" ht="50" customHeight="1" spans="1:3">
-      <c r="A113" s="21"/>
-      <c r="B113" s="22"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="16"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" ht="50" customHeight="1" spans="1:3">
-      <c r="A114" s="19"/>
-      <c r="B114" s="20"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="12"/>
     </row>
     <row r="115" ht="50" customHeight="1" spans="1:3">
-      <c r="A115" s="21"/>
-      <c r="B115" s="22"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" ht="50" customHeight="1" spans="1:3">
-      <c r="A116" s="19"/>
-      <c r="B116" s="20"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="50" customHeight="1" spans="1:3">
-      <c r="A117" s="21"/>
-      <c r="B117" s="22"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="16"/>
       <c r="C117" s="9"/>
     </row>
     <row r="118" ht="50" customHeight="1" spans="1:3">
-      <c r="A118" s="19"/>
-      <c r="B118" s="20"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="12"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:3">
-      <c r="A119" s="21"/>
-      <c r="B119" s="22"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="16"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="50" customHeight="1" spans="1:3">
-      <c r="A120" s="19"/>
-      <c r="B120" s="20"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="12"/>
     </row>
     <row r="121" ht="50" customHeight="1" spans="1:3">
-      <c r="A121" s="21"/>
-      <c r="B121" s="22"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="16"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122" ht="50" customHeight="1" spans="1:3">
-      <c r="A122" s="19"/>
-      <c r="B122" s="20"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="50" customHeight="1" spans="1:3">
-      <c r="A123" s="21"/>
-      <c r="B123" s="22"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="16"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124" ht="50" customHeight="1" spans="1:3">
-      <c r="A124" s="19"/>
-      <c r="B124" s="20"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="12"/>
     </row>
     <row r="125" ht="50" customHeight="1" spans="1:3">
-      <c r="A125" s="21"/>
-      <c r="B125" s="22"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="16"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126" ht="50" customHeight="1" spans="1:3">
-      <c r="A126" s="19"/>
-      <c r="B126" s="20"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="12"/>
     </row>
     <row r="127" ht="50" customHeight="1" spans="1:3">
-      <c r="A127" s="21"/>
-      <c r="B127" s="22"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="16"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="50" customHeight="1" spans="1:3">
-      <c r="A128" s="19"/>
-      <c r="B128" s="20"/>
+      <c r="A128" s="17"/>
+      <c r="B128" s="18"/>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="50" customHeight="1" spans="1:3">
-      <c r="A129" s="21"/>
-      <c r="B129" s="22"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="16"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="50" customHeight="1" spans="1:3">
-      <c r="A130" s="19"/>
-      <c r="B130" s="20"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="18"/>
       <c r="C130" s="12"/>
     </row>
     <row r="131" ht="50" customHeight="1" spans="1:3">
-      <c r="A131" s="21"/>
-      <c r="B131" s="22"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="16"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="50" customHeight="1" spans="1:3">
-      <c r="A132" s="19"/>
-      <c r="B132" s="20"/>
+      <c r="A132" s="17"/>
+      <c r="B132" s="18"/>
       <c r="C132" s="12"/>
     </row>
     <row r="133" ht="50" customHeight="1" spans="1:3">
-      <c r="A133" s="21"/>
-      <c r="B133" s="22"/>
+      <c r="A133" s="15"/>
+      <c r="B133" s="16"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="50" customHeight="1" spans="1:3">
-      <c r="A134" s="19"/>
-      <c r="B134" s="20"/>
+      <c r="A134" s="17"/>
+      <c r="B134" s="18"/>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="50" customHeight="1" spans="1:3">
-      <c r="A135" s="21"/>
-      <c r="B135" s="22"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="16"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="50" customHeight="1" spans="1:3">
-      <c r="A136" s="19"/>
-      <c r="B136" s="20"/>
+      <c r="A136" s="17"/>
+      <c r="B136" s="18"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" ht="50" customHeight="1" spans="1:3">
-      <c r="A137" s="21"/>
-      <c r="B137" s="22"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="16"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="50" customHeight="1" spans="1:3">
-      <c r="A138" s="19"/>
-      <c r="B138" s="20"/>
+      <c r="A138" s="17"/>
+      <c r="B138" s="18"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" ht="50" customHeight="1" spans="1:3">
-      <c r="A139" s="21"/>
-      <c r="B139" s="22"/>
+      <c r="A139" s="15"/>
+      <c r="B139" s="16"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="50" customHeight="1" spans="1:3">
-      <c r="A140" s="19"/>
-      <c r="B140" s="20"/>
+      <c r="A140" s="17"/>
+      <c r="B140" s="18"/>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="50" customHeight="1" spans="1:3">
-      <c r="A141" s="21"/>
-      <c r="B141" s="22"/>
+      <c r="A141" s="15"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="50" customHeight="1" spans="1:3">
-      <c r="A142" s="19"/>
-      <c r="B142" s="20"/>
+      <c r="A142" s="17"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="12"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:3">
-      <c r="A143" s="21"/>
-      <c r="B143" s="22"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="16"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="50" customHeight="1" spans="1:3">
-      <c r="A144" s="19"/>
-      <c r="B144" s="20"/>
+      <c r="A144" s="17"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="12"/>
     </row>
     <row r="145" ht="50" customHeight="1" spans="1:3">
-      <c r="A145" s="21"/>
-      <c r="B145" s="22"/>
+      <c r="A145" s="15"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="50" customHeight="1" spans="1:3">
-      <c r="A146" s="19"/>
-      <c r="B146" s="20"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="50" customHeight="1" spans="1:3">
-      <c r="A147" s="21"/>
-      <c r="B147" s="22"/>
+      <c r="A147" s="15"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="9"/>
     </row>
     <row r="148" ht="50" customHeight="1" spans="1:3">
-      <c r="A148" s="19"/>
-      <c r="B148" s="20"/>
+      <c r="A148" s="17"/>
+      <c r="B148" s="18"/>
       <c r="C148" s="12"/>
     </row>
     <row r="149" ht="50" customHeight="1" spans="1:3">
-      <c r="A149" s="21"/>
-      <c r="B149" s="22"/>
+      <c r="A149" s="15"/>
+      <c r="B149" s="16"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" ht="50" customHeight="1" spans="1:3">
-      <c r="A150" s="19"/>
-      <c r="B150" s="20"/>
+      <c r="A150" s="17"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="12"/>
     </row>
     <row r="151" ht="50" customHeight="1" spans="1:3">
-      <c r="A151" s="21"/>
-      <c r="B151" s="22"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="16"/>
       <c r="C151" s="9"/>
     </row>
     <row r="152" ht="50" customHeight="1" spans="1:3">
-      <c r="A152" s="19"/>
-      <c r="B152" s="20"/>
+      <c r="A152" s="17"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="50" customHeight="1" spans="1:3">
-      <c r="A153" s="21"/>
-      <c r="B153" s="22"/>
+      <c r="A153" s="15"/>
+      <c r="B153" s="16"/>
       <c r="C153" s="9"/>
     </row>
     <row r="154" ht="50" customHeight="1" spans="1:3">
-      <c r="A154" s="19"/>
-      <c r="B154" s="20"/>
+      <c r="A154" s="17"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="12"/>
     </row>
     <row r="155" ht="50" customHeight="1" spans="1:3">
-      <c r="A155" s="21"/>
-      <c r="B155" s="22"/>
+      <c r="A155" s="15"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="9"/>
     </row>
     <row r="156" ht="50" customHeight="1" spans="1:3">
-      <c r="A156" s="19"/>
-      <c r="B156" s="20"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="12"/>
     </row>
     <row r="157" ht="50" customHeight="1" spans="1:3">
-      <c r="A157" s="21"/>
-      <c r="B157" s="22"/>
+      <c r="A157" s="15"/>
+      <c r="B157" s="16"/>
       <c r="C157" s="9"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:3">
-      <c r="A158" s="19"/>
-      <c r="B158" s="20"/>
+      <c r="A158" s="17"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="50" customHeight="1" spans="1:3">
-      <c r="A159" s="21"/>
-      <c r="B159" s="22"/>
+      <c r="A159" s="15"/>
+      <c r="B159" s="16"/>
       <c r="C159" s="9"/>
     </row>
     <row r="160" ht="50" customHeight="1" spans="1:3">
-      <c r="A160" s="19"/>
-      <c r="B160" s="20"/>
+      <c r="A160" s="17"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="12"/>
     </row>
     <row r="161" ht="50" customHeight="1" spans="1:3">
-      <c r="A161" s="21"/>
-      <c r="B161" s="22"/>
+      <c r="A161" s="15"/>
+      <c r="B161" s="16"/>
       <c r="C161" s="9"/>
     </row>
     <row r="162" ht="50" customHeight="1" spans="1:3">
-      <c r="A162" s="19"/>
-      <c r="B162" s="20"/>
+      <c r="A162" s="17"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="12"/>
     </row>
     <row r="163" ht="50" customHeight="1" spans="1:3">
-      <c r="A163" s="21"/>
-      <c r="B163" s="22"/>
+      <c r="A163" s="15"/>
+      <c r="B163" s="16"/>
       <c r="C163" s="9"/>
     </row>
     <row r="164" ht="50" customHeight="1" spans="1:3">
-      <c r="A164" s="19"/>
-      <c r="B164" s="20"/>
+      <c r="A164" s="17"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="50" customHeight="1" spans="1:3">
-      <c r="A165" s="21"/>
-      <c r="B165" s="22"/>
+      <c r="A165" s="15"/>
+      <c r="B165" s="16"/>
       <c r="C165" s="9"/>
     </row>
     <row r="166" ht="50" customHeight="1" spans="1:3">
-      <c r="A166" s="19"/>
-      <c r="B166" s="20"/>
+      <c r="A166" s="17"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="12"/>
     </row>
     <row r="167" ht="50" customHeight="1" spans="1:3">
-      <c r="A167" s="21"/>
-      <c r="B167" s="22"/>
+      <c r="A167" s="15"/>
+      <c r="B167" s="16"/>
       <c r="C167" s="9"/>
     </row>
     <row r="168" ht="50" customHeight="1" spans="1:3">
-      <c r="A168" s="19"/>
-      <c r="B168" s="20"/>
+      <c r="A168" s="17"/>
+      <c r="B168" s="18"/>
       <c r="C168" s="12"/>
     </row>
     <row r="169" ht="50" customHeight="1" spans="1:3">
-      <c r="A169" s="21"/>
-      <c r="B169" s="22"/>
+      <c r="A169" s="15"/>
+      <c r="B169" s="16"/>
       <c r="C169" s="9"/>
     </row>
     <row r="170" ht="50" customHeight="1" spans="1:3">
-      <c r="A170" s="19"/>
-      <c r="B170" s="20"/>
+      <c r="A170" s="17"/>
+      <c r="B170" s="18"/>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="50" customHeight="1" spans="1:3">
-      <c r="A171" s="21"/>
-      <c r="B171" s="22"/>
+      <c r="A171" s="15"/>
+      <c r="B171" s="16"/>
       <c r="C171" s="9"/>
     </row>
     <row r="172" ht="50" customHeight="1" spans="1:3">
-      <c r="A172" s="19"/>
-      <c r="B172" s="20"/>
+      <c r="A172" s="17"/>
+      <c r="B172" s="18"/>
       <c r="C172" s="12"/>
     </row>
     <row r="173" ht="50" customHeight="1" spans="1:3">
-      <c r="A173" s="21"/>
-      <c r="B173" s="22"/>
+      <c r="A173" s="15"/>
+      <c r="B173" s="16"/>
       <c r="C173" s="9"/>
     </row>
     <row r="174" ht="50" customHeight="1" spans="1:3">
-      <c r="A174" s="19"/>
-      <c r="B174" s="20"/>
+      <c r="A174" s="17"/>
+      <c r="B174" s="18"/>
       <c r="C174" s="12"/>
     </row>
     <row r="175" ht="50" customHeight="1" spans="1:3">
-      <c r="A175" s="21"/>
-      <c r="B175" s="22"/>
+      <c r="A175" s="15"/>
+      <c r="B175" s="16"/>
       <c r="C175" s="9"/>
     </row>
     <row r="176" ht="50" customHeight="1" spans="1:3">
-      <c r="A176" s="19"/>
-      <c r="B176" s="20"/>
+      <c r="A176" s="17"/>
+      <c r="B176" s="18"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="50" customHeight="1" spans="1:3">
-      <c r="A177" s="21"/>
-      <c r="B177" s="22"/>
+      <c r="A177" s="15"/>
+      <c r="B177" s="16"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" ht="50" customHeight="1" spans="1:3">
-      <c r="A178" s="19"/>
-      <c r="B178" s="20"/>
+      <c r="A178" s="17"/>
+      <c r="B178" s="18"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" ht="50" customHeight="1" spans="1:3">
-      <c r="A179" s="21"/>
-      <c r="B179" s="22"/>
+      <c r="A179" s="15"/>
+      <c r="B179" s="16"/>
       <c r="C179" s="9"/>
     </row>
     <row r="180" ht="50" customHeight="1" spans="1:3">
-      <c r="A180" s="19"/>
-      <c r="B180" s="20"/>
+      <c r="A180" s="17"/>
+      <c r="B180" s="18"/>
       <c r="C180" s="12"/>
     </row>
     <row r="181" ht="50" customHeight="1" spans="1:3">
-      <c r="A181" s="21"/>
-      <c r="B181" s="22"/>
+      <c r="A181" s="15"/>
+      <c r="B181" s="16"/>
       <c r="C181" s="9"/>
     </row>
     <row r="182" ht="50" customHeight="1" spans="1:3">
-      <c r="A182" s="19"/>
-      <c r="B182" s="20"/>
+      <c r="A182" s="17"/>
+      <c r="B182" s="18"/>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="50" customHeight="1" spans="1:3">
-      <c r="A183" s="21"/>
-      <c r="B183" s="22"/>
+      <c r="A183" s="15"/>
+      <c r="B183" s="16"/>
       <c r="C183" s="9"/>
     </row>
     <row r="184" ht="50" customHeight="1" spans="1:3">
-      <c r="A184" s="19"/>
-      <c r="B184" s="20"/>
+      <c r="A184" s="17"/>
+      <c r="B184" s="18"/>
       <c r="C184" s="12"/>
     </row>
     <row r="185" ht="50" customHeight="1" spans="1:3">
-      <c r="A185" s="21"/>
-      <c r="B185" s="22"/>
+      <c r="A185" s="15"/>
+      <c r="B185" s="16"/>
       <c r="C185" s="9"/>
     </row>
     <row r="186" ht="50" customHeight="1" spans="1:3">
-      <c r="A186" s="19"/>
-      <c r="B186" s="20"/>
+      <c r="A186" s="17"/>
+      <c r="B186" s="18"/>
       <c r="C186" s="12"/>
     </row>
     <row r="187" ht="50" customHeight="1" spans="1:3">
-      <c r="A187" s="21"/>
-      <c r="B187" s="22"/>
+      <c r="A187" s="15"/>
+      <c r="B187" s="16"/>
       <c r="C187" s="9"/>
     </row>
     <row r="188" ht="50" customHeight="1" spans="1:3">
-      <c r="A188" s="19"/>
-      <c r="B188" s="20"/>
+      <c r="A188" s="17"/>
+      <c r="B188" s="18"/>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="50" customHeight="1" spans="1:3">
-      <c r="A189" s="21"/>
-      <c r="B189" s="22"/>
+      <c r="A189" s="15"/>
+      <c r="B189" s="16"/>
       <c r="C189" s="9"/>
     </row>
     <row r="190" ht="50" customHeight="1" spans="1:3">
-      <c r="A190" s="19"/>
-      <c r="B190" s="20"/>
+      <c r="A190" s="17"/>
+      <c r="B190" s="18"/>
       <c r="C190" s="12"/>
     </row>
     <row r="191" ht="50" customHeight="1" spans="1:3">
-      <c r="A191" s="21"/>
-      <c r="B191" s="22"/>
+      <c r="A191" s="15"/>
+      <c r="B191" s="16"/>
       <c r="C191" s="9"/>
     </row>
     <row r="192" ht="50" customHeight="1" spans="1:3">
-      <c r="A192" s="19"/>
-      <c r="B192" s="20"/>
+      <c r="A192" s="17"/>
+      <c r="B192" s="18"/>
       <c r="C192" s="12"/>
     </row>
     <row r="193" ht="50" customHeight="1" spans="1:3">
-      <c r="A193" s="21"/>
-      <c r="B193" s="22"/>
+      <c r="A193" s="15"/>
+      <c r="B193" s="16"/>
       <c r="C193" s="9"/>
     </row>
     <row r="194" ht="50" customHeight="1" spans="1:3">
-      <c r="A194" s="19"/>
-      <c r="B194" s="20"/>
+      <c r="A194" s="17"/>
+      <c r="B194" s="18"/>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="50" customHeight="1" spans="1:3">
-      <c r="A195" s="21"/>
-      <c r="B195" s="22"/>
+      <c r="A195" s="15"/>
+      <c r="B195" s="16"/>
       <c r="C195" s="9"/>
     </row>
     <row r="196" ht="50" customHeight="1" spans="1:3">
-      <c r="A196" s="19"/>
-      <c r="B196" s="20"/>
+      <c r="A196" s="17"/>
+      <c r="B196" s="18"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" ht="50" customHeight="1" spans="1:3">
-      <c r="A197" s="21"/>
-      <c r="B197" s="22"/>
+      <c r="A197" s="15"/>
+      <c r="B197" s="16"/>
       <c r="C197" s="9"/>
     </row>
     <row r="198" ht="50" customHeight="1" spans="1:3">
-      <c r="A198" s="23"/>
-      <c r="B198" s="24"/>
-      <c r="C198" s="25"/>
+      <c r="A198" s="19"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
